--- a/table_02_04q418.xlsx
+++ b/table_02_04q418.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\OneDrive\UIllinois\CS498_DataViz\FinalProj\cs-498-dv-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61E555B-F32C-448F-B0FC-F73968282C04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D437A13-AF73-4AF9-801A-F64E89760FC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1860,20 +1860,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1881,19 +1899,16 @@
     <xf numFmtId="168" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1905,29 +1920,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -2355,126 +2355,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="94"/>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="79">
+      <c r="B2" s="73">
         <v>1999</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="92">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75">
         <v>2000</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="79">
+      <c r="E2" s="75"/>
+      <c r="F2" s="73">
         <v>2001</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="91">
+      <c r="G2" s="74"/>
+      <c r="H2" s="78">
         <v>2002</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="91">
+      <c r="I2" s="74"/>
+      <c r="J2" s="78">
         <v>2003</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="91">
+      <c r="K2" s="74"/>
+      <c r="L2" s="78">
         <v>2004</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="79">
+      <c r="M2" s="78"/>
+      <c r="N2" s="73">
         <v>2005</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="91">
+      <c r="O2" s="74"/>
+      <c r="P2" s="78">
         <v>2006</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="91">
+      <c r="Q2" s="74"/>
+      <c r="R2" s="78">
         <v>2007</v>
       </c>
-      <c r="S2" s="80"/>
-      <c r="T2" s="89">
+      <c r="S2" s="74"/>
+      <c r="T2" s="85">
         <v>2008</v>
       </c>
-      <c r="U2" s="90"/>
-      <c r="V2" s="89">
+      <c r="U2" s="86"/>
+      <c r="V2" s="85">
         <v>2009</v>
       </c>
-      <c r="W2" s="90"/>
-      <c r="X2" s="89">
+      <c r="W2" s="86"/>
+      <c r="X2" s="85">
         <v>2010</v>
       </c>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="89">
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="85">
         <v>2011</v>
       </c>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="89">
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="85">
         <v>2012</v>
       </c>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="89">
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="85">
         <v>2013</v>
       </c>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="89">
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="85">
         <v>2014</v>
       </c>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="77">
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="83">
         <v>2015</v>
       </c>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="77">
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="83">
         <v>2016</v>
       </c>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="72">
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="92">
         <v>2017</v>
       </c>
-      <c r="AM2" s="73"/>
+      <c r="AM2" s="93"/>
     </row>
     <row r="3" spans="1:39" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -6566,2362 +6566,2362 @@
       </c>
     </row>
     <row r="38" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="93"/>
-      <c r="V38" s="93"/>
-      <c r="W38" s="93"/>
-      <c r="X38" s="93"/>
-      <c r="Y38" s="93"/>
-      <c r="Z38" s="93"/>
-      <c r="AA38" s="93"/>
-      <c r="AB38" s="93"/>
-      <c r="AC38" s="93"/>
-      <c r="AD38" s="93"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="93"/>
-      <c r="AG38" s="93"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="76"/>
     </row>
     <row r="39" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
-      <c r="AB39" s="94"/>
-      <c r="AC39" s="94"/>
-      <c r="AD39" s="94"/>
-      <c r="AE39" s="94"/>
-      <c r="AF39" s="94"/>
-      <c r="AG39" s="94"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="77"/>
+      <c r="Z39" s="77"/>
+      <c r="AA39" s="77"/>
+      <c r="AB39" s="77"/>
+      <c r="AC39" s="77"/>
+      <c r="AD39" s="77"/>
+      <c r="AE39" s="77"/>
+      <c r="AF39" s="77"/>
+      <c r="AG39" s="77"/>
     </row>
     <row r="40" spans="1:39" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="81"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="81"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="81"/>
-      <c r="Z40" s="81"/>
-      <c r="AA40" s="81"/>
-      <c r="AB40" s="81"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="81"/>
-      <c r="AE40" s="81"/>
-      <c r="AF40" s="81"/>
-      <c r="AG40" s="81"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
+      <c r="AA40" s="87"/>
+      <c r="AB40" s="87"/>
+      <c r="AC40" s="87"/>
+      <c r="AD40" s="87"/>
+      <c r="AE40" s="87"/>
+      <c r="AF40" s="87"/>
+      <c r="AG40" s="87"/>
       <c r="AH40" s="53"/>
       <c r="AJ40" s="53"/>
     </row>
     <row r="41" spans="1:39" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="82"/>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="82"/>
-      <c r="AF41" s="82"/>
-      <c r="AG41" s="82"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="88"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="88"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="88"/>
       <c r="AH41" s="53"/>
       <c r="AJ41" s="53"/>
     </row>
     <row r="42" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="87"/>
-      <c r="AA42" s="87"/>
-      <c r="AB42" s="87"/>
-      <c r="AC42" s="87"/>
-      <c r="AD42" s="87"/>
-      <c r="AE42" s="87"/>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="87"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="81"/>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="81"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="81"/>
+      <c r="AF42" s="81"/>
+      <c r="AG42" s="81"/>
       <c r="AH42" s="53"/>
       <c r="AJ42" s="53"/>
     </row>
     <row r="43" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="81"/>
-      <c r="AA43" s="81"/>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="81"/>
-      <c r="AF43" s="81"/>
-      <c r="AG43" s="81"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="87"/>
+      <c r="AB43" s="87"/>
+      <c r="AC43" s="87"/>
+      <c r="AD43" s="87"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="87"/>
+      <c r="AG43" s="87"/>
       <c r="AH43" s="53"/>
       <c r="AJ43" s="53"/>
     </row>
     <row r="44" spans="1:39" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="82"/>
-      <c r="AC44" s="82"/>
-      <c r="AD44" s="82"/>
-      <c r="AE44" s="82"/>
-      <c r="AF44" s="82"/>
-      <c r="AG44" s="82"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="88"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
       <c r="AH44" s="53"/>
       <c r="AJ44" s="53"/>
     </row>
     <row r="45" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="82"/>
-      <c r="AD45" s="82"/>
-      <c r="AE45" s="82"/>
-      <c r="AF45" s="82"/>
-      <c r="AG45" s="82"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="88"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
+      <c r="AE45" s="88"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="88"/>
       <c r="AH45" s="53"/>
       <c r="AJ45" s="53"/>
     </row>
     <row r="46" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="81"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="87"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="87"/>
+      <c r="Z46" s="87"/>
+      <c r="AA46" s="87"/>
+      <c r="AB46" s="87"/>
+      <c r="AC46" s="87"/>
+      <c r="AD46" s="87"/>
+      <c r="AE46" s="87"/>
+      <c r="AF46" s="87"/>
+      <c r="AG46" s="87"/>
       <c r="AH46" s="53"/>
       <c r="AJ46" s="53"/>
     </row>
     <row r="47" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="84"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="84"/>
-      <c r="W47" s="84"/>
-      <c r="X47" s="84"/>
-      <c r="Y47" s="84"/>
-      <c r="Z47" s="84"/>
-      <c r="AA47" s="84"/>
-      <c r="AB47" s="84"/>
-      <c r="AC47" s="84"/>
-      <c r="AD47" s="84"/>
-      <c r="AE47" s="84"/>
-      <c r="AF47" s="84"/>
-      <c r="AG47" s="84"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="89"/>
+      <c r="Z47" s="89"/>
+      <c r="AA47" s="89"/>
+      <c r="AB47" s="89"/>
+      <c r="AC47" s="89"/>
+      <c r="AD47" s="89"/>
+      <c r="AE47" s="89"/>
+      <c r="AF47" s="89"/>
+      <c r="AG47" s="89"/>
       <c r="AH47" s="53"/>
       <c r="AJ47" s="53"/>
     </row>
     <row r="48" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
-      <c r="V48" s="81"/>
-      <c r="W48" s="81"/>
-      <c r="X48" s="81"/>
-      <c r="Y48" s="81"/>
-      <c r="Z48" s="81"/>
-      <c r="AA48" s="81"/>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="81"/>
-      <c r="AD48" s="81"/>
-      <c r="AE48" s="81"/>
-      <c r="AF48" s="81"/>
-      <c r="AG48" s="81"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="87"/>
+      <c r="AE48" s="87"/>
+      <c r="AF48" s="87"/>
+      <c r="AG48" s="87"/>
       <c r="AH48" s="53"/>
       <c r="AJ48" s="53"/>
     </row>
     <row r="49" spans="1:36" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
-      <c r="T49" s="75"/>
-      <c r="U49" s="75"/>
-      <c r="V49" s="75"/>
-      <c r="W49" s="75"/>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="75"/>
-      <c r="Z49" s="75"/>
-      <c r="AA49" s="75"/>
-      <c r="AB49" s="75"/>
-      <c r="AC49" s="75"/>
-      <c r="AD49" s="75"/>
-      <c r="AE49" s="75"/>
-      <c r="AF49" s="75"/>
-      <c r="AG49" s="75"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="72"/>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="72"/>
+      <c r="AE49" s="72"/>
+      <c r="AF49" s="72"/>
+      <c r="AG49" s="72"/>
       <c r="AH49" s="53"/>
       <c r="AJ49" s="53"/>
     </row>
     <row r="50" spans="1:36" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="81"/>
-      <c r="V50" s="81"/>
-      <c r="W50" s="81"/>
-      <c r="X50" s="81"/>
-      <c r="Y50" s="81"/>
-      <c r="Z50" s="81"/>
-      <c r="AA50" s="81"/>
-      <c r="AB50" s="81"/>
-      <c r="AC50" s="81"/>
-      <c r="AD50" s="81"/>
-      <c r="AE50" s="81"/>
-      <c r="AF50" s="81"/>
-      <c r="AG50" s="81"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="87"/>
+      <c r="V50" s="87"/>
+      <c r="W50" s="87"/>
+      <c r="X50" s="87"/>
+      <c r="Y50" s="87"/>
+      <c r="Z50" s="87"/>
+      <c r="AA50" s="87"/>
+      <c r="AB50" s="87"/>
+      <c r="AC50" s="87"/>
+      <c r="AD50" s="87"/>
+      <c r="AE50" s="87"/>
+      <c r="AF50" s="87"/>
+      <c r="AG50" s="87"/>
       <c r="AH50" s="53"/>
       <c r="AJ50" s="53"/>
     </row>
     <row r="51" spans="1:36" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="85"/>
-      <c r="R51" s="85"/>
-      <c r="S51" s="85"/>
-      <c r="T51" s="85"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="85"/>
-      <c r="X51" s="85"/>
-      <c r="Y51" s="85"/>
-      <c r="Z51" s="85"/>
-      <c r="AA51" s="85"/>
-      <c r="AB51" s="85"/>
-      <c r="AC51" s="85"/>
-      <c r="AD51" s="85"/>
-      <c r="AE51" s="85"/>
-      <c r="AF51" s="85"/>
-      <c r="AG51" s="85"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="90"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="90"/>
+      <c r="X51" s="90"/>
+      <c r="Y51" s="90"/>
+      <c r="Z51" s="90"/>
+      <c r="AA51" s="90"/>
+      <c r="AB51" s="90"/>
+      <c r="AC51" s="90"/>
+      <c r="AD51" s="90"/>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="90"/>
+      <c r="AG51" s="90"/>
       <c r="AH51" s="53"/>
       <c r="AJ51" s="53"/>
     </row>
     <row r="52" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="83"/>
-      <c r="V52" s="83"/>
-      <c r="W52" s="83"/>
-      <c r="X52" s="83"/>
-      <c r="Y52" s="83"/>
-      <c r="Z52" s="83"/>
-      <c r="AA52" s="83"/>
-      <c r="AB52" s="83"/>
-      <c r="AC52" s="83"/>
-      <c r="AD52" s="83"/>
-      <c r="AE52" s="83"/>
-      <c r="AF52" s="83"/>
-      <c r="AG52" s="83"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="79"/>
+      <c r="R52" s="79"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="79"/>
+      <c r="AA52" s="79"/>
+      <c r="AB52" s="79"/>
+      <c r="AC52" s="79"/>
+      <c r="AD52" s="79"/>
+      <c r="AE52" s="79"/>
+      <c r="AF52" s="79"/>
+      <c r="AG52" s="79"/>
       <c r="AH52" s="54"/>
       <c r="AJ52" s="54"/>
     </row>
     <row r="53" spans="1:36" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
-      <c r="W53" s="75"/>
-      <c r="X53" s="75"/>
-      <c r="Y53" s="75"/>
-      <c r="Z53" s="75"/>
-      <c r="AA53" s="75"/>
-      <c r="AB53" s="75"/>
-      <c r="AC53" s="75"/>
-      <c r="AD53" s="75"/>
-      <c r="AE53" s="75"/>
-      <c r="AF53" s="75"/>
-      <c r="AG53" s="75"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
+      <c r="AE53" s="72"/>
+      <c r="AF53" s="72"/>
+      <c r="AG53" s="72"/>
       <c r="AH53" s="54"/>
       <c r="AJ53" s="54"/>
     </row>
     <row r="54" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
-      <c r="W54" s="75"/>
-      <c r="X54" s="75"/>
-      <c r="Y54" s="75"/>
-      <c r="Z54" s="75"/>
-      <c r="AA54" s="75"/>
-      <c r="AB54" s="75"/>
-      <c r="AC54" s="75"/>
-      <c r="AD54" s="75"/>
-      <c r="AE54" s="75"/>
-      <c r="AF54" s="75"/>
-      <c r="AG54" s="75"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
+      <c r="AE54" s="72"/>
+      <c r="AF54" s="72"/>
+      <c r="AG54" s="72"/>
       <c r="AH54" s="54"/>
       <c r="AJ54" s="54"/>
     </row>
     <row r="55" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="75"/>
-      <c r="W55" s="75"/>
-      <c r="X55" s="75"/>
-      <c r="Y55" s="75"/>
-      <c r="Z55" s="75"/>
-      <c r="AA55" s="75"/>
-      <c r="AB55" s="75"/>
-      <c r="AC55" s="75"/>
-      <c r="AD55" s="75"/>
-      <c r="AE55" s="75"/>
-      <c r="AF55" s="75"/>
-      <c r="AG55" s="75"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
+      <c r="W55" s="72"/>
+      <c r="X55" s="72"/>
+      <c r="Y55" s="72"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="72"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="72"/>
+      <c r="AE55" s="72"/>
+      <c r="AF55" s="72"/>
+      <c r="AG55" s="72"/>
       <c r="AH55" s="54"/>
       <c r="AJ55" s="54"/>
     </row>
     <row r="56" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="75"/>
-      <c r="T56" s="75"/>
-      <c r="U56" s="75"/>
-      <c r="V56" s="75"/>
-      <c r="W56" s="75"/>
-      <c r="X56" s="75"/>
-      <c r="Y56" s="75"/>
-      <c r="Z56" s="75"/>
-      <c r="AA56" s="75"/>
-      <c r="AB56" s="75"/>
-      <c r="AC56" s="75"/>
-      <c r="AD56" s="75"/>
-      <c r="AE56" s="75"/>
-      <c r="AF56" s="75"/>
-      <c r="AG56" s="75"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="72"/>
+      <c r="W56" s="72"/>
+      <c r="X56" s="72"/>
+      <c r="Y56" s="72"/>
+      <c r="Z56" s="72"/>
+      <c r="AA56" s="72"/>
+      <c r="AB56" s="72"/>
+      <c r="AC56" s="72"/>
+      <c r="AD56" s="72"/>
+      <c r="AE56" s="72"/>
+      <c r="AF56" s="72"/>
+      <c r="AG56" s="72"/>
       <c r="AH56" s="54"/>
       <c r="AJ56" s="54"/>
     </row>
     <row r="57" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="75"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
-      <c r="X57" s="75"/>
-      <c r="Y57" s="75"/>
-      <c r="Z57" s="75"/>
-      <c r="AA57" s="75"/>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="75"/>
-      <c r="AD57" s="75"/>
-      <c r="AE57" s="75"/>
-      <c r="AF57" s="75"/>
-      <c r="AG57" s="75"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="72"/>
+      <c r="X57" s="72"/>
+      <c r="Y57" s="72"/>
+      <c r="Z57" s="72"/>
+      <c r="AA57" s="72"/>
+      <c r="AB57" s="72"/>
+      <c r="AC57" s="72"/>
+      <c r="AD57" s="72"/>
+      <c r="AE57" s="72"/>
+      <c r="AF57" s="72"/>
+      <c r="AG57" s="72"/>
       <c r="AH57" s="54"/>
       <c r="AJ57" s="54"/>
     </row>
     <row r="58" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
-      <c r="X58" s="83"/>
-      <c r="Y58" s="83"/>
-      <c r="Z58" s="83"/>
-      <c r="AA58" s="83"/>
-      <c r="AB58" s="83"/>
-      <c r="AC58" s="83"/>
-      <c r="AD58" s="83"/>
-      <c r="AE58" s="83"/>
-      <c r="AF58" s="83"/>
-      <c r="AG58" s="83"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="79"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="79"/>
+      <c r="AA58" s="79"/>
+      <c r="AB58" s="79"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="79"/>
+      <c r="AE58" s="79"/>
+      <c r="AF58" s="79"/>
+      <c r="AG58" s="79"/>
     </row>
     <row r="59" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="83"/>
-      <c r="T59" s="83"/>
-      <c r="U59" s="83"/>
-      <c r="V59" s="83"/>
-      <c r="W59" s="83"/>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="83"/>
-      <c r="Z59" s="83"/>
-      <c r="AA59" s="83"/>
-      <c r="AB59" s="83"/>
-      <c r="AC59" s="83"/>
-      <c r="AD59" s="83"/>
-      <c r="AE59" s="83"/>
-      <c r="AF59" s="83"/>
-      <c r="AG59" s="83"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="79"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="79"/>
+      <c r="T59" s="79"/>
+      <c r="U59" s="79"/>
+      <c r="V59" s="79"/>
+      <c r="W59" s="79"/>
+      <c r="X59" s="79"/>
+      <c r="Y59" s="79"/>
+      <c r="Z59" s="79"/>
+      <c r="AA59" s="79"/>
+      <c r="AB59" s="79"/>
+      <c r="AC59" s="79"/>
+      <c r="AD59" s="79"/>
+      <c r="AE59" s="79"/>
+      <c r="AF59" s="79"/>
+      <c r="AG59" s="79"/>
     </row>
     <row r="60" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="80"/>
+      <c r="V60" s="80"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="80"/>
+      <c r="Y60" s="80"/>
+      <c r="Z60" s="80"/>
+      <c r="AA60" s="80"/>
+      <c r="AB60" s="80"/>
+      <c r="AC60" s="80"/>
+      <c r="AD60" s="80"/>
+      <c r="AE60" s="80"/>
+      <c r="AF60" s="80"/>
+      <c r="AG60" s="80"/>
     </row>
     <row r="61" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75"/>
-      <c r="X61" s="75"/>
-      <c r="Y61" s="75"/>
-      <c r="Z61" s="75"/>
-      <c r="AA61" s="75"/>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="75"/>
-      <c r="AD61" s="75"/>
-      <c r="AE61" s="75"/>
-      <c r="AF61" s="75"/>
-      <c r="AG61" s="75"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="72"/>
+      <c r="S61" s="72"/>
+      <c r="T61" s="72"/>
+      <c r="U61" s="72"/>
+      <c r="V61" s="72"/>
+      <c r="W61" s="72"/>
+      <c r="X61" s="72"/>
+      <c r="Y61" s="72"/>
+      <c r="Z61" s="72"/>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="72"/>
+      <c r="AC61" s="72"/>
+      <c r="AD61" s="72"/>
+      <c r="AE61" s="72"/>
+      <c r="AF61" s="72"/>
+      <c r="AG61" s="72"/>
     </row>
     <row r="62" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="75"/>
-      <c r="U62" s="75"/>
-      <c r="V62" s="75"/>
-      <c r="W62" s="75"/>
-      <c r="X62" s="75"/>
-      <c r="Y62" s="75"/>
-      <c r="Z62" s="75"/>
-      <c r="AA62" s="75"/>
-      <c r="AB62" s="75"/>
-      <c r="AC62" s="75"/>
-      <c r="AD62" s="75"/>
-      <c r="AE62" s="75"/>
-      <c r="AF62" s="75"/>
-      <c r="AG62" s="75"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="72"/>
+      <c r="S62" s="72"/>
+      <c r="T62" s="72"/>
+      <c r="U62" s="72"/>
+      <c r="V62" s="72"/>
+      <c r="W62" s="72"/>
+      <c r="X62" s="72"/>
+      <c r="Y62" s="72"/>
+      <c r="Z62" s="72"/>
+      <c r="AA62" s="72"/>
+      <c r="AB62" s="72"/>
+      <c r="AC62" s="72"/>
+      <c r="AD62" s="72"/>
+      <c r="AE62" s="72"/>
+      <c r="AF62" s="72"/>
+      <c r="AG62" s="72"/>
     </row>
     <row r="63" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
-      <c r="AA63" s="75"/>
-      <c r="AB63" s="75"/>
-      <c r="AC63" s="75"/>
-      <c r="AD63" s="75"/>
-      <c r="AE63" s="75"/>
-      <c r="AF63" s="75"/>
-      <c r="AG63" s="75"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="72"/>
+      <c r="V63" s="72"/>
+      <c r="W63" s="72"/>
+      <c r="X63" s="72"/>
+      <c r="Y63" s="72"/>
+      <c r="Z63" s="72"/>
+      <c r="AA63" s="72"/>
+      <c r="AB63" s="72"/>
+      <c r="AC63" s="72"/>
+      <c r="AD63" s="72"/>
+      <c r="AE63" s="72"/>
+      <c r="AF63" s="72"/>
+      <c r="AG63" s="72"/>
     </row>
     <row r="64" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
-      <c r="AA64" s="75"/>
-      <c r="AB64" s="75"/>
-      <c r="AC64" s="75"/>
-      <c r="AD64" s="75"/>
-      <c r="AE64" s="75"/>
-      <c r="AF64" s="75"/>
-      <c r="AG64" s="75"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="72"/>
+      <c r="W64" s="72"/>
+      <c r="X64" s="72"/>
+      <c r="Y64" s="72"/>
+      <c r="Z64" s="72"/>
+      <c r="AA64" s="72"/>
+      <c r="AB64" s="72"/>
+      <c r="AC64" s="72"/>
+      <c r="AD64" s="72"/>
+      <c r="AE64" s="72"/>
+      <c r="AF64" s="72"/>
+      <c r="AG64" s="72"/>
     </row>
     <row r="65" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="75"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="75"/>
-      <c r="R65" s="75"/>
-      <c r="S65" s="75"/>
-      <c r="T65" s="75"/>
-      <c r="U65" s="75"/>
-      <c r="V65" s="75"/>
-      <c r="W65" s="75"/>
-      <c r="X65" s="75"/>
-      <c r="Y65" s="75"/>
-      <c r="Z65" s="75"/>
-      <c r="AA65" s="75"/>
-      <c r="AB65" s="75"/>
-      <c r="AC65" s="75"/>
-      <c r="AD65" s="75"/>
-      <c r="AE65" s="75"/>
-      <c r="AF65" s="75"/>
-      <c r="AG65" s="75"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="72"/>
+      <c r="U65" s="72"/>
+      <c r="V65" s="72"/>
+      <c r="W65" s="72"/>
+      <c r="X65" s="72"/>
+      <c r="Y65" s="72"/>
+      <c r="Z65" s="72"/>
+      <c r="AA65" s="72"/>
+      <c r="AB65" s="72"/>
+      <c r="AC65" s="72"/>
+      <c r="AD65" s="72"/>
+      <c r="AE65" s="72"/>
+      <c r="AF65" s="72"/>
+      <c r="AG65" s="72"/>
     </row>
     <row r="66" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="76"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="76"/>
-      <c r="P66" s="76"/>
-      <c r="Q66" s="76"/>
-      <c r="R66" s="76"/>
-      <c r="S66" s="76"/>
-      <c r="T66" s="76"/>
-      <c r="U66" s="76"/>
-      <c r="V66" s="76"/>
-      <c r="W66" s="76"/>
-      <c r="X66" s="76"/>
-      <c r="Y66" s="76"/>
-      <c r="Z66" s="76"/>
-      <c r="AA66" s="76"/>
-      <c r="AB66" s="76"/>
-      <c r="AC66" s="76"/>
-      <c r="AD66" s="76"/>
-      <c r="AE66" s="76"/>
-      <c r="AF66" s="76"/>
-      <c r="AG66" s="76"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="80"/>
+      <c r="W66" s="80"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
+      <c r="Z66" s="80"/>
+      <c r="AA66" s="80"/>
+      <c r="AB66" s="80"/>
+      <c r="AC66" s="80"/>
+      <c r="AD66" s="80"/>
+      <c r="AE66" s="80"/>
+      <c r="AF66" s="80"/>
+      <c r="AG66" s="80"/>
     </row>
     <row r="67" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75" t="s">
+      <c r="A67" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="75"/>
-      <c r="S67" s="75"/>
-      <c r="T67" s="75"/>
-      <c r="U67" s="75"/>
-      <c r="V67" s="75"/>
-      <c r="W67" s="75"/>
-      <c r="X67" s="75"/>
-      <c r="Y67" s="75"/>
-      <c r="Z67" s="75"/>
-      <c r="AA67" s="75"/>
-      <c r="AB67" s="75"/>
-      <c r="AC67" s="75"/>
-      <c r="AD67" s="75"/>
-      <c r="AE67" s="75"/>
-      <c r="AF67" s="75"/>
-      <c r="AG67" s="75"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72"/>
+      <c r="Y67" s="72"/>
+      <c r="Z67" s="72"/>
+      <c r="AA67" s="72"/>
+      <c r="AB67" s="72"/>
+      <c r="AC67" s="72"/>
+      <c r="AD67" s="72"/>
+      <c r="AE67" s="72"/>
+      <c r="AF67" s="72"/>
+      <c r="AG67" s="72"/>
     </row>
     <row r="68" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="75"/>
-      <c r="S68" s="75"/>
-      <c r="T68" s="75"/>
-      <c r="U68" s="75"/>
-      <c r="V68" s="75"/>
-      <c r="W68" s="75"/>
-      <c r="X68" s="75"/>
-      <c r="Y68" s="75"/>
-      <c r="Z68" s="75"/>
-      <c r="AA68" s="75"/>
-      <c r="AB68" s="75"/>
-      <c r="AC68" s="75"/>
-      <c r="AD68" s="75"/>
-      <c r="AE68" s="75"/>
-      <c r="AF68" s="75"/>
-      <c r="AG68" s="75"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="72"/>
+      <c r="W68" s="72"/>
+      <c r="X68" s="72"/>
+      <c r="Y68" s="72"/>
+      <c r="Z68" s="72"/>
+      <c r="AA68" s="72"/>
+      <c r="AB68" s="72"/>
+      <c r="AC68" s="72"/>
+      <c r="AD68" s="72"/>
+      <c r="AE68" s="72"/>
+      <c r="AF68" s="72"/>
+      <c r="AG68" s="72"/>
     </row>
     <row r="69" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="76" t="s">
+      <c r="A69" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="76"/>
-      <c r="S69" s="76"/>
-      <c r="T69" s="76"/>
-      <c r="U69" s="76"/>
-      <c r="V69" s="76"/>
-      <c r="W69" s="76"/>
-      <c r="X69" s="76"/>
-      <c r="Y69" s="76"/>
-      <c r="Z69" s="76"/>
-      <c r="AA69" s="76"/>
-      <c r="AB69" s="76"/>
-      <c r="AC69" s="76"/>
-      <c r="AD69" s="76"/>
-      <c r="AE69" s="76"/>
-      <c r="AF69" s="76"/>
-      <c r="AG69" s="76"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="80"/>
+      <c r="S69" s="80"/>
+      <c r="T69" s="80"/>
+      <c r="U69" s="80"/>
+      <c r="V69" s="80"/>
+      <c r="W69" s="80"/>
+      <c r="X69" s="80"/>
+      <c r="Y69" s="80"/>
+      <c r="Z69" s="80"/>
+      <c r="AA69" s="80"/>
+      <c r="AB69" s="80"/>
+      <c r="AC69" s="80"/>
+      <c r="AD69" s="80"/>
+      <c r="AE69" s="80"/>
+      <c r="AF69" s="80"/>
+      <c r="AG69" s="80"/>
     </row>
     <row r="70" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="75"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
-      <c r="W70" s="75"/>
-      <c r="X70" s="75"/>
-      <c r="Y70" s="75"/>
-      <c r="Z70" s="75"/>
-      <c r="AA70" s="75"/>
-      <c r="AB70" s="75"/>
-      <c r="AC70" s="75"/>
-      <c r="AD70" s="75"/>
-      <c r="AE70" s="75"/>
-      <c r="AF70" s="75"/>
-      <c r="AG70" s="75"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
+      <c r="W70" s="72"/>
+      <c r="X70" s="72"/>
+      <c r="Y70" s="72"/>
+      <c r="Z70" s="72"/>
+      <c r="AA70" s="72"/>
+      <c r="AB70" s="72"/>
+      <c r="AC70" s="72"/>
+      <c r="AD70" s="72"/>
+      <c r="AE70" s="72"/>
+      <c r="AF70" s="72"/>
+      <c r="AG70" s="72"/>
     </row>
     <row r="71" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
-      <c r="T71" s="75"/>
-      <c r="U71" s="75"/>
-      <c r="V71" s="75"/>
-      <c r="W71" s="75"/>
-      <c r="X71" s="75"/>
-      <c r="Y71" s="75"/>
-      <c r="Z71" s="75"/>
-      <c r="AA71" s="75"/>
-      <c r="AB71" s="75"/>
-      <c r="AC71" s="75"/>
-      <c r="AD71" s="75"/>
-      <c r="AE71" s="75"/>
-      <c r="AF71" s="75"/>
-      <c r="AG71" s="75"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="72"/>
+      <c r="Y71" s="72"/>
+      <c r="Z71" s="72"/>
+      <c r="AA71" s="72"/>
+      <c r="AB71" s="72"/>
+      <c r="AC71" s="72"/>
+      <c r="AD71" s="72"/>
+      <c r="AE71" s="72"/>
+      <c r="AF71" s="72"/>
+      <c r="AG71" s="72"/>
     </row>
     <row r="72" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="76"/>
-      <c r="Q72" s="76"/>
-      <c r="R72" s="76"/>
-      <c r="S72" s="76"/>
-      <c r="T72" s="76"/>
-      <c r="U72" s="76"/>
-      <c r="V72" s="76"/>
-      <c r="W72" s="76"/>
-      <c r="X72" s="76"/>
-      <c r="Y72" s="76"/>
-      <c r="Z72" s="76"/>
-      <c r="AA72" s="76"/>
-      <c r="AB72" s="76"/>
-      <c r="AC72" s="76"/>
-      <c r="AD72" s="76"/>
-      <c r="AE72" s="76"/>
-      <c r="AF72" s="76"/>
-      <c r="AG72" s="76"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="80"/>
+      <c r="R72" s="80"/>
+      <c r="S72" s="80"/>
+      <c r="T72" s="80"/>
+      <c r="U72" s="80"/>
+      <c r="V72" s="80"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="80"/>
+      <c r="Z72" s="80"/>
+      <c r="AA72" s="80"/>
+      <c r="AB72" s="80"/>
+      <c r="AC72" s="80"/>
+      <c r="AD72" s="80"/>
+      <c r="AE72" s="80"/>
+      <c r="AF72" s="80"/>
+      <c r="AG72" s="80"/>
     </row>
     <row r="73" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
-      <c r="R73" s="75"/>
-      <c r="S73" s="75"/>
-      <c r="T73" s="75"/>
-      <c r="U73" s="75"/>
-      <c r="V73" s="75"/>
-      <c r="W73" s="75"/>
-      <c r="X73" s="75"/>
-      <c r="Y73" s="75"/>
-      <c r="Z73" s="75"/>
-      <c r="AA73" s="75"/>
-      <c r="AB73" s="75"/>
-      <c r="AC73" s="75"/>
-      <c r="AD73" s="75"/>
-      <c r="AE73" s="75"/>
-      <c r="AF73" s="75"/>
-      <c r="AG73" s="75"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="72"/>
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="72"/>
+      <c r="AF73" s="72"/>
+      <c r="AG73" s="72"/>
     </row>
     <row r="74" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="75"/>
-      <c r="S74" s="75"/>
-      <c r="T74" s="75"/>
-      <c r="U74" s="75"/>
-      <c r="V74" s="75"/>
-      <c r="W74" s="75"/>
-      <c r="X74" s="75"/>
-      <c r="Y74" s="75"/>
-      <c r="Z74" s="75"/>
-      <c r="AA74" s="75"/>
-      <c r="AB74" s="75"/>
-      <c r="AC74" s="75"/>
-      <c r="AD74" s="75"/>
-      <c r="AE74" s="75"/>
-      <c r="AF74" s="75"/>
-      <c r="AG74" s="75"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="72"/>
+      <c r="Y74" s="72"/>
+      <c r="Z74" s="72"/>
+      <c r="AA74" s="72"/>
+      <c r="AB74" s="72"/>
+      <c r="AC74" s="72"/>
+      <c r="AD74" s="72"/>
+      <c r="AE74" s="72"/>
+      <c r="AF74" s="72"/>
+      <c r="AG74" s="72"/>
     </row>
     <row r="75" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="75"/>
-      <c r="S75" s="75"/>
-      <c r="T75" s="75"/>
-      <c r="U75" s="75"/>
-      <c r="V75" s="75"/>
-      <c r="W75" s="75"/>
-      <c r="X75" s="75"/>
-      <c r="Y75" s="75"/>
-      <c r="Z75" s="75"/>
-      <c r="AA75" s="75"/>
-      <c r="AB75" s="75"/>
-      <c r="AC75" s="75"/>
-      <c r="AD75" s="75"/>
-      <c r="AE75" s="75"/>
-      <c r="AF75" s="75"/>
-      <c r="AG75" s="75"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="72"/>
+      <c r="Y75" s="72"/>
+      <c r="Z75" s="72"/>
+      <c r="AA75" s="72"/>
+      <c r="AB75" s="72"/>
+      <c r="AC75" s="72"/>
+      <c r="AD75" s="72"/>
+      <c r="AE75" s="72"/>
+      <c r="AF75" s="72"/>
+      <c r="AG75" s="72"/>
     </row>
     <row r="76" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="83"/>
-      <c r="S76" s="83"/>
-      <c r="T76" s="83"/>
-      <c r="U76" s="83"/>
-      <c r="V76" s="83"/>
-      <c r="W76" s="83"/>
-      <c r="X76" s="83"/>
-      <c r="Y76" s="83"/>
-      <c r="Z76" s="83"/>
-      <c r="AA76" s="83"/>
-      <c r="AB76" s="83"/>
-      <c r="AC76" s="83"/>
-      <c r="AD76" s="83"/>
-      <c r="AE76" s="83"/>
-      <c r="AF76" s="83"/>
-      <c r="AG76" s="83"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
+      <c r="S76" s="79"/>
+      <c r="T76" s="79"/>
+      <c r="U76" s="79"/>
+      <c r="V76" s="79"/>
+      <c r="W76" s="79"/>
+      <c r="X76" s="79"/>
+      <c r="Y76" s="79"/>
+      <c r="Z76" s="79"/>
+      <c r="AA76" s="79"/>
+      <c r="AB76" s="79"/>
+      <c r="AC76" s="79"/>
+      <c r="AD76" s="79"/>
+      <c r="AE76" s="79"/>
+      <c r="AF76" s="79"/>
+      <c r="AG76" s="79"/>
     </row>
     <row r="77" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="75"/>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="75"/>
-      <c r="S77" s="75"/>
-      <c r="T77" s="75"/>
-      <c r="U77" s="75"/>
-      <c r="V77" s="75"/>
-      <c r="W77" s="75"/>
-      <c r="X77" s="75"/>
-      <c r="Y77" s="75"/>
-      <c r="Z77" s="75"/>
-      <c r="AA77" s="75"/>
-      <c r="AB77" s="75"/>
-      <c r="AC77" s="75"/>
-      <c r="AD77" s="75"/>
-      <c r="AE77" s="75"/>
-      <c r="AF77" s="75"/>
-      <c r="AG77" s="75"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="72"/>
+      <c r="W77" s="72"/>
+      <c r="X77" s="72"/>
+      <c r="Y77" s="72"/>
+      <c r="Z77" s="72"/>
+      <c r="AA77" s="72"/>
+      <c r="AB77" s="72"/>
+      <c r="AC77" s="72"/>
+      <c r="AD77" s="72"/>
+      <c r="AE77" s="72"/>
+      <c r="AF77" s="72"/>
+      <c r="AG77" s="72"/>
     </row>
     <row r="78" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="75"/>
-      <c r="S78" s="75"/>
-      <c r="T78" s="75"/>
-      <c r="U78" s="75"/>
-      <c r="V78" s="75"/>
-      <c r="W78" s="75"/>
-      <c r="X78" s="75"/>
-      <c r="Y78" s="75"/>
-      <c r="Z78" s="75"/>
-      <c r="AA78" s="75"/>
-      <c r="AB78" s="75"/>
-      <c r="AC78" s="75"/>
-      <c r="AD78" s="75"/>
-      <c r="AE78" s="75"/>
-      <c r="AF78" s="75"/>
-      <c r="AG78" s="75"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="72"/>
+      <c r="T78" s="72"/>
+      <c r="U78" s="72"/>
+      <c r="V78" s="72"/>
+      <c r="W78" s="72"/>
+      <c r="X78" s="72"/>
+      <c r="Y78" s="72"/>
+      <c r="Z78" s="72"/>
+      <c r="AA78" s="72"/>
+      <c r="AB78" s="72"/>
+      <c r="AC78" s="72"/>
+      <c r="AD78" s="72"/>
+      <c r="AE78" s="72"/>
+      <c r="AF78" s="72"/>
+      <c r="AG78" s="72"/>
     </row>
     <row r="79" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="75" t="s">
+      <c r="A79" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="75"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="75"/>
-      <c r="S79" s="75"/>
-      <c r="T79" s="75"/>
-      <c r="U79" s="75"/>
-      <c r="V79" s="75"/>
-      <c r="W79" s="75"/>
-      <c r="X79" s="75"/>
-      <c r="Y79" s="75"/>
-      <c r="Z79" s="75"/>
-      <c r="AA79" s="75"/>
-      <c r="AB79" s="75"/>
-      <c r="AC79" s="75"/>
-      <c r="AD79" s="75"/>
-      <c r="AE79" s="75"/>
-      <c r="AF79" s="75"/>
-      <c r="AG79" s="75"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="72"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
+      <c r="S79" s="72"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
+      <c r="V79" s="72"/>
+      <c r="W79" s="72"/>
+      <c r="X79" s="72"/>
+      <c r="Y79" s="72"/>
+      <c r="Z79" s="72"/>
+      <c r="AA79" s="72"/>
+      <c r="AB79" s="72"/>
+      <c r="AC79" s="72"/>
+      <c r="AD79" s="72"/>
+      <c r="AE79" s="72"/>
+      <c r="AF79" s="72"/>
+      <c r="AG79" s="72"/>
     </row>
     <row r="80" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="83"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
-      <c r="K80" s="83"/>
-      <c r="L80" s="83"/>
-      <c r="M80" s="83"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="83"/>
-      <c r="P80" s="83"/>
-      <c r="Q80" s="83"/>
-      <c r="R80" s="83"/>
-      <c r="S80" s="83"/>
-      <c r="T80" s="83"/>
-      <c r="U80" s="83"/>
-      <c r="V80" s="83"/>
-      <c r="W80" s="83"/>
-      <c r="X80" s="83"/>
-      <c r="Y80" s="83"/>
-      <c r="Z80" s="83"/>
-      <c r="AA80" s="83"/>
-      <c r="AB80" s="83"/>
-      <c r="AC80" s="83"/>
-      <c r="AD80" s="83"/>
-      <c r="AE80" s="83"/>
-      <c r="AF80" s="83"/>
-      <c r="AG80" s="83"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="79"/>
+      <c r="M80" s="79"/>
+      <c r="N80" s="79"/>
+      <c r="O80" s="79"/>
+      <c r="P80" s="79"/>
+      <c r="Q80" s="79"/>
+      <c r="R80" s="79"/>
+      <c r="S80" s="79"/>
+      <c r="T80" s="79"/>
+      <c r="U80" s="79"/>
+      <c r="V80" s="79"/>
+      <c r="W80" s="79"/>
+      <c r="X80" s="79"/>
+      <c r="Y80" s="79"/>
+      <c r="Z80" s="79"/>
+      <c r="AA80" s="79"/>
+      <c r="AB80" s="79"/>
+      <c r="AC80" s="79"/>
+      <c r="AD80" s="79"/>
+      <c r="AE80" s="79"/>
+      <c r="AF80" s="79"/>
+      <c r="AG80" s="79"/>
     </row>
     <row r="81" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="76"/>
-      <c r="W81" s="76"/>
-      <c r="X81" s="76"/>
-      <c r="Y81" s="76"/>
-      <c r="Z81" s="76"/>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="76"/>
-      <c r="AD81" s="76"/>
-      <c r="AE81" s="76"/>
-      <c r="AF81" s="76"/>
-      <c r="AG81" s="76"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="80"/>
+      <c r="Q81" s="80"/>
+      <c r="R81" s="80"/>
+      <c r="S81" s="80"/>
+      <c r="T81" s="80"/>
+      <c r="U81" s="80"/>
+      <c r="V81" s="80"/>
+      <c r="W81" s="80"/>
+      <c r="X81" s="80"/>
+      <c r="Y81" s="80"/>
+      <c r="Z81" s="80"/>
+      <c r="AA81" s="80"/>
+      <c r="AB81" s="80"/>
+      <c r="AC81" s="80"/>
+      <c r="AD81" s="80"/>
+      <c r="AE81" s="80"/>
+      <c r="AF81" s="80"/>
+      <c r="AG81" s="80"/>
     </row>
     <row r="82" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="75" t="s">
+      <c r="A82" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="75"/>
-      <c r="T82" s="75"/>
-      <c r="U82" s="75"/>
-      <c r="V82" s="75"/>
-      <c r="W82" s="75"/>
-      <c r="X82" s="75"/>
-      <c r="Y82" s="75"/>
-      <c r="Z82" s="75"/>
-      <c r="AA82" s="75"/>
-      <c r="AB82" s="75"/>
-      <c r="AC82" s="75"/>
-      <c r="AD82" s="75"/>
-      <c r="AE82" s="75"/>
-      <c r="AF82" s="75"/>
-      <c r="AG82" s="75"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="72"/>
+      <c r="U82" s="72"/>
+      <c r="V82" s="72"/>
+      <c r="W82" s="72"/>
+      <c r="X82" s="72"/>
+      <c r="Y82" s="72"/>
+      <c r="Z82" s="72"/>
+      <c r="AA82" s="72"/>
+      <c r="AB82" s="72"/>
+      <c r="AC82" s="72"/>
+      <c r="AD82" s="72"/>
+      <c r="AE82" s="72"/>
+      <c r="AF82" s="72"/>
+      <c r="AG82" s="72"/>
     </row>
     <row r="83" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="75" t="s">
+      <c r="A83" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
-      <c r="S83" s="75"/>
-      <c r="T83" s="75"/>
-      <c r="U83" s="75"/>
-      <c r="V83" s="75"/>
-      <c r="W83" s="75"/>
-      <c r="X83" s="75"/>
-      <c r="Y83" s="75"/>
-      <c r="Z83" s="75"/>
-      <c r="AA83" s="75"/>
-      <c r="AB83" s="75"/>
-      <c r="AC83" s="75"/>
-      <c r="AD83" s="75"/>
-      <c r="AE83" s="75"/>
-      <c r="AF83" s="75"/>
-      <c r="AG83" s="75"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="72"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="72"/>
+      <c r="S83" s="72"/>
+      <c r="T83" s="72"/>
+      <c r="U83" s="72"/>
+      <c r="V83" s="72"/>
+      <c r="W83" s="72"/>
+      <c r="X83" s="72"/>
+      <c r="Y83" s="72"/>
+      <c r="Z83" s="72"/>
+      <c r="AA83" s="72"/>
+      <c r="AB83" s="72"/>
+      <c r="AC83" s="72"/>
+      <c r="AD83" s="72"/>
+      <c r="AE83" s="72"/>
+      <c r="AF83" s="72"/>
+      <c r="AG83" s="72"/>
     </row>
     <row r="84" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="76" t="s">
+      <c r="A84" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="76"/>
-      <c r="K84" s="76"/>
-      <c r="L84" s="76"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="76"/>
-      <c r="O84" s="76"/>
-      <c r="P84" s="76"/>
-      <c r="Q84" s="76"/>
-      <c r="R84" s="76"/>
-      <c r="S84" s="76"/>
-      <c r="T84" s="76"/>
-      <c r="U84" s="76"/>
-      <c r="V84" s="76"/>
-      <c r="W84" s="76"/>
-      <c r="X84" s="76"/>
-      <c r="Y84" s="76"/>
-      <c r="Z84" s="76"/>
-      <c r="AA84" s="76"/>
-      <c r="AB84" s="76"/>
-      <c r="AC84" s="76"/>
-      <c r="AD84" s="76"/>
-      <c r="AE84" s="76"/>
-      <c r="AF84" s="76"/>
-      <c r="AG84" s="76"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="80"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="80"/>
+      <c r="K84" s="80"/>
+      <c r="L84" s="80"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80"/>
+      <c r="P84" s="80"/>
+      <c r="Q84" s="80"/>
+      <c r="R84" s="80"/>
+      <c r="S84" s="80"/>
+      <c r="T84" s="80"/>
+      <c r="U84" s="80"/>
+      <c r="V84" s="80"/>
+      <c r="W84" s="80"/>
+      <c r="X84" s="80"/>
+      <c r="Y84" s="80"/>
+      <c r="Z84" s="80"/>
+      <c r="AA84" s="80"/>
+      <c r="AB84" s="80"/>
+      <c r="AC84" s="80"/>
+      <c r="AD84" s="80"/>
+      <c r="AE84" s="80"/>
+      <c r="AF84" s="80"/>
+      <c r="AG84" s="80"/>
     </row>
     <row r="85" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="75" t="s">
+      <c r="A85" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="75"/>
-      <c r="T85" s="75"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="75"/>
-      <c r="W85" s="75"/>
-      <c r="X85" s="75"/>
-      <c r="Y85" s="75"/>
-      <c r="Z85" s="75"/>
-      <c r="AA85" s="75"/>
-      <c r="AB85" s="75"/>
-      <c r="AC85" s="75"/>
-      <c r="AD85" s="75"/>
-      <c r="AE85" s="75"/>
-      <c r="AF85" s="75"/>
-      <c r="AG85" s="75"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="72"/>
+      <c r="O85" s="72"/>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="72"/>
+      <c r="S85" s="72"/>
+      <c r="T85" s="72"/>
+      <c r="U85" s="72"/>
+      <c r="V85" s="72"/>
+      <c r="W85" s="72"/>
+      <c r="X85" s="72"/>
+      <c r="Y85" s="72"/>
+      <c r="Z85" s="72"/>
+      <c r="AA85" s="72"/>
+      <c r="AB85" s="72"/>
+      <c r="AC85" s="72"/>
+      <c r="AD85" s="72"/>
+      <c r="AE85" s="72"/>
+      <c r="AF85" s="72"/>
+      <c r="AG85" s="72"/>
     </row>
     <row r="86" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
-      <c r="W86" s="75"/>
-      <c r="X86" s="75"/>
-      <c r="Y86" s="75"/>
-      <c r="Z86" s="75"/>
-      <c r="AA86" s="75"/>
-      <c r="AB86" s="75"/>
-      <c r="AC86" s="75"/>
-      <c r="AD86" s="75"/>
-      <c r="AE86" s="75"/>
-      <c r="AF86" s="75"/>
-      <c r="AG86" s="75"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="72"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="72"/>
+      <c r="O86" s="72"/>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="72"/>
+      <c r="R86" s="72"/>
+      <c r="S86" s="72"/>
+      <c r="T86" s="72"/>
+      <c r="U86" s="72"/>
+      <c r="V86" s="72"/>
+      <c r="W86" s="72"/>
+      <c r="X86" s="72"/>
+      <c r="Y86" s="72"/>
+      <c r="Z86" s="72"/>
+      <c r="AA86" s="72"/>
+      <c r="AB86" s="72"/>
+      <c r="AC86" s="72"/>
+      <c r="AD86" s="72"/>
+      <c r="AE86" s="72"/>
+      <c r="AF86" s="72"/>
+      <c r="AG86" s="72"/>
     </row>
     <row r="87" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="s">
+      <c r="A87" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
-      <c r="W87" s="75"/>
-      <c r="X87" s="75"/>
-      <c r="Y87" s="75"/>
-      <c r="Z87" s="75"/>
-      <c r="AA87" s="75"/>
-      <c r="AB87" s="75"/>
-      <c r="AC87" s="75"/>
-      <c r="AD87" s="75"/>
-      <c r="AE87" s="75"/>
-      <c r="AF87" s="75"/>
-      <c r="AG87" s="75"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="72"/>
+      <c r="O87" s="72"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="72"/>
+      <c r="W87" s="72"/>
+      <c r="X87" s="72"/>
+      <c r="Y87" s="72"/>
+      <c r="Z87" s="72"/>
+      <c r="AA87" s="72"/>
+      <c r="AB87" s="72"/>
+      <c r="AC87" s="72"/>
+      <c r="AD87" s="72"/>
+      <c r="AE87" s="72"/>
+      <c r="AF87" s="72"/>
+      <c r="AG87" s="72"/>
     </row>
     <row r="88" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="83"/>
-      <c r="M88" s="83"/>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
-      <c r="V88" s="83"/>
-      <c r="W88" s="83"/>
-      <c r="X88" s="83"/>
-      <c r="Y88" s="83"/>
-      <c r="Z88" s="83"/>
-      <c r="AA88" s="83"/>
-      <c r="AB88" s="83"/>
-      <c r="AC88" s="83"/>
-      <c r="AD88" s="83"/>
-      <c r="AE88" s="83"/>
-      <c r="AF88" s="83"/>
-      <c r="AG88" s="83"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
+      <c r="O88" s="79"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
+      <c r="W88" s="79"/>
+      <c r="X88" s="79"/>
+      <c r="Y88" s="79"/>
+      <c r="Z88" s="79"/>
+      <c r="AA88" s="79"/>
+      <c r="AB88" s="79"/>
+      <c r="AC88" s="79"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="79"/>
+      <c r="AF88" s="79"/>
+      <c r="AG88" s="79"/>
     </row>
     <row r="89" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="s">
+      <c r="A89" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="75"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="75"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="75"/>
-      <c r="S89" s="75"/>
-      <c r="T89" s="75"/>
-      <c r="U89" s="75"/>
-      <c r="V89" s="75"/>
-      <c r="W89" s="75"/>
-      <c r="X89" s="75"/>
-      <c r="Y89" s="75"/>
-      <c r="Z89" s="75"/>
-      <c r="AA89" s="75"/>
-      <c r="AB89" s="75"/>
-      <c r="AC89" s="75"/>
-      <c r="AD89" s="75"/>
-      <c r="AE89" s="75"/>
-      <c r="AF89" s="75"/>
-      <c r="AG89" s="75"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="72"/>
+      <c r="N89" s="72"/>
+      <c r="O89" s="72"/>
+      <c r="P89" s="72"/>
+      <c r="Q89" s="72"/>
+      <c r="R89" s="72"/>
+      <c r="S89" s="72"/>
+      <c r="T89" s="72"/>
+      <c r="U89" s="72"/>
+      <c r="V89" s="72"/>
+      <c r="W89" s="72"/>
+      <c r="X89" s="72"/>
+      <c r="Y89" s="72"/>
+      <c r="Z89" s="72"/>
+      <c r="AA89" s="72"/>
+      <c r="AB89" s="72"/>
+      <c r="AC89" s="72"/>
+      <c r="AD89" s="72"/>
+      <c r="AE89" s="72"/>
+      <c r="AF89" s="72"/>
+      <c r="AG89" s="72"/>
     </row>
     <row r="90" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="75"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="75"/>
-      <c r="Q90" s="75"/>
-      <c r="R90" s="75"/>
-      <c r="S90" s="75"/>
-      <c r="T90" s="75"/>
-      <c r="U90" s="75"/>
-      <c r="V90" s="75"/>
-      <c r="W90" s="75"/>
-      <c r="X90" s="75"/>
-      <c r="Y90" s="75"/>
-      <c r="Z90" s="75"/>
-      <c r="AA90" s="75"/>
-      <c r="AB90" s="75"/>
-      <c r="AC90" s="75"/>
-      <c r="AD90" s="75"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="72"/>
+      <c r="O90" s="72"/>
+      <c r="P90" s="72"/>
+      <c r="Q90" s="72"/>
+      <c r="R90" s="72"/>
+      <c r="S90" s="72"/>
+      <c r="T90" s="72"/>
+      <c r="U90" s="72"/>
+      <c r="V90" s="72"/>
+      <c r="W90" s="72"/>
+      <c r="X90" s="72"/>
+      <c r="Y90" s="72"/>
+      <c r="Z90" s="72"/>
+      <c r="AA90" s="72"/>
+      <c r="AB90" s="72"/>
+      <c r="AC90" s="72"/>
+      <c r="AD90" s="72"/>
       <c r="AE90" s="55"/>
       <c r="AF90" s="55"/>
       <c r="AG90" s="55"/>
     </row>
     <row r="91" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="83" t="s">
+      <c r="A91" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="83"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="83"/>
-      <c r="L91" s="83"/>
-      <c r="M91" s="83"/>
-      <c r="N91" s="83"/>
-      <c r="O91" s="83"/>
-      <c r="P91" s="83"/>
-      <c r="Q91" s="83"/>
-      <c r="R91" s="83"/>
-      <c r="S91" s="83"/>
-      <c r="T91" s="83"/>
-      <c r="U91" s="83"/>
-      <c r="V91" s="83"/>
-      <c r="W91" s="83"/>
-      <c r="X91" s="83"/>
-      <c r="Y91" s="83"/>
-      <c r="Z91" s="83"/>
-      <c r="AA91" s="83"/>
-      <c r="AB91" s="83"/>
-      <c r="AC91" s="83"/>
-      <c r="AD91" s="83"/>
-      <c r="AE91" s="83"/>
-      <c r="AF91" s="83"/>
-      <c r="AG91" s="83"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="79"/>
+      <c r="O91" s="79"/>
+      <c r="P91" s="79"/>
+      <c r="Q91" s="79"/>
+      <c r="R91" s="79"/>
+      <c r="S91" s="79"/>
+      <c r="T91" s="79"/>
+      <c r="U91" s="79"/>
+      <c r="V91" s="79"/>
+      <c r="W91" s="79"/>
+      <c r="X91" s="79"/>
+      <c r="Y91" s="79"/>
+      <c r="Z91" s="79"/>
+      <c r="AA91" s="79"/>
+      <c r="AB91" s="79"/>
+      <c r="AC91" s="79"/>
+      <c r="AD91" s="79"/>
+      <c r="AE91" s="79"/>
+      <c r="AF91" s="79"/>
+      <c r="AG91" s="79"/>
     </row>
     <row r="92" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="76"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="76"/>
-      <c r="O92" s="76"/>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="76"/>
-      <c r="R92" s="76"/>
-      <c r="S92" s="76"/>
-      <c r="T92" s="76"/>
-      <c r="U92" s="76"/>
-      <c r="V92" s="76"/>
-      <c r="W92" s="76"/>
-      <c r="X92" s="76"/>
-      <c r="Y92" s="76"/>
-      <c r="Z92" s="76"/>
-      <c r="AA92" s="76"/>
-      <c r="AB92" s="76"/>
-      <c r="AC92" s="76"/>
-      <c r="AD92" s="76"/>
-      <c r="AE92" s="76"/>
-      <c r="AF92" s="76"/>
-      <c r="AG92" s="76"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="80"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="80"/>
+      <c r="O92" s="80"/>
+      <c r="P92" s="80"/>
+      <c r="Q92" s="80"/>
+      <c r="R92" s="80"/>
+      <c r="S92" s="80"/>
+      <c r="T92" s="80"/>
+      <c r="U92" s="80"/>
+      <c r="V92" s="80"/>
+      <c r="W92" s="80"/>
+      <c r="X92" s="80"/>
+      <c r="Y92" s="80"/>
+      <c r="Z92" s="80"/>
+      <c r="AA92" s="80"/>
+      <c r="AB92" s="80"/>
+      <c r="AC92" s="80"/>
+      <c r="AD92" s="80"/>
+      <c r="AE92" s="80"/>
+      <c r="AF92" s="80"/>
+      <c r="AG92" s="80"/>
     </row>
     <row r="93" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="75"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="75"/>
-      <c r="Q93" s="75"/>
-      <c r="R93" s="75"/>
-      <c r="S93" s="75"/>
-      <c r="T93" s="75"/>
-      <c r="U93" s="75"/>
-      <c r="V93" s="75"/>
-      <c r="W93" s="75"/>
-      <c r="X93" s="75"/>
-      <c r="Y93" s="75"/>
-      <c r="Z93" s="75"/>
-      <c r="AA93" s="75"/>
-      <c r="AB93" s="75"/>
-      <c r="AC93" s="75"/>
-      <c r="AD93" s="75"/>
-      <c r="AE93" s="75"/>
-      <c r="AF93" s="75"/>
-      <c r="AG93" s="75"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="72"/>
+      <c r="L93" s="72"/>
+      <c r="M93" s="72"/>
+      <c r="N93" s="72"/>
+      <c r="O93" s="72"/>
+      <c r="P93" s="72"/>
+      <c r="Q93" s="72"/>
+      <c r="R93" s="72"/>
+      <c r="S93" s="72"/>
+      <c r="T93" s="72"/>
+      <c r="U93" s="72"/>
+      <c r="V93" s="72"/>
+      <c r="W93" s="72"/>
+      <c r="X93" s="72"/>
+      <c r="Y93" s="72"/>
+      <c r="Z93" s="72"/>
+      <c r="AA93" s="72"/>
+      <c r="AB93" s="72"/>
+      <c r="AC93" s="72"/>
+      <c r="AD93" s="72"/>
+      <c r="AE93" s="72"/>
+      <c r="AF93" s="72"/>
+      <c r="AG93" s="72"/>
     </row>
     <row r="94" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="88" t="s">
+      <c r="A94" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="88"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="88"/>
-      <c r="H94" s="88"/>
-      <c r="I94" s="88"/>
-      <c r="J94" s="88"/>
-      <c r="K94" s="88"/>
-      <c r="L94" s="88"/>
-      <c r="M94" s="88"/>
-      <c r="N94" s="88"/>
-      <c r="O94" s="88"/>
-      <c r="P94" s="88"/>
-      <c r="Q94" s="88"/>
-      <c r="R94" s="88"/>
-      <c r="S94" s="88"/>
-      <c r="T94" s="88"/>
-      <c r="U94" s="88"/>
-      <c r="V94" s="88"/>
-      <c r="W94" s="88"/>
-      <c r="X94" s="88"/>
-      <c r="Y94" s="88"/>
-      <c r="Z94" s="88"/>
-      <c r="AA94" s="88"/>
-      <c r="AB94" s="88"/>
-      <c r="AC94" s="88"/>
-      <c r="AD94" s="88"/>
-      <c r="AE94" s="88"/>
-      <c r="AF94" s="88"/>
-      <c r="AG94" s="88"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="82"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="82"/>
+      <c r="M94" s="82"/>
+      <c r="N94" s="82"/>
+      <c r="O94" s="82"/>
+      <c r="P94" s="82"/>
+      <c r="Q94" s="82"/>
+      <c r="R94" s="82"/>
+      <c r="S94" s="82"/>
+      <c r="T94" s="82"/>
+      <c r="U94" s="82"/>
+      <c r="V94" s="82"/>
+      <c r="W94" s="82"/>
+      <c r="X94" s="82"/>
+      <c r="Y94" s="82"/>
+      <c r="Z94" s="82"/>
+      <c r="AA94" s="82"/>
+      <c r="AB94" s="82"/>
+      <c r="AC94" s="82"/>
+      <c r="AD94" s="82"/>
+      <c r="AE94" s="82"/>
+      <c r="AF94" s="82"/>
+      <c r="AG94" s="82"/>
     </row>
     <row r="95" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="75" t="s">
+      <c r="A95" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="75"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
-      <c r="P95" s="75"/>
-      <c r="Q95" s="75"/>
-      <c r="R95" s="75"/>
-      <c r="S95" s="75"/>
-      <c r="T95" s="75"/>
-      <c r="U95" s="75"/>
-      <c r="V95" s="75"/>
-      <c r="W95" s="75"/>
-      <c r="X95" s="75"/>
-      <c r="Y95" s="75"/>
-      <c r="Z95" s="75"/>
-      <c r="AA95" s="75"/>
-      <c r="AB95" s="75"/>
-      <c r="AC95" s="75"/>
-      <c r="AD95" s="75"/>
-      <c r="AE95" s="75"/>
-      <c r="AF95" s="75"/>
-      <c r="AG95" s="75"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="72"/>
+      <c r="N95" s="72"/>
+      <c r="O95" s="72"/>
+      <c r="P95" s="72"/>
+      <c r="Q95" s="72"/>
+      <c r="R95" s="72"/>
+      <c r="S95" s="72"/>
+      <c r="T95" s="72"/>
+      <c r="U95" s="72"/>
+      <c r="V95" s="72"/>
+      <c r="W95" s="72"/>
+      <c r="X95" s="72"/>
+      <c r="Y95" s="72"/>
+      <c r="Z95" s="72"/>
+      <c r="AA95" s="72"/>
+      <c r="AB95" s="72"/>
+      <c r="AC95" s="72"/>
+      <c r="AD95" s="72"/>
+      <c r="AE95" s="72"/>
+      <c r="AF95" s="72"/>
+      <c r="AG95" s="72"/>
     </row>
     <row r="96" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="86" t="s">
+      <c r="A96" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B96" s="86"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="86"/>
-      <c r="H96" s="86"/>
-      <c r="I96" s="86"/>
-      <c r="J96" s="86"/>
-      <c r="K96" s="86"/>
-      <c r="L96" s="86"/>
-      <c r="M96" s="86"/>
-      <c r="N96" s="86"/>
-      <c r="O96" s="86"/>
-      <c r="P96" s="86"/>
-      <c r="Q96" s="86"/>
-      <c r="R96" s="86"/>
-      <c r="S96" s="86"/>
-      <c r="T96" s="86"/>
-      <c r="U96" s="86"/>
-      <c r="V96" s="86"/>
-      <c r="W96" s="86"/>
-      <c r="X96" s="86"/>
-      <c r="Y96" s="86"/>
-      <c r="Z96" s="86"/>
-      <c r="AA96" s="86"/>
-      <c r="AB96" s="86"/>
-      <c r="AC96" s="86"/>
-      <c r="AD96" s="86"/>
-      <c r="AE96" s="86"/>
-      <c r="AF96" s="86"/>
-      <c r="AG96" s="86"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="91"/>
+      <c r="L96" s="91"/>
+      <c r="M96" s="91"/>
+      <c r="N96" s="91"/>
+      <c r="O96" s="91"/>
+      <c r="P96" s="91"/>
+      <c r="Q96" s="91"/>
+      <c r="R96" s="91"/>
+      <c r="S96" s="91"/>
+      <c r="T96" s="91"/>
+      <c r="U96" s="91"/>
+      <c r="V96" s="91"/>
+      <c r="W96" s="91"/>
+      <c r="X96" s="91"/>
+      <c r="Y96" s="91"/>
+      <c r="Z96" s="91"/>
+      <c r="AA96" s="91"/>
+      <c r="AB96" s="91"/>
+      <c r="AC96" s="91"/>
+      <c r="AD96" s="91"/>
+      <c r="AE96" s="91"/>
+      <c r="AF96" s="91"/>
+      <c r="AG96" s="91"/>
     </row>
     <row r="97" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="83"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="83"/>
-      <c r="J97" s="83"/>
-      <c r="K97" s="83"/>
-      <c r="L97" s="83"/>
-      <c r="M97" s="83"/>
-      <c r="N97" s="83"/>
-      <c r="O97" s="83"/>
-      <c r="P97" s="83"/>
-      <c r="Q97" s="83"/>
-      <c r="R97" s="83"/>
-      <c r="S97" s="83"/>
-      <c r="T97" s="83"/>
-      <c r="U97" s="83"/>
-      <c r="V97" s="83"/>
-      <c r="W97" s="83"/>
-      <c r="X97" s="83"/>
-      <c r="Y97" s="83"/>
-      <c r="Z97" s="83"/>
-      <c r="AA97" s="83"/>
-      <c r="AB97" s="83"/>
-      <c r="AC97" s="83"/>
-      <c r="AD97" s="83"/>
-      <c r="AE97" s="83"/>
-      <c r="AF97" s="83"/>
-      <c r="AG97" s="83"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="79"/>
+      <c r="I97" s="79"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="79"/>
+      <c r="M97" s="79"/>
+      <c r="N97" s="79"/>
+      <c r="O97" s="79"/>
+      <c r="P97" s="79"/>
+      <c r="Q97" s="79"/>
+      <c r="R97" s="79"/>
+      <c r="S97" s="79"/>
+      <c r="T97" s="79"/>
+      <c r="U97" s="79"/>
+      <c r="V97" s="79"/>
+      <c r="W97" s="79"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="79"/>
+      <c r="Z97" s="79"/>
+      <c r="AA97" s="79"/>
+      <c r="AB97" s="79"/>
+      <c r="AC97" s="79"/>
+      <c r="AD97" s="79"/>
+      <c r="AE97" s="79"/>
+      <c r="AF97" s="79"/>
+      <c r="AG97" s="79"/>
     </row>
     <row r="98" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="76"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="76"/>
-      <c r="I98" s="76"/>
-      <c r="J98" s="76"/>
-      <c r="K98" s="76"/>
-      <c r="L98" s="76"/>
-      <c r="M98" s="76"/>
-      <c r="N98" s="76"/>
-      <c r="O98" s="76"/>
-      <c r="P98" s="76"/>
-      <c r="Q98" s="76"/>
-      <c r="R98" s="76"/>
-      <c r="S98" s="76"/>
-      <c r="T98" s="76"/>
-      <c r="U98" s="76"/>
-      <c r="V98" s="76"/>
-      <c r="W98" s="76"/>
-      <c r="X98" s="76"/>
-      <c r="Y98" s="76"/>
-      <c r="Z98" s="76"/>
-      <c r="AA98" s="76"/>
-      <c r="AB98" s="76"/>
-      <c r="AC98" s="76"/>
-      <c r="AD98" s="76"/>
-      <c r="AE98" s="76"/>
-      <c r="AF98" s="76"/>
-      <c r="AG98" s="76"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
+      <c r="H98" s="80"/>
+      <c r="I98" s="80"/>
+      <c r="J98" s="80"/>
+      <c r="K98" s="80"/>
+      <c r="L98" s="80"/>
+      <c r="M98" s="80"/>
+      <c r="N98" s="80"/>
+      <c r="O98" s="80"/>
+      <c r="P98" s="80"/>
+      <c r="Q98" s="80"/>
+      <c r="R98" s="80"/>
+      <c r="S98" s="80"/>
+      <c r="T98" s="80"/>
+      <c r="U98" s="80"/>
+      <c r="V98" s="80"/>
+      <c r="W98" s="80"/>
+      <c r="X98" s="80"/>
+      <c r="Y98" s="80"/>
+      <c r="Z98" s="80"/>
+      <c r="AA98" s="80"/>
+      <c r="AB98" s="80"/>
+      <c r="AC98" s="80"/>
+      <c r="AD98" s="80"/>
+      <c r="AE98" s="80"/>
+      <c r="AF98" s="80"/>
+      <c r="AG98" s="80"/>
     </row>
     <row r="99" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="75" t="s">
+      <c r="A99" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="75"/>
-      <c r="P99" s="75"/>
-      <c r="Q99" s="75"/>
-      <c r="R99" s="75"/>
-      <c r="S99" s="75"/>
-      <c r="T99" s="75"/>
-      <c r="U99" s="75"/>
-      <c r="V99" s="75"/>
-      <c r="W99" s="75"/>
-      <c r="X99" s="75"/>
-      <c r="Y99" s="75"/>
-      <c r="Z99" s="75"/>
-      <c r="AA99" s="75"/>
-      <c r="AB99" s="75"/>
-      <c r="AC99" s="75"/>
-      <c r="AD99" s="75"/>
-      <c r="AE99" s="75"/>
-      <c r="AF99" s="75"/>
-      <c r="AG99" s="75"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+      <c r="O99" s="72"/>
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="72"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="72"/>
+      <c r="V99" s="72"/>
+      <c r="W99" s="72"/>
+      <c r="X99" s="72"/>
+      <c r="Y99" s="72"/>
+      <c r="Z99" s="72"/>
+      <c r="AA99" s="72"/>
+      <c r="AB99" s="72"/>
+      <c r="AC99" s="72"/>
+      <c r="AD99" s="72"/>
+      <c r="AE99" s="72"/>
+      <c r="AF99" s="72"/>
+      <c r="AG99" s="72"/>
     </row>
     <row r="100" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="75" t="s">
+      <c r="A100" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="75"/>
-      <c r="H100" s="75"/>
-      <c r="I100" s="75"/>
-      <c r="J100" s="75"/>
-      <c r="K100" s="75"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="75"/>
-      <c r="P100" s="75"/>
-      <c r="Q100" s="75"/>
-      <c r="R100" s="75"/>
-      <c r="S100" s="75"/>
-      <c r="T100" s="75"/>
-      <c r="U100" s="75"/>
-      <c r="V100" s="75"/>
-      <c r="W100" s="75"/>
-      <c r="X100" s="75"/>
-      <c r="Y100" s="75"/>
-      <c r="Z100" s="75"/>
-      <c r="AA100" s="75"/>
-      <c r="AB100" s="75"/>
-      <c r="AC100" s="75"/>
-      <c r="AD100" s="75"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="72"/>
+      <c r="L100" s="72"/>
+      <c r="M100" s="72"/>
+      <c r="N100" s="72"/>
+      <c r="O100" s="72"/>
+      <c r="P100" s="72"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="72"/>
+      <c r="S100" s="72"/>
+      <c r="T100" s="72"/>
+      <c r="U100" s="72"/>
+      <c r="V100" s="72"/>
+      <c r="W100" s="72"/>
+      <c r="X100" s="72"/>
+      <c r="Y100" s="72"/>
+      <c r="Z100" s="72"/>
+      <c r="AA100" s="72"/>
+      <c r="AB100" s="72"/>
+      <c r="AC100" s="72"/>
+      <c r="AD100" s="72"/>
       <c r="AF100" s="67"/>
       <c r="AG100" s="62"/>
     </row>
@@ -10226,6 +10226,73 @@
     <sortCondition descending="1" ref="AH32:AH37"/>
   </sortState>
   <mergeCells count="83">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A90:AD90"/>
+    <mergeCell ref="A60:AG60"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="A65:AG65"/>
+    <mergeCell ref="A66:AG66"/>
+    <mergeCell ref="A71:AG71"/>
+    <mergeCell ref="A72:AG72"/>
+    <mergeCell ref="A73:AG73"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A64:AG64"/>
+    <mergeCell ref="A75:AG75"/>
+    <mergeCell ref="A89:AG89"/>
+    <mergeCell ref="A40:AG40"/>
+    <mergeCell ref="A41:AG41"/>
+    <mergeCell ref="A91:AG91"/>
+    <mergeCell ref="A85:AG85"/>
+    <mergeCell ref="A86:AG86"/>
+    <mergeCell ref="A87:AG87"/>
+    <mergeCell ref="A97:AG97"/>
+    <mergeCell ref="A93:AG93"/>
+    <mergeCell ref="A88:AG88"/>
+    <mergeCell ref="A92:AG92"/>
+    <mergeCell ref="A98:AG98"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="A48:AG48"/>
+    <mergeCell ref="A49:AG49"/>
+    <mergeCell ref="A50:AG50"/>
+    <mergeCell ref="A51:AG51"/>
+    <mergeCell ref="A52:AG52"/>
+    <mergeCell ref="A53:AG53"/>
+    <mergeCell ref="A54:AG54"/>
+    <mergeCell ref="A55:AG55"/>
+    <mergeCell ref="A56:AG56"/>
+    <mergeCell ref="A57:AG57"/>
+    <mergeCell ref="A58:AG58"/>
+    <mergeCell ref="A59:AG59"/>
+    <mergeCell ref="A95:AG95"/>
+    <mergeCell ref="A96:AG96"/>
+    <mergeCell ref="A67:AG67"/>
+    <mergeCell ref="A68:AG68"/>
+    <mergeCell ref="A69:AG69"/>
+    <mergeCell ref="A70:AG70"/>
+    <mergeCell ref="A43:AG43"/>
+    <mergeCell ref="A44:AG44"/>
+    <mergeCell ref="A45:AG45"/>
+    <mergeCell ref="A46:AG46"/>
+    <mergeCell ref="A61:AG61"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="A63:AG63"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="A82:AG82"/>
+    <mergeCell ref="A84:AG84"/>
+    <mergeCell ref="A94:AG94"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A83:AG83"/>
     <mergeCell ref="A74:AG74"/>
     <mergeCell ref="A100:AD100"/>
@@ -10242,73 +10309,6 @@
     <mergeCell ref="A79:AG79"/>
     <mergeCell ref="A80:AG80"/>
     <mergeCell ref="A81:AG81"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="A82:AG82"/>
-    <mergeCell ref="A84:AG84"/>
-    <mergeCell ref="A94:AG94"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="A67:AG67"/>
-    <mergeCell ref="A68:AG68"/>
-    <mergeCell ref="A69:AG69"/>
-    <mergeCell ref="A70:AG70"/>
-    <mergeCell ref="A43:AG43"/>
-    <mergeCell ref="A44:AG44"/>
-    <mergeCell ref="A45:AG45"/>
-    <mergeCell ref="A46:AG46"/>
-    <mergeCell ref="A61:AG61"/>
-    <mergeCell ref="A62:AG62"/>
-    <mergeCell ref="A63:AG63"/>
-    <mergeCell ref="A98:AG98"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="A48:AG48"/>
-    <mergeCell ref="A49:AG49"/>
-    <mergeCell ref="A50:AG50"/>
-    <mergeCell ref="A51:AG51"/>
-    <mergeCell ref="A52:AG52"/>
-    <mergeCell ref="A53:AG53"/>
-    <mergeCell ref="A54:AG54"/>
-    <mergeCell ref="A55:AG55"/>
-    <mergeCell ref="A56:AG56"/>
-    <mergeCell ref="A57:AG57"/>
-    <mergeCell ref="A58:AG58"/>
-    <mergeCell ref="A59:AG59"/>
-    <mergeCell ref="A95:AG95"/>
-    <mergeCell ref="A96:AG96"/>
-    <mergeCell ref="A91:AG91"/>
-    <mergeCell ref="A85:AG85"/>
-    <mergeCell ref="A86:AG86"/>
-    <mergeCell ref="A87:AG87"/>
-    <mergeCell ref="A97:AG97"/>
-    <mergeCell ref="A93:AG93"/>
-    <mergeCell ref="A88:AG88"/>
-    <mergeCell ref="A92:AG92"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A90:AD90"/>
-    <mergeCell ref="A60:AG60"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="A65:AG65"/>
-    <mergeCell ref="A66:AG66"/>
-    <mergeCell ref="A71:AG71"/>
-    <mergeCell ref="A72:AG72"/>
-    <mergeCell ref="A73:AG73"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A64:AG64"/>
-    <mergeCell ref="A75:AG75"/>
-    <mergeCell ref="A89:AG89"/>
-    <mergeCell ref="A40:AG40"/>
-    <mergeCell ref="A41:AG41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10319,8 +10319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594873C-C557-46F4-ACB1-0239CFFBF50E}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13206,9 +13206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E449E4-475F-4DD8-B8E0-0D43009C2B9E}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13392,2635 +13390,2699 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1999</v>
       </c>
       <c r="B2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>43975</v>
       </c>
       <c r="C2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>20862</v>
       </c>
       <c r="D2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11265</v>
       </c>
       <c r="E2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4939</v>
       </c>
       <c r="F2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2483</v>
       </c>
       <c r="G2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>754</v>
       </c>
       <c r="H2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>596</v>
       </c>
       <c r="I2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>759</v>
       </c>
       <c r="J2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>734</v>
       </c>
       <c r="K2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>479</v>
       </c>
       <c r="L2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>621</v>
       </c>
       <c r="M2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>402</v>
       </c>
+      <c r="N2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="O2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>42</v>
       </c>
       <c r="P2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>59</v>
       </c>
+      <c r="Q2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="S2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>38</v>
       </c>
+      <c r="T2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="U2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
+      <c r="V2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="W2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
+      <c r="X2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="Y2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12</v>
       </c>
       <c r="Z2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4</v>
       </c>
       <c r="AA2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12</v>
       </c>
       <c r="AB2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>745</v>
       </c>
       <c r="AD2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>188</v>
       </c>
       <c r="AE2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>196</v>
       </c>
       <c r="AF2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>309</v>
       </c>
       <c r="AG2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>103</v>
       </c>
       <c r="AH2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>58</v>
       </c>
       <c r="AI2">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2000</v>
       </c>
       <c r="B3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44276</v>
       </c>
       <c r="C3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>20699</v>
       </c>
       <c r="D3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11526</v>
       </c>
       <c r="E3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4763</v>
       </c>
       <c r="F3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2897</v>
       </c>
       <c r="G3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>693</v>
       </c>
       <c r="H3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>591</v>
       </c>
       <c r="I3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>754</v>
       </c>
       <c r="J3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>701</v>
       </c>
       <c r="K3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>463</v>
       </c>
       <c r="L3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>596</v>
       </c>
       <c r="M3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>425</v>
       </c>
+      <c r="N3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="O3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>39</v>
       </c>
       <c r="P3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>22</v>
       </c>
+      <c r="Q3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="S3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>71</v>
       </c>
       <c r="T3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>15</v>
       </c>
       <c r="U3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>10</v>
       </c>
+      <c r="V3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="W3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>37</v>
       </c>
+      <c r="X3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="Y3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5</v>
       </c>
       <c r="Z3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="AA3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>92</v>
       </c>
       <c r="AB3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>717</v>
       </c>
       <c r="AD3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>220</v>
       </c>
       <c r="AE3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>197</v>
       </c>
       <c r="AF3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>306</v>
       </c>
       <c r="AG3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>98</v>
       </c>
       <c r="AH3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>53</v>
       </c>
       <c r="AI3">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2001</v>
       </c>
       <c r="B4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44873</v>
       </c>
       <c r="C4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>20320</v>
       </c>
       <c r="D4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11723</v>
       </c>
       <c r="E4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4901</v>
       </c>
       <c r="F4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>3197</v>
       </c>
       <c r="G4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>732</v>
       </c>
       <c r="H4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>581</v>
       </c>
       <c r="I4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>708</v>
       </c>
       <c r="J4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>681</v>
       </c>
       <c r="K4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>511</v>
       </c>
       <c r="L4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>562</v>
       </c>
       <c r="M4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>421</v>
       </c>
+      <c r="N4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="O4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>33</v>
       </c>
       <c r="P4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34</v>
       </c>
+      <c r="Q4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="S4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>60</v>
       </c>
       <c r="T4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6</v>
       </c>
+      <c r="V4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="W4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>7</v>
       </c>
+      <c r="X4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
       <c r="Y4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13</v>
       </c>
       <c r="Z4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>531</v>
       </c>
       <c r="AB4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>729</v>
       </c>
       <c r="AD4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>242</v>
       </c>
       <c r="AE4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>167</v>
       </c>
       <c r="AF4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>315</v>
       </c>
       <c r="AG4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>100</v>
       </c>
       <c r="AH4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>53</v>
       </c>
       <c r="AI4">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2002</v>
       </c>
       <c r="B5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45292</v>
       </c>
       <c r="C5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>20569</v>
       </c>
       <c r="D5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12274</v>
       </c>
       <c r="E5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4851</v>
       </c>
       <c r="F5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>3270</v>
       </c>
       <c r="G5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>665</v>
       </c>
       <c r="H5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>642</v>
       </c>
       <c r="I5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>689</v>
       </c>
       <c r="J5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>750</v>
       </c>
       <c r="K5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>540</v>
       </c>
       <c r="L5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>581</v>
       </c>
       <c r="M5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>357</v>
       </c>
       <c r="N5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>130</v>
       </c>
       <c r="O5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>39</v>
       </c>
       <c r="P5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45</v>
       </c>
       <c r="Q5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>48</v>
       </c>
       <c r="R5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>47</v>
       </c>
       <c r="S5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>35</v>
       </c>
       <c r="T5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>48</v>
       </c>
       <c r="U5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>15</v>
       </c>
       <c r="V5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44</v>
       </c>
       <c r="W5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11</v>
       </c>
       <c r="X5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5</v>
       </c>
       <c r="Y5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="AA5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>725</v>
       </c>
       <c r="AD5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>226</v>
       </c>
       <c r="AE5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>89</v>
       </c>
       <c r="AF5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>271</v>
       </c>
       <c r="AG5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>93</v>
       </c>
       <c r="AH5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>29</v>
       </c>
       <c r="AI5">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2003</v>
       </c>
       <c r="B6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45121</v>
       </c>
       <c r="C6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>19725</v>
       </c>
       <c r="D6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12546</v>
       </c>
       <c r="E6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4774</v>
       </c>
       <c r="F6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>3714</v>
       </c>
       <c r="G6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>629</v>
       </c>
       <c r="H6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>729</v>
       </c>
       <c r="I6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>726</v>
       </c>
       <c r="J6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>703</v>
       </c>
       <c r="K6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>498</v>
       </c>
       <c r="L6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>633</v>
       </c>
       <c r="M6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>334</v>
       </c>
       <c r="N6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>143</v>
       </c>
       <c r="O6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>29</v>
       </c>
       <c r="P6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>41</v>
       </c>
       <c r="Q6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>39</v>
       </c>
       <c r="R6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>51</v>
       </c>
       <c r="S6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>42</v>
       </c>
       <c r="T6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>52</v>
       </c>
       <c r="U6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4</v>
       </c>
       <c r="V6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>50</v>
       </c>
       <c r="W6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12</v>
       </c>
       <c r="X6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>8</v>
       </c>
       <c r="Y6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2</v>
       </c>
       <c r="Z6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>22</v>
       </c>
       <c r="AB6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>683</v>
       </c>
       <c r="AD6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>182</v>
       </c>
       <c r="AE6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>66</v>
       </c>
       <c r="AF6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>249</v>
       </c>
       <c r="AG6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>136</v>
       </c>
       <c r="AH6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44</v>
       </c>
       <c r="AI6">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2004</v>
       </c>
       <c r="B7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45028</v>
       </c>
       <c r="C7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>19192</v>
       </c>
       <c r="D7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12674</v>
       </c>
       <c r="E7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4675</v>
       </c>
       <c r="F7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4028</v>
       </c>
       <c r="G7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>727</v>
       </c>
       <c r="H7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>732</v>
       </c>
       <c r="I7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>766</v>
       </c>
       <c r="J7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>676</v>
       </c>
       <c r="K7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>472</v>
       </c>
       <c r="L7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>559</v>
       </c>
       <c r="M7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>371</v>
       </c>
       <c r="N7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>136</v>
       </c>
       <c r="O7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>35</v>
       </c>
       <c r="P7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>42</v>
       </c>
       <c r="Q7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>37</v>
       </c>
       <c r="R7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>33</v>
       </c>
       <c r="S7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>64</v>
       </c>
       <c r="T7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>55</v>
       </c>
       <c r="U7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13</v>
       </c>
       <c r="V7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>47</v>
       </c>
       <c r="W7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
       <c r="X7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>8</v>
       </c>
       <c r="Y7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5</v>
       </c>
       <c r="AA7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>14</v>
       </c>
       <c r="AB7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>690</v>
       </c>
       <c r="AD7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>201</v>
       </c>
       <c r="AE7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>82</v>
       </c>
       <c r="AF7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>256</v>
       </c>
       <c r="AG7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>95</v>
       </c>
       <c r="AH7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>65</v>
       </c>
       <c r="AI7">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2005</v>
       </c>
       <c r="B8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45642</v>
       </c>
       <c r="C8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18512</v>
       </c>
       <c r="D8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13037</v>
       </c>
       <c r="E8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4892</v>
       </c>
       <c r="F8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4576</v>
       </c>
       <c r="G8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>786</v>
       </c>
       <c r="H8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>845</v>
       </c>
       <c r="I8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>804</v>
       </c>
       <c r="J8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>697</v>
       </c>
       <c r="K8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>458</v>
       </c>
       <c r="L8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>563</v>
       </c>
       <c r="M8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>359</v>
       </c>
       <c r="N8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>94</v>
       </c>
       <c r="O8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34</v>
       </c>
       <c r="P8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>58</v>
       </c>
       <c r="Q8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>33</v>
       </c>
       <c r="R8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>48</v>
       </c>
       <c r="S8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
       <c r="T8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>52</v>
       </c>
       <c r="U8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>33</v>
       </c>
       <c r="V8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>47</v>
       </c>
       <c r="W8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>15</v>
       </c>
       <c r="X8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>7</v>
       </c>
       <c r="Y8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2</v>
       </c>
       <c r="AA8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>22</v>
       </c>
       <c r="AB8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>682</v>
       </c>
       <c r="AD8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>202</v>
       </c>
       <c r="AE8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>57</v>
       </c>
       <c r="AF8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>258</v>
       </c>
       <c r="AG8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>92</v>
       </c>
       <c r="AH8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>46</v>
       </c>
       <c r="AI8">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2006</v>
       </c>
       <c r="B9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45063</v>
       </c>
       <c r="C9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>17925</v>
       </c>
       <c r="D9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12761</v>
       </c>
       <c r="E9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4795</v>
       </c>
       <c r="F9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4837</v>
       </c>
       <c r="G9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>772</v>
       </c>
       <c r="H9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>786</v>
       </c>
       <c r="I9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>805</v>
       </c>
       <c r="J9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>710</v>
       </c>
       <c r="K9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>511</v>
       </c>
       <c r="L9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>706</v>
       </c>
       <c r="M9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>369</v>
       </c>
       <c r="N9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>133</v>
       </c>
       <c r="O9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>17</v>
       </c>
       <c r="P9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>27</v>
       </c>
       <c r="Q9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>37</v>
       </c>
       <c r="R9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>20</v>
       </c>
       <c r="S9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>16</v>
       </c>
       <c r="T9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>91</v>
       </c>
       <c r="U9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6</v>
       </c>
       <c r="V9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45</v>
       </c>
       <c r="W9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>21</v>
       </c>
       <c r="X9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="Y9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2</v>
       </c>
       <c r="Z9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>50</v>
       </c>
       <c r="AB9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>723</v>
       </c>
       <c r="AD9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>180</v>
       </c>
       <c r="AE9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>41</v>
       </c>
       <c r="AF9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>267</v>
       </c>
       <c r="AG9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>121</v>
       </c>
       <c r="AH9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45</v>
       </c>
       <c r="AI9">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2007</v>
       </c>
       <c r="B10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>43346</v>
       </c>
       <c r="C10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>16614</v>
       </c>
       <c r="D10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12458</v>
       </c>
       <c r="E10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4699</v>
       </c>
       <c r="F10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5174</v>
       </c>
       <c r="G10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>701</v>
       </c>
       <c r="H10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>772</v>
       </c>
       <c r="I10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>805</v>
       </c>
       <c r="J10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>685</v>
       </c>
       <c r="K10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>470</v>
       </c>
       <c r="L10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>496</v>
       </c>
       <c r="M10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>339</v>
       </c>
       <c r="N10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>153</v>
       </c>
       <c r="O10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>33</v>
       </c>
       <c r="P10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>36</v>
       </c>
       <c r="Q10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>42</v>
       </c>
       <c r="R10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>26</v>
       </c>
       <c r="S10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>43</v>
       </c>
       <c r="T10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>79</v>
       </c>
       <c r="U10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="V10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>36</v>
       </c>
       <c r="W10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11</v>
       </c>
       <c r="X10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="Y10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4</v>
       </c>
       <c r="AA10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="AB10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>635</v>
       </c>
       <c r="AD10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>216</v>
       </c>
       <c r="AE10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>66</v>
       </c>
       <c r="AF10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>227</v>
       </c>
       <c r="AG10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>122</v>
       </c>
       <c r="AH10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>31</v>
       </c>
       <c r="AI10">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2008</v>
       </c>
       <c r="B11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>39562</v>
       </c>
       <c r="C11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>14646</v>
       </c>
       <c r="D11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>10816</v>
       </c>
       <c r="E11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4414</v>
       </c>
       <c r="F11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5312</v>
       </c>
       <c r="G11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>718</v>
       </c>
       <c r="H11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>768</v>
       </c>
       <c r="I11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>682</v>
       </c>
       <c r="J11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>709</v>
       </c>
       <c r="K11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>457</v>
       </c>
       <c r="L11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>496</v>
       </c>
       <c r="M11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>290</v>
       </c>
       <c r="N11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>158</v>
       </c>
       <c r="O11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>30</v>
       </c>
       <c r="P11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>67</v>
       </c>
       <c r="Q11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34</v>
       </c>
       <c r="R11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>28</v>
       </c>
       <c r="S11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>69</v>
       </c>
       <c r="T11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>65</v>
       </c>
       <c r="U11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>27</v>
       </c>
       <c r="V11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>46</v>
       </c>
       <c r="W11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6</v>
       </c>
       <c r="X11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6</v>
       </c>
       <c r="Y11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2</v>
       </c>
       <c r="AA11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>3</v>
       </c>
       <c r="AB11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>575</v>
       </c>
       <c r="AD11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>229</v>
       </c>
       <c r="AE11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>104</v>
       </c>
       <c r="AF11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>199</v>
       </c>
       <c r="AG11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>88</v>
       </c>
       <c r="AH11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>31</v>
       </c>
       <c r="AI11">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2009</v>
       </c>
       <c r="B12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>35985</v>
       </c>
       <c r="C12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13135</v>
       </c>
       <c r="D12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>10312</v>
       </c>
       <c r="E12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4109</v>
       </c>
       <c r="F12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4469</v>
       </c>
       <c r="G12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>628</v>
       </c>
       <c r="H12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>705</v>
       </c>
       <c r="I12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>499</v>
       </c>
       <c r="J12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>736</v>
       </c>
       <c r="K12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>416</v>
       </c>
       <c r="L12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>479</v>
       </c>
       <c r="M12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>248</v>
       </c>
       <c r="N12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>178</v>
       </c>
       <c r="O12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>27</v>
       </c>
       <c r="P12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>26</v>
       </c>
       <c r="Q12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>30</v>
       </c>
       <c r="R12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44</v>
       </c>
       <c r="S12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>17</v>
       </c>
       <c r="T12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>62</v>
       </c>
       <c r="U12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4</v>
       </c>
       <c r="V12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>37</v>
       </c>
       <c r="W12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="X12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11</v>
       </c>
       <c r="Y12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4</v>
       </c>
       <c r="AA12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>52</v>
       </c>
       <c r="AB12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>481</v>
       </c>
       <c r="AD12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>214</v>
       </c>
       <c r="AE12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>142</v>
       </c>
       <c r="AF12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>161</v>
       </c>
       <c r="AG12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>91</v>
       </c>
       <c r="AH12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34</v>
       </c>
       <c r="AI12">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2010</v>
       </c>
       <c r="B13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>35040</v>
       </c>
       <c r="C13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12491</v>
       </c>
       <c r="D13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9782</v>
       </c>
       <c r="E13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4302</v>
       </c>
       <c r="F13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4518</v>
       </c>
       <c r="G13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>623</v>
       </c>
       <c r="H13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>709</v>
       </c>
       <c r="I13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>530</v>
       </c>
       <c r="J13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>672</v>
       </c>
       <c r="K13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>441</v>
       </c>
       <c r="L13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>458</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>261</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>174</v>
       </c>
       <c r="O13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>25</v>
       </c>
       <c r="P13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44</v>
       </c>
       <c r="Q13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>22</v>
       </c>
       <c r="R13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>42</v>
       </c>
       <c r="S13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>17</v>
       </c>
       <c r="T13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>87</v>
       </c>
       <c r="U13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>8</v>
       </c>
       <c r="V13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>40</v>
       </c>
       <c r="W13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>21</v>
       </c>
       <c r="X13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6</v>
       </c>
       <c r="Y13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="AA13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2</v>
       </c>
       <c r="AB13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>520</v>
       </c>
       <c r="AD13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>215</v>
       </c>
       <c r="AE13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>122</v>
       </c>
       <c r="AF13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>136</v>
       </c>
       <c r="AG13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>100</v>
       </c>
       <c r="AH13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>37</v>
       </c>
       <c r="AI13">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2011</v>
       </c>
       <c r="B14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34568</v>
       </c>
       <c r="C14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12014</v>
       </c>
       <c r="D14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9302</v>
       </c>
       <c r="E14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4457</v>
       </c>
       <c r="F14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4630</v>
       </c>
       <c r="G14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>682</v>
       </c>
       <c r="H14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>699</v>
       </c>
       <c r="I14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>640</v>
       </c>
       <c r="J14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>758</v>
       </c>
       <c r="K14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>399</v>
       </c>
       <c r="L14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>458</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>246</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>181</v>
       </c>
       <c r="O14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>30</v>
       </c>
       <c r="P14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>55</v>
       </c>
       <c r="Q14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
       <c r="R14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>42</v>
       </c>
       <c r="S14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>41</v>
       </c>
       <c r="T14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>96</v>
       </c>
       <c r="U14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6</v>
       </c>
       <c r="V14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>32</v>
       </c>
       <c r="W14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13</v>
       </c>
       <c r="X14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>3</v>
       </c>
       <c r="Y14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>492</v>
       </c>
       <c r="AD14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>189</v>
       </c>
       <c r="AE14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>130</v>
       </c>
       <c r="AF14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>138</v>
       </c>
       <c r="AG14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>96</v>
       </c>
       <c r="AH14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>27</v>
       </c>
       <c r="AI14">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2012</v>
       </c>
       <c r="B15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>35693</v>
       </c>
       <c r="C15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12361</v>
       </c>
       <c r="D15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9418</v>
       </c>
       <c r="E15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4818</v>
       </c>
       <c r="F15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4986</v>
       </c>
       <c r="G15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>734</v>
       </c>
       <c r="H15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>729</v>
       </c>
       <c r="I15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>697</v>
       </c>
       <c r="J15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>651</v>
       </c>
       <c r="K15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>405</v>
       </c>
       <c r="L15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>438</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>231</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>193</v>
       </c>
       <c r="O15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>24</v>
       </c>
       <c r="P15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>39</v>
       </c>
       <c r="Q15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>14</v>
       </c>
       <c r="R15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>67</v>
       </c>
       <c r="S15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12</v>
       </c>
       <c r="T15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>84</v>
       </c>
       <c r="U15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="V15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>16</v>
       </c>
       <c r="W15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="X15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5</v>
       </c>
       <c r="Y15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>3</v>
       </c>
       <c r="AA15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>475</v>
       </c>
       <c r="AD15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>194</v>
       </c>
       <c r="AE15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>150</v>
       </c>
       <c r="AF15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>135</v>
       </c>
       <c r="AG15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>115</v>
       </c>
       <c r="AH15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>25</v>
       </c>
       <c r="AI15">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2013</v>
       </c>
       <c r="B16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34691</v>
       </c>
       <c r="C16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12037</v>
       </c>
       <c r="D16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9186</v>
       </c>
       <c r="E16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4779</v>
       </c>
       <c r="F16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4692</v>
       </c>
       <c r="G16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>749</v>
       </c>
       <c r="H16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>701</v>
       </c>
       <c r="I16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>695</v>
       </c>
       <c r="J16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>560</v>
       </c>
       <c r="K16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>427</v>
       </c>
       <c r="L16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>390</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>232</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>206</v>
       </c>
       <c r="O16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>32</v>
       </c>
       <c r="P16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>54</v>
       </c>
       <c r="Q16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>19</v>
       </c>
       <c r="R16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>56</v>
       </c>
       <c r="S16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>25</v>
       </c>
       <c r="T16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>26</v>
       </c>
       <c r="U16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11</v>
       </c>
       <c r="V16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>45</v>
       </c>
       <c r="W16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>8</v>
       </c>
       <c r="X16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11</v>
       </c>
       <c r="Y16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5</v>
       </c>
       <c r="Z16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="AA16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="AB16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>505</v>
       </c>
       <c r="AD16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>197</v>
       </c>
       <c r="AE16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>149</v>
       </c>
       <c r="AF16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>141</v>
       </c>
       <c r="AG16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>124</v>
       </c>
       <c r="AH16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>16</v>
       </c>
       <c r="AI16">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2014</v>
       </c>
       <c r="B17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34639</v>
       </c>
       <c r="C17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11947</v>
       </c>
       <c r="D17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9103</v>
       </c>
       <c r="E17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4910</v>
       </c>
       <c r="F17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4594</v>
       </c>
       <c r="G17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>729</v>
       </c>
       <c r="H17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>761</v>
       </c>
       <c r="I17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>656</v>
       </c>
       <c r="J17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>610</v>
       </c>
       <c r="K17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>470</v>
       </c>
       <c r="L17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>423</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>262</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>174</v>
       </c>
       <c r="O17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>31</v>
       </c>
       <c r="P17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44</v>
       </c>
       <c r="Q17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
       <c r="R17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>57</v>
       </c>
       <c r="S17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>20</v>
       </c>
       <c r="T17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>14</v>
       </c>
       <c r="U17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5</v>
       </c>
       <c r="V17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>32</v>
       </c>
       <c r="W17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>19</v>
       </c>
       <c r="X17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5</v>
       </c>
       <c r="Y17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>551</v>
       </c>
       <c r="AD17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>220</v>
       </c>
       <c r="AE17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>135</v>
       </c>
       <c r="AF17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>144</v>
       </c>
       <c r="AG17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>101</v>
       </c>
       <c r="AH17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>14</v>
       </c>
       <c r="AI17">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2015</v>
       </c>
       <c r="B18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>37372</v>
       </c>
       <c r="C18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12763</v>
       </c>
       <c r="D18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9878</v>
       </c>
       <c r="E18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5494</v>
       </c>
       <c r="F18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5029</v>
       </c>
       <c r="G18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>829</v>
       </c>
       <c r="H18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>777</v>
       </c>
       <c r="I18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>665</v>
       </c>
       <c r="J18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>626</v>
       </c>
       <c r="K18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>450</v>
       </c>
       <c r="L18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>378</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>237</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>221</v>
       </c>
       <c r="O18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>51</v>
       </c>
       <c r="P18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>49</v>
       </c>
       <c r="Q18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>41</v>
       </c>
       <c r="R18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>29</v>
       </c>
       <c r="S18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>27</v>
       </c>
       <c r="T18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>15</v>
       </c>
       <c r="U18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11</v>
       </c>
       <c r="V18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
       <c r="W18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>10</v>
       </c>
       <c r="X18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4</v>
       </c>
       <c r="Y18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="Z18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="AA18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>500</v>
       </c>
       <c r="AD18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>249</v>
       </c>
       <c r="AE18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>150</v>
       </c>
       <c r="AF18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>128</v>
       </c>
       <c r="AG18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>104</v>
       </c>
       <c r="AH18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>46</v>
       </c>
       <c r="AI18">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2016</v>
       </c>
       <c r="B19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>39751</v>
       </c>
       <c r="C19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13508</v>
       </c>
       <c r="D19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>10369</v>
       </c>
       <c r="E19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6080</v>
       </c>
       <c r="F19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5337</v>
       </c>
       <c r="G19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>852</v>
       </c>
       <c r="H19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>871</v>
       </c>
       <c r="I19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>725</v>
       </c>
       <c r="J19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>701</v>
       </c>
       <c r="K19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>467</v>
       </c>
       <c r="L19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>386</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>255</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>200</v>
       </c>
       <c r="O19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>31</v>
       </c>
       <c r="P19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>64</v>
       </c>
       <c r="Q19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>12</v>
       </c>
       <c r="R19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>49</v>
       </c>
       <c r="S19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>19</v>
       </c>
       <c r="T19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>7</v>
       </c>
       <c r="U19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>7</v>
       </c>
       <c r="V19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>17</v>
       </c>
       <c r="W19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13</v>
       </c>
       <c r="X19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>8</v>
       </c>
       <c r="Y19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>8</v>
       </c>
       <c r="Z19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>3</v>
       </c>
       <c r="AA19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AB19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>507</v>
       </c>
       <c r="AD19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>253</v>
       </c>
       <c r="AE19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>149</v>
       </c>
       <c r="AF19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>130</v>
       </c>
       <c r="AG19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>108</v>
       </c>
       <c r="AH19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
       <c r="AI19">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>2017</v>
       </c>
       <c r="B20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>39032</v>
       </c>
       <c r="C20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>13363</v>
       </c>
       <c r="D20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>10188</v>
       </c>
       <c r="E20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5977</v>
       </c>
       <c r="F20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>5172</v>
       </c>
       <c r="G20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>783</v>
       </c>
       <c r="H20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>765</v>
       </c>
       <c r="I20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>841</v>
       </c>
       <c r="J20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>658</v>
       </c>
       <c r="K20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>513</v>
       </c>
       <c r="L20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>330</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>271</v>
       </c>
       <c r="N20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>190</v>
       </c>
       <c r="O20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>34</v>
       </c>
       <c r="P20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>44</v>
       </c>
       <c r="Q20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>11</v>
       </c>
       <c r="R20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>47</v>
       </c>
       <c r="S20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>15</v>
       </c>
       <c r="T20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>9</v>
       </c>
       <c r="U20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>6</v>
       </c>
       <c r="V20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>28</v>
       </c>
       <c r="W20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>19</v>
       </c>
       <c r="X20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>4</v>
       </c>
       <c r="Y20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="Z20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>1</v>
       </c>
       <c r="AA20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>520</v>
       </c>
       <c r="AD20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>304</v>
       </c>
       <c r="AE20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>143</v>
       </c>
       <c r="AF20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>140</v>
       </c>
       <c r="AG20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>98</v>
       </c>
       <c r="AH20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>23</v>
       </c>
       <c r="AI20">
-        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
         <v>25</v>
       </c>
     </row>

--- a/table_02_04q418.xlsx
+++ b/table_02_04q418.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\OneDrive\UIllinois\CS498_DataViz\FinalProj\cs-498-dv-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D437A13-AF73-4AF9-801A-F64E89760FC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B677BD31-F23E-4560-9DA5-8C490A9F3E3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-4" sheetId="15" r:id="rId1"/>
     <sheet name="Cleaning" sheetId="16" r:id="rId2"/>
     <sheet name="table_02_04q418" sheetId="17" r:id="rId3"/>
+    <sheet name="table_02_04q418_sm" sheetId="20" r:id="rId4"/>
+    <sheet name="table_02_04q418_lg" sheetId="21" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
@@ -1860,8 +1862,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1869,46 +1889,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1920,14 +1907,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="10" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -2355,126 +2357,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="73">
+      <c r="B2" s="79">
         <v>1999</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75">
+      <c r="C2" s="80"/>
+      <c r="D2" s="92">
         <v>2000</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="73">
+      <c r="E2" s="92"/>
+      <c r="F2" s="79">
         <v>2001</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="78">
+      <c r="G2" s="80"/>
+      <c r="H2" s="91">
         <v>2002</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="78">
+      <c r="I2" s="80"/>
+      <c r="J2" s="91">
         <v>2003</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="78">
+      <c r="K2" s="80"/>
+      <c r="L2" s="91">
         <v>2004</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="73">
+      <c r="M2" s="91"/>
+      <c r="N2" s="79">
         <v>2005</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="78">
+      <c r="O2" s="80"/>
+      <c r="P2" s="91">
         <v>2006</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="78">
+      <c r="Q2" s="80"/>
+      <c r="R2" s="91">
         <v>2007</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="85">
+      <c r="S2" s="80"/>
+      <c r="T2" s="89">
         <v>2008</v>
       </c>
-      <c r="U2" s="86"/>
-      <c r="V2" s="85">
+      <c r="U2" s="90"/>
+      <c r="V2" s="89">
         <v>2009</v>
       </c>
-      <c r="W2" s="86"/>
-      <c r="X2" s="85">
+      <c r="W2" s="90"/>
+      <c r="X2" s="89">
         <v>2010</v>
       </c>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="85">
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="89">
         <v>2011</v>
       </c>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="85">
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="89">
         <v>2012</v>
       </c>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="85">
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="89">
         <v>2013</v>
       </c>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="85">
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="89">
         <v>2014</v>
       </c>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="83">
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="77">
         <v>2015</v>
       </c>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="83">
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="77">
         <v>2016</v>
       </c>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="92">
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="72">
         <v>2017</v>
       </c>
-      <c r="AM2" s="93"/>
+      <c r="AM2" s="73"/>
     </row>
     <row r="3" spans="1:39" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -6566,2362 +6568,2362 @@
       </c>
     </row>
     <row r="38" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="76"/>
-      <c r="V38" s="76"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="76"/>
-      <c r="AB38" s="76"/>
-      <c r="AC38" s="76"/>
-      <c r="AD38" s="76"/>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="76"/>
-      <c r="AG38" s="76"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
     </row>
     <row r="39" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="77"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="77"/>
-      <c r="AB39" s="77"/>
-      <c r="AC39" s="77"/>
-      <c r="AD39" s="77"/>
-      <c r="AE39" s="77"/>
-      <c r="AF39" s="77"/>
-      <c r="AG39" s="77"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
+      <c r="AB39" s="94"/>
+      <c r="AC39" s="94"/>
+      <c r="AD39" s="94"/>
+      <c r="AE39" s="94"/>
+      <c r="AF39" s="94"/>
+      <c r="AG39" s="94"/>
     </row>
     <row r="40" spans="1:39" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="87"/>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="87"/>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="87"/>
-      <c r="AD40" s="87"/>
-      <c r="AE40" s="87"/>
-      <c r="AF40" s="87"/>
-      <c r="AG40" s="87"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
+      <c r="AD40" s="81"/>
+      <c r="AE40" s="81"/>
+      <c r="AF40" s="81"/>
+      <c r="AG40" s="81"/>
       <c r="AH40" s="53"/>
       <c r="AJ40" s="53"/>
     </row>
     <row r="41" spans="1:39" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="82"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
       <c r="AH41" s="53"/>
       <c r="AJ41" s="53"/>
     </row>
     <row r="42" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81"/>
-      <c r="W42" s="81"/>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="81"/>
-      <c r="Z42" s="81"/>
-      <c r="AA42" s="81"/>
-      <c r="AB42" s="81"/>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="81"/>
-      <c r="AE42" s="81"/>
-      <c r="AF42" s="81"/>
-      <c r="AG42" s="81"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="87"/>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="87"/>
+      <c r="AA42" s="87"/>
+      <c r="AB42" s="87"/>
+      <c r="AC42" s="87"/>
+      <c r="AD42" s="87"/>
+      <c r="AE42" s="87"/>
+      <c r="AF42" s="87"/>
+      <c r="AG42" s="87"/>
       <c r="AH42" s="53"/>
       <c r="AJ42" s="53"/>
     </row>
     <row r="43" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="87"/>
-      <c r="AB43" s="87"/>
-      <c r="AC43" s="87"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="87"/>
-      <c r="AF43" s="87"/>
-      <c r="AG43" s="87"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="81"/>
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
+      <c r="V43" s="81"/>
+      <c r="W43" s="81"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="81"/>
+      <c r="AA43" s="81"/>
+      <c r="AB43" s="81"/>
+      <c r="AC43" s="81"/>
+      <c r="AD43" s="81"/>
+      <c r="AE43" s="81"/>
+      <c r="AF43" s="81"/>
+      <c r="AG43" s="81"/>
       <c r="AH43" s="53"/>
       <c r="AJ43" s="53"/>
     </row>
     <row r="44" spans="1:39" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
-      <c r="AG44" s="88"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="82"/>
+      <c r="AD44" s="82"/>
+      <c r="AE44" s="82"/>
+      <c r="AF44" s="82"/>
+      <c r="AG44" s="82"/>
       <c r="AH44" s="53"/>
       <c r="AJ44" s="53"/>
     </row>
     <row r="45" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="82"/>
+      <c r="AE45" s="82"/>
+      <c r="AF45" s="82"/>
+      <c r="AG45" s="82"/>
       <c r="AH45" s="53"/>
       <c r="AJ45" s="53"/>
     </row>
     <row r="46" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="87"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="87"/>
-      <c r="Z46" s="87"/>
-      <c r="AA46" s="87"/>
-      <c r="AB46" s="87"/>
-      <c r="AC46" s="87"/>
-      <c r="AD46" s="87"/>
-      <c r="AE46" s="87"/>
-      <c r="AF46" s="87"/>
-      <c r="AG46" s="87"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="81"/>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="81"/>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="81"/>
+      <c r="AF46" s="81"/>
+      <c r="AG46" s="81"/>
       <c r="AH46" s="53"/>
       <c r="AJ46" s="53"/>
     </row>
     <row r="47" spans="1:39" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="89"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="89"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="89"/>
-      <c r="Y47" s="89"/>
-      <c r="Z47" s="89"/>
-      <c r="AA47" s="89"/>
-      <c r="AB47" s="89"/>
-      <c r="AC47" s="89"/>
-      <c r="AD47" s="89"/>
-      <c r="AE47" s="89"/>
-      <c r="AF47" s="89"/>
-      <c r="AG47" s="89"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="84"/>
+      <c r="U47" s="84"/>
+      <c r="V47" s="84"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="84"/>
+      <c r="Y47" s="84"/>
+      <c r="Z47" s="84"/>
+      <c r="AA47" s="84"/>
+      <c r="AB47" s="84"/>
+      <c r="AC47" s="84"/>
+      <c r="AD47" s="84"/>
+      <c r="AE47" s="84"/>
+      <c r="AF47" s="84"/>
+      <c r="AG47" s="84"/>
       <c r="AH47" s="53"/>
       <c r="AJ47" s="53"/>
     </row>
     <row r="48" spans="1:39" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="87"/>
-      <c r="W48" s="87"/>
-      <c r="X48" s="87"/>
-      <c r="Y48" s="87"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="87"/>
-      <c r="AE48" s="87"/>
-      <c r="AF48" s="87"/>
-      <c r="AG48" s="87"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="81"/>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="81"/>
+      <c r="AE48" s="81"/>
+      <c r="AF48" s="81"/>
+      <c r="AG48" s="81"/>
       <c r="AH48" s="53"/>
       <c r="AJ48" s="53"/>
     </row>
     <row r="49" spans="1:36" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="72"/>
-      <c r="AC49" s="72"/>
-      <c r="AD49" s="72"/>
-      <c r="AE49" s="72"/>
-      <c r="AF49" s="72"/>
-      <c r="AG49" s="72"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="75"/>
+      <c r="W49" s="75"/>
+      <c r="X49" s="75"/>
+      <c r="Y49" s="75"/>
+      <c r="Z49" s="75"/>
+      <c r="AA49" s="75"/>
+      <c r="AB49" s="75"/>
+      <c r="AC49" s="75"/>
+      <c r="AD49" s="75"/>
+      <c r="AE49" s="75"/>
+      <c r="AF49" s="75"/>
+      <c r="AG49" s="75"/>
       <c r="AH49" s="53"/>
       <c r="AJ49" s="53"/>
     </row>
     <row r="50" spans="1:36" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="87"/>
-      <c r="V50" s="87"/>
-      <c r="W50" s="87"/>
-      <c r="X50" s="87"/>
-      <c r="Y50" s="87"/>
-      <c r="Z50" s="87"/>
-      <c r="AA50" s="87"/>
-      <c r="AB50" s="87"/>
-      <c r="AC50" s="87"/>
-      <c r="AD50" s="87"/>
-      <c r="AE50" s="87"/>
-      <c r="AF50" s="87"/>
-      <c r="AG50" s="87"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="81"/>
+      <c r="T50" s="81"/>
+      <c r="U50" s="81"/>
+      <c r="V50" s="81"/>
+      <c r="W50" s="81"/>
+      <c r="X50" s="81"/>
+      <c r="Y50" s="81"/>
+      <c r="Z50" s="81"/>
+      <c r="AA50" s="81"/>
+      <c r="AB50" s="81"/>
+      <c r="AC50" s="81"/>
+      <c r="AD50" s="81"/>
+      <c r="AE50" s="81"/>
+      <c r="AF50" s="81"/>
+      <c r="AG50" s="81"/>
       <c r="AH50" s="53"/>
       <c r="AJ50" s="53"/>
     </row>
     <row r="51" spans="1:36" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="90"/>
-      <c r="U51" s="90"/>
-      <c r="V51" s="90"/>
-      <c r="W51" s="90"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="90"/>
-      <c r="Z51" s="90"/>
-      <c r="AA51" s="90"/>
-      <c r="AB51" s="90"/>
-      <c r="AC51" s="90"/>
-      <c r="AD51" s="90"/>
-      <c r="AE51" s="90"/>
-      <c r="AF51" s="90"/>
-      <c r="AG51" s="90"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
+      <c r="AC51" s="85"/>
+      <c r="AD51" s="85"/>
+      <c r="AE51" s="85"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="85"/>
       <c r="AH51" s="53"/>
       <c r="AJ51" s="53"/>
     </row>
     <row r="52" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="79"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="79"/>
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-      <c r="Y52" s="79"/>
-      <c r="Z52" s="79"/>
-      <c r="AA52" s="79"/>
-      <c r="AB52" s="79"/>
-      <c r="AC52" s="79"/>
-      <c r="AD52" s="79"/>
-      <c r="AE52" s="79"/>
-      <c r="AF52" s="79"/>
-      <c r="AG52" s="79"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+      <c r="W52" s="83"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="83"/>
+      <c r="AA52" s="83"/>
+      <c r="AB52" s="83"/>
+      <c r="AC52" s="83"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="83"/>
       <c r="AH52" s="54"/>
       <c r="AJ52" s="54"/>
     </row>
     <row r="53" spans="1:36" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="72"/>
-      <c r="W53" s="72"/>
-      <c r="X53" s="72"/>
-      <c r="Y53" s="72"/>
-      <c r="Z53" s="72"/>
-      <c r="AA53" s="72"/>
-      <c r="AB53" s="72"/>
-      <c r="AC53" s="72"/>
-      <c r="AD53" s="72"/>
-      <c r="AE53" s="72"/>
-      <c r="AF53" s="72"/>
-      <c r="AG53" s="72"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="75"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="75"/>
+      <c r="W53" s="75"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="75"/>
+      <c r="Z53" s="75"/>
+      <c r="AA53" s="75"/>
+      <c r="AB53" s="75"/>
+      <c r="AC53" s="75"/>
+      <c r="AD53" s="75"/>
+      <c r="AE53" s="75"/>
+      <c r="AF53" s="75"/>
+      <c r="AG53" s="75"/>
       <c r="AH53" s="54"/>
       <c r="AJ53" s="54"/>
     </row>
     <row r="54" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="72"/>
-      <c r="Z54" s="72"/>
-      <c r="AA54" s="72"/>
-      <c r="AB54" s="72"/>
-      <c r="AC54" s="72"/>
-      <c r="AD54" s="72"/>
-      <c r="AE54" s="72"/>
-      <c r="AF54" s="72"/>
-      <c r="AG54" s="72"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
+      <c r="W54" s="75"/>
+      <c r="X54" s="75"/>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="75"/>
+      <c r="AA54" s="75"/>
+      <c r="AB54" s="75"/>
+      <c r="AC54" s="75"/>
+      <c r="AD54" s="75"/>
+      <c r="AE54" s="75"/>
+      <c r="AF54" s="75"/>
+      <c r="AG54" s="75"/>
       <c r="AH54" s="54"/>
       <c r="AJ54" s="54"/>
     </row>
     <row r="55" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="72"/>
-      <c r="Z55" s="72"/>
-      <c r="AA55" s="72"/>
-      <c r="AB55" s="72"/>
-      <c r="AC55" s="72"/>
-      <c r="AD55" s="72"/>
-      <c r="AE55" s="72"/>
-      <c r="AF55" s="72"/>
-      <c r="AG55" s="72"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="75"/>
+      <c r="W55" s="75"/>
+      <c r="X55" s="75"/>
+      <c r="Y55" s="75"/>
+      <c r="Z55" s="75"/>
+      <c r="AA55" s="75"/>
+      <c r="AB55" s="75"/>
+      <c r="AC55" s="75"/>
+      <c r="AD55" s="75"/>
+      <c r="AE55" s="75"/>
+      <c r="AF55" s="75"/>
+      <c r="AG55" s="75"/>
       <c r="AH55" s="54"/>
       <c r="AJ55" s="54"/>
     </row>
     <row r="56" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="72"/>
-      <c r="W56" s="72"/>
-      <c r="X56" s="72"/>
-      <c r="Y56" s="72"/>
-      <c r="Z56" s="72"/>
-      <c r="AA56" s="72"/>
-      <c r="AB56" s="72"/>
-      <c r="AC56" s="72"/>
-      <c r="AD56" s="72"/>
-      <c r="AE56" s="72"/>
-      <c r="AF56" s="72"/>
-      <c r="AG56" s="72"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="75"/>
+      <c r="U56" s="75"/>
+      <c r="V56" s="75"/>
+      <c r="W56" s="75"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="75"/>
+      <c r="Z56" s="75"/>
+      <c r="AA56" s="75"/>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="75"/>
+      <c r="AD56" s="75"/>
+      <c r="AE56" s="75"/>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75"/>
       <c r="AH56" s="54"/>
       <c r="AJ56" s="54"/>
     </row>
     <row r="57" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="72"/>
-      <c r="W57" s="72"/>
-      <c r="X57" s="72"/>
-      <c r="Y57" s="72"/>
-      <c r="Z57" s="72"/>
-      <c r="AA57" s="72"/>
-      <c r="AB57" s="72"/>
-      <c r="AC57" s="72"/>
-      <c r="AD57" s="72"/>
-      <c r="AE57" s="72"/>
-      <c r="AF57" s="72"/>
-      <c r="AG57" s="72"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="75"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
+      <c r="X57" s="75"/>
+      <c r="Y57" s="75"/>
+      <c r="Z57" s="75"/>
+      <c r="AA57" s="75"/>
+      <c r="AB57" s="75"/>
+      <c r="AC57" s="75"/>
+      <c r="AD57" s="75"/>
+      <c r="AE57" s="75"/>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="75"/>
       <c r="AH57" s="54"/>
       <c r="AJ57" s="54"/>
     </row>
     <row r="58" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-      <c r="AA58" s="79"/>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="79"/>
-      <c r="AD58" s="79"/>
-      <c r="AE58" s="79"/>
-      <c r="AF58" s="79"/>
-      <c r="AG58" s="79"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="83"/>
+      <c r="U58" s="83"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
+      <c r="X58" s="83"/>
+      <c r="Y58" s="83"/>
+      <c r="Z58" s="83"/>
+      <c r="AA58" s="83"/>
+      <c r="AB58" s="83"/>
+      <c r="AC58" s="83"/>
+      <c r="AD58" s="83"/>
+      <c r="AE58" s="83"/>
+      <c r="AF58" s="83"/>
+      <c r="AG58" s="83"/>
     </row>
     <row r="59" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="79"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="79"/>
-      <c r="AA59" s="79"/>
-      <c r="AB59" s="79"/>
-      <c r="AC59" s="79"/>
-      <c r="AD59" s="79"/>
-      <c r="AE59" s="79"/>
-      <c r="AF59" s="79"/>
-      <c r="AG59" s="79"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="83"/>
+      <c r="V59" s="83"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="83"/>
+      <c r="AA59" s="83"/>
+      <c r="AB59" s="83"/>
+      <c r="AC59" s="83"/>
+      <c r="AD59" s="83"/>
+      <c r="AE59" s="83"/>
+      <c r="AF59" s="83"/>
+      <c r="AG59" s="83"/>
     </row>
     <row r="60" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="80" t="s">
+      <c r="A60" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="80"/>
-      <c r="V60" s="80"/>
-      <c r="W60" s="80"/>
-      <c r="X60" s="80"/>
-      <c r="Y60" s="80"/>
-      <c r="Z60" s="80"/>
-      <c r="AA60" s="80"/>
-      <c r="AB60" s="80"/>
-      <c r="AC60" s="80"/>
-      <c r="AD60" s="80"/>
-      <c r="AE60" s="80"/>
-      <c r="AF60" s="80"/>
-      <c r="AG60" s="80"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
     </row>
     <row r="61" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72"/>
-      <c r="W61" s="72"/>
-      <c r="X61" s="72"/>
-      <c r="Y61" s="72"/>
-      <c r="Z61" s="72"/>
-      <c r="AA61" s="72"/>
-      <c r="AB61" s="72"/>
-      <c r="AC61" s="72"/>
-      <c r="AD61" s="72"/>
-      <c r="AE61" s="72"/>
-      <c r="AF61" s="72"/>
-      <c r="AG61" s="72"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="75"/>
+      <c r="U61" s="75"/>
+      <c r="V61" s="75"/>
+      <c r="W61" s="75"/>
+      <c r="X61" s="75"/>
+      <c r="Y61" s="75"/>
+      <c r="Z61" s="75"/>
+      <c r="AA61" s="75"/>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="75"/>
+      <c r="AD61" s="75"/>
+      <c r="AE61" s="75"/>
+      <c r="AF61" s="75"/>
+      <c r="AG61" s="75"/>
     </row>
     <row r="62" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
-      <c r="V62" s="72"/>
-      <c r="W62" s="72"/>
-      <c r="X62" s="72"/>
-      <c r="Y62" s="72"/>
-      <c r="Z62" s="72"/>
-      <c r="AA62" s="72"/>
-      <c r="AB62" s="72"/>
-      <c r="AC62" s="72"/>
-      <c r="AD62" s="72"/>
-      <c r="AE62" s="72"/>
-      <c r="AF62" s="72"/>
-      <c r="AG62" s="72"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="75"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
+      <c r="U62" s="75"/>
+      <c r="V62" s="75"/>
+      <c r="W62" s="75"/>
+      <c r="X62" s="75"/>
+      <c r="Y62" s="75"/>
+      <c r="Z62" s="75"/>
+      <c r="AA62" s="75"/>
+      <c r="AB62" s="75"/>
+      <c r="AC62" s="75"/>
+      <c r="AD62" s="75"/>
+      <c r="AE62" s="75"/>
+      <c r="AF62" s="75"/>
+      <c r="AG62" s="75"/>
     </row>
     <row r="63" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="72"/>
-      <c r="X63" s="72"/>
-      <c r="Y63" s="72"/>
-      <c r="Z63" s="72"/>
-      <c r="AA63" s="72"/>
-      <c r="AB63" s="72"/>
-      <c r="AC63" s="72"/>
-      <c r="AD63" s="72"/>
-      <c r="AE63" s="72"/>
-      <c r="AF63" s="72"/>
-      <c r="AG63" s="72"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
+      <c r="AA63" s="75"/>
+      <c r="AB63" s="75"/>
+      <c r="AC63" s="75"/>
+      <c r="AD63" s="75"/>
+      <c r="AE63" s="75"/>
+      <c r="AF63" s="75"/>
+      <c r="AG63" s="75"/>
     </row>
     <row r="64" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="72"/>
-      <c r="Y64" s="72"/>
-      <c r="Z64" s="72"/>
-      <c r="AA64" s="72"/>
-      <c r="AB64" s="72"/>
-      <c r="AC64" s="72"/>
-      <c r="AD64" s="72"/>
-      <c r="AE64" s="72"/>
-      <c r="AF64" s="72"/>
-      <c r="AG64" s="72"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75"/>
+      <c r="X64" s="75"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="75"/>
+      <c r="AA64" s="75"/>
+      <c r="AB64" s="75"/>
+      <c r="AC64" s="75"/>
+      <c r="AD64" s="75"/>
+      <c r="AE64" s="75"/>
+      <c r="AF64" s="75"/>
+      <c r="AG64" s="75"/>
     </row>
     <row r="65" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="72"/>
-      <c r="X65" s="72"/>
-      <c r="Y65" s="72"/>
-      <c r="Z65" s="72"/>
-      <c r="AA65" s="72"/>
-      <c r="AB65" s="72"/>
-      <c r="AC65" s="72"/>
-      <c r="AD65" s="72"/>
-      <c r="AE65" s="72"/>
-      <c r="AF65" s="72"/>
-      <c r="AG65" s="72"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
+      <c r="O65" s="75"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="75"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="75"/>
+      <c r="T65" s="75"/>
+      <c r="U65" s="75"/>
+      <c r="V65" s="75"/>
+      <c r="W65" s="75"/>
+      <c r="X65" s="75"/>
+      <c r="Y65" s="75"/>
+      <c r="Z65" s="75"/>
+      <c r="AA65" s="75"/>
+      <c r="AB65" s="75"/>
+      <c r="AC65" s="75"/>
+      <c r="AD65" s="75"/>
+      <c r="AE65" s="75"/>
+      <c r="AF65" s="75"/>
+      <c r="AG65" s="75"/>
     </row>
     <row r="66" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="80" t="s">
+      <c r="A66" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="80"/>
-      <c r="P66" s="80"/>
-      <c r="Q66" s="80"/>
-      <c r="R66" s="80"/>
-      <c r="S66" s="80"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="80"/>
-      <c r="V66" s="80"/>
-      <c r="W66" s="80"/>
-      <c r="X66" s="80"/>
-      <c r="Y66" s="80"/>
-      <c r="Z66" s="80"/>
-      <c r="AA66" s="80"/>
-      <c r="AB66" s="80"/>
-      <c r="AC66" s="80"/>
-      <c r="AD66" s="80"/>
-      <c r="AE66" s="80"/>
-      <c r="AF66" s="80"/>
-      <c r="AG66" s="80"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="76"/>
+      <c r="O66" s="76"/>
+      <c r="P66" s="76"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="76"/>
+      <c r="S66" s="76"/>
+      <c r="T66" s="76"/>
+      <c r="U66" s="76"/>
+      <c r="V66" s="76"/>
+      <c r="W66" s="76"/>
+      <c r="X66" s="76"/>
+      <c r="Y66" s="76"/>
+      <c r="Z66" s="76"/>
+      <c r="AA66" s="76"/>
+      <c r="AB66" s="76"/>
+      <c r="AC66" s="76"/>
+      <c r="AD66" s="76"/>
+      <c r="AE66" s="76"/>
+      <c r="AF66" s="76"/>
+      <c r="AG66" s="76"/>
     </row>
     <row r="67" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
-      <c r="V67" s="72"/>
-      <c r="W67" s="72"/>
-      <c r="X67" s="72"/>
-      <c r="Y67" s="72"/>
-      <c r="Z67" s="72"/>
-      <c r="AA67" s="72"/>
-      <c r="AB67" s="72"/>
-      <c r="AC67" s="72"/>
-      <c r="AD67" s="72"/>
-      <c r="AE67" s="72"/>
-      <c r="AF67" s="72"/>
-      <c r="AG67" s="72"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="75"/>
+      <c r="V67" s="75"/>
+      <c r="W67" s="75"/>
+      <c r="X67" s="75"/>
+      <c r="Y67" s="75"/>
+      <c r="Z67" s="75"/>
+      <c r="AA67" s="75"/>
+      <c r="AB67" s="75"/>
+      <c r="AC67" s="75"/>
+      <c r="AD67" s="75"/>
+      <c r="AE67" s="75"/>
+      <c r="AF67" s="75"/>
+      <c r="AG67" s="75"/>
     </row>
     <row r="68" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-      <c r="P68" s="72"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="72"/>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
-      <c r="V68" s="72"/>
-      <c r="W68" s="72"/>
-      <c r="X68" s="72"/>
-      <c r="Y68" s="72"/>
-      <c r="Z68" s="72"/>
-      <c r="AA68" s="72"/>
-      <c r="AB68" s="72"/>
-      <c r="AC68" s="72"/>
-      <c r="AD68" s="72"/>
-      <c r="AE68" s="72"/>
-      <c r="AF68" s="72"/>
-      <c r="AG68" s="72"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="75"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="75"/>
+      <c r="T68" s="75"/>
+      <c r="U68" s="75"/>
+      <c r="V68" s="75"/>
+      <c r="W68" s="75"/>
+      <c r="X68" s="75"/>
+      <c r="Y68" s="75"/>
+      <c r="Z68" s="75"/>
+      <c r="AA68" s="75"/>
+      <c r="AB68" s="75"/>
+      <c r="AC68" s="75"/>
+      <c r="AD68" s="75"/>
+      <c r="AE68" s="75"/>
+      <c r="AF68" s="75"/>
+      <c r="AG68" s="75"/>
     </row>
     <row r="69" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="80" t="s">
+      <c r="A69" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
-      <c r="P69" s="80"/>
-      <c r="Q69" s="80"/>
-      <c r="R69" s="80"/>
-      <c r="S69" s="80"/>
-      <c r="T69" s="80"/>
-      <c r="U69" s="80"/>
-      <c r="V69" s="80"/>
-      <c r="W69" s="80"/>
-      <c r="X69" s="80"/>
-      <c r="Y69" s="80"/>
-      <c r="Z69" s="80"/>
-      <c r="AA69" s="80"/>
-      <c r="AB69" s="80"/>
-      <c r="AC69" s="80"/>
-      <c r="AD69" s="80"/>
-      <c r="AE69" s="80"/>
-      <c r="AF69" s="80"/>
-      <c r="AG69" s="80"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="76"/>
+      <c r="P69" s="76"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="76"/>
+      <c r="S69" s="76"/>
+      <c r="T69" s="76"/>
+      <c r="U69" s="76"/>
+      <c r="V69" s="76"/>
+      <c r="W69" s="76"/>
+      <c r="X69" s="76"/>
+      <c r="Y69" s="76"/>
+      <c r="Z69" s="76"/>
+      <c r="AA69" s="76"/>
+      <c r="AB69" s="76"/>
+      <c r="AC69" s="76"/>
+      <c r="AD69" s="76"/>
+      <c r="AE69" s="76"/>
+      <c r="AF69" s="76"/>
+      <c r="AG69" s="76"/>
     </row>
     <row r="70" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="72"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
-      <c r="V70" s="72"/>
-      <c r="W70" s="72"/>
-      <c r="X70" s="72"/>
-      <c r="Y70" s="72"/>
-      <c r="Z70" s="72"/>
-      <c r="AA70" s="72"/>
-      <c r="AB70" s="72"/>
-      <c r="AC70" s="72"/>
-      <c r="AD70" s="72"/>
-      <c r="AE70" s="72"/>
-      <c r="AF70" s="72"/>
-      <c r="AG70" s="72"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
+      <c r="O70" s="75"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
+      <c r="W70" s="75"/>
+      <c r="X70" s="75"/>
+      <c r="Y70" s="75"/>
+      <c r="Z70" s="75"/>
+      <c r="AA70" s="75"/>
+      <c r="AB70" s="75"/>
+      <c r="AC70" s="75"/>
+      <c r="AD70" s="75"/>
+      <c r="AE70" s="75"/>
+      <c r="AF70" s="75"/>
+      <c r="AG70" s="75"/>
     </row>
     <row r="71" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
-      <c r="W71" s="72"/>
-      <c r="X71" s="72"/>
-      <c r="Y71" s="72"/>
-      <c r="Z71" s="72"/>
-      <c r="AA71" s="72"/>
-      <c r="AB71" s="72"/>
-      <c r="AC71" s="72"/>
-      <c r="AD71" s="72"/>
-      <c r="AE71" s="72"/>
-      <c r="AF71" s="72"/>
-      <c r="AG71" s="72"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="75"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
+      <c r="W71" s="75"/>
+      <c r="X71" s="75"/>
+      <c r="Y71" s="75"/>
+      <c r="Z71" s="75"/>
+      <c r="AA71" s="75"/>
+      <c r="AB71" s="75"/>
+      <c r="AC71" s="75"/>
+      <c r="AD71" s="75"/>
+      <c r="AE71" s="75"/>
+      <c r="AF71" s="75"/>
+      <c r="AG71" s="75"/>
     </row>
     <row r="72" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="80"/>
-      <c r="Q72" s="80"/>
-      <c r="R72" s="80"/>
-      <c r="S72" s="80"/>
-      <c r="T72" s="80"/>
-      <c r="U72" s="80"/>
-      <c r="V72" s="80"/>
-      <c r="W72" s="80"/>
-      <c r="X72" s="80"/>
-      <c r="Y72" s="80"/>
-      <c r="Z72" s="80"/>
-      <c r="AA72" s="80"/>
-      <c r="AB72" s="80"/>
-      <c r="AC72" s="80"/>
-      <c r="AD72" s="80"/>
-      <c r="AE72" s="80"/>
-      <c r="AF72" s="80"/>
-      <c r="AG72" s="80"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="76"/>
+      <c r="O72" s="76"/>
+      <c r="P72" s="76"/>
+      <c r="Q72" s="76"/>
+      <c r="R72" s="76"/>
+      <c r="S72" s="76"/>
+      <c r="T72" s="76"/>
+      <c r="U72" s="76"/>
+      <c r="V72" s="76"/>
+      <c r="W72" s="76"/>
+      <c r="X72" s="76"/>
+      <c r="Y72" s="76"/>
+      <c r="Z72" s="76"/>
+      <c r="AA72" s="76"/>
+      <c r="AB72" s="76"/>
+      <c r="AC72" s="76"/>
+      <c r="AD72" s="76"/>
+      <c r="AE72" s="76"/>
+      <c r="AF72" s="76"/>
+      <c r="AG72" s="76"/>
     </row>
     <row r="73" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="72"/>
-      <c r="W73" s="72"/>
-      <c r="X73" s="72"/>
-      <c r="Y73" s="72"/>
-      <c r="Z73" s="72"/>
-      <c r="AA73" s="72"/>
-      <c r="AB73" s="72"/>
-      <c r="AC73" s="72"/>
-      <c r="AD73" s="72"/>
-      <c r="AE73" s="72"/>
-      <c r="AF73" s="72"/>
-      <c r="AG73" s="72"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
+      <c r="R73" s="75"/>
+      <c r="S73" s="75"/>
+      <c r="T73" s="75"/>
+      <c r="U73" s="75"/>
+      <c r="V73" s="75"/>
+      <c r="W73" s="75"/>
+      <c r="X73" s="75"/>
+      <c r="Y73" s="75"/>
+      <c r="Z73" s="75"/>
+      <c r="AA73" s="75"/>
+      <c r="AB73" s="75"/>
+      <c r="AC73" s="75"/>
+      <c r="AD73" s="75"/>
+      <c r="AE73" s="75"/>
+      <c r="AF73" s="75"/>
+      <c r="AG73" s="75"/>
     </row>
     <row r="74" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="72"/>
-      <c r="S74" s="72"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="72"/>
-      <c r="V74" s="72"/>
-      <c r="W74" s="72"/>
-      <c r="X74" s="72"/>
-      <c r="Y74" s="72"/>
-      <c r="Z74" s="72"/>
-      <c r="AA74" s="72"/>
-      <c r="AB74" s="72"/>
-      <c r="AC74" s="72"/>
-      <c r="AD74" s="72"/>
-      <c r="AE74" s="72"/>
-      <c r="AF74" s="72"/>
-      <c r="AG74" s="72"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="75"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="75"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="75"/>
+      <c r="O74" s="75"/>
+      <c r="P74" s="75"/>
+      <c r="Q74" s="75"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="75"/>
+      <c r="T74" s="75"/>
+      <c r="U74" s="75"/>
+      <c r="V74" s="75"/>
+      <c r="W74" s="75"/>
+      <c r="X74" s="75"/>
+      <c r="Y74" s="75"/>
+      <c r="Z74" s="75"/>
+      <c r="AA74" s="75"/>
+      <c r="AB74" s="75"/>
+      <c r="AC74" s="75"/>
+      <c r="AD74" s="75"/>
+      <c r="AE74" s="75"/>
+      <c r="AF74" s="75"/>
+      <c r="AG74" s="75"/>
     </row>
     <row r="75" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
-      <c r="R75" s="72"/>
-      <c r="S75" s="72"/>
-      <c r="T75" s="72"/>
-      <c r="U75" s="72"/>
-      <c r="V75" s="72"/>
-      <c r="W75" s="72"/>
-      <c r="X75" s="72"/>
-      <c r="Y75" s="72"/>
-      <c r="Z75" s="72"/>
-      <c r="AA75" s="72"/>
-      <c r="AB75" s="72"/>
-      <c r="AC75" s="72"/>
-      <c r="AD75" s="72"/>
-      <c r="AE75" s="72"/>
-      <c r="AF75" s="72"/>
-      <c r="AG75" s="72"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="75"/>
+      <c r="Q75" s="75"/>
+      <c r="R75" s="75"/>
+      <c r="S75" s="75"/>
+      <c r="T75" s="75"/>
+      <c r="U75" s="75"/>
+      <c r="V75" s="75"/>
+      <c r="W75" s="75"/>
+      <c r="X75" s="75"/>
+      <c r="Y75" s="75"/>
+      <c r="Z75" s="75"/>
+      <c r="AA75" s="75"/>
+      <c r="AB75" s="75"/>
+      <c r="AC75" s="75"/>
+      <c r="AD75" s="75"/>
+      <c r="AE75" s="75"/>
+      <c r="AF75" s="75"/>
+      <c r="AG75" s="75"/>
     </row>
     <row r="76" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79"/>
-      <c r="R76" s="79"/>
-      <c r="S76" s="79"/>
-      <c r="T76" s="79"/>
-      <c r="U76" s="79"/>
-      <c r="V76" s="79"/>
-      <c r="W76" s="79"/>
-      <c r="X76" s="79"/>
-      <c r="Y76" s="79"/>
-      <c r="Z76" s="79"/>
-      <c r="AA76" s="79"/>
-      <c r="AB76" s="79"/>
-      <c r="AC76" s="79"/>
-      <c r="AD76" s="79"/>
-      <c r="AE76" s="79"/>
-      <c r="AF76" s="79"/>
-      <c r="AG76" s="79"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
+      <c r="Q76" s="83"/>
+      <c r="R76" s="83"/>
+      <c r="S76" s="83"/>
+      <c r="T76" s="83"/>
+      <c r="U76" s="83"/>
+      <c r="V76" s="83"/>
+      <c r="W76" s="83"/>
+      <c r="X76" s="83"/>
+      <c r="Y76" s="83"/>
+      <c r="Z76" s="83"/>
+      <c r="AA76" s="83"/>
+      <c r="AB76" s="83"/>
+      <c r="AC76" s="83"/>
+      <c r="AD76" s="83"/>
+      <c r="AE76" s="83"/>
+      <c r="AF76" s="83"/>
+      <c r="AG76" s="83"/>
     </row>
     <row r="77" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="72"/>
-      <c r="T77" s="72"/>
-      <c r="U77" s="72"/>
-      <c r="V77" s="72"/>
-      <c r="W77" s="72"/>
-      <c r="X77" s="72"/>
-      <c r="Y77" s="72"/>
-      <c r="Z77" s="72"/>
-      <c r="AA77" s="72"/>
-      <c r="AB77" s="72"/>
-      <c r="AC77" s="72"/>
-      <c r="AD77" s="72"/>
-      <c r="AE77" s="72"/>
-      <c r="AF77" s="72"/>
-      <c r="AG77" s="72"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+      <c r="O77" s="75"/>
+      <c r="P77" s="75"/>
+      <c r="Q77" s="75"/>
+      <c r="R77" s="75"/>
+      <c r="S77" s="75"/>
+      <c r="T77" s="75"/>
+      <c r="U77" s="75"/>
+      <c r="V77" s="75"/>
+      <c r="W77" s="75"/>
+      <c r="X77" s="75"/>
+      <c r="Y77" s="75"/>
+      <c r="Z77" s="75"/>
+      <c r="AA77" s="75"/>
+      <c r="AB77" s="75"/>
+      <c r="AC77" s="75"/>
+      <c r="AD77" s="75"/>
+      <c r="AE77" s="75"/>
+      <c r="AF77" s="75"/>
+      <c r="AG77" s="75"/>
     </row>
     <row r="78" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="72"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="72"/>
-      <c r="T78" s="72"/>
-      <c r="U78" s="72"/>
-      <c r="V78" s="72"/>
-      <c r="W78" s="72"/>
-      <c r="X78" s="72"/>
-      <c r="Y78" s="72"/>
-      <c r="Z78" s="72"/>
-      <c r="AA78" s="72"/>
-      <c r="AB78" s="72"/>
-      <c r="AC78" s="72"/>
-      <c r="AD78" s="72"/>
-      <c r="AE78" s="72"/>
-      <c r="AF78" s="72"/>
-      <c r="AG78" s="72"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="75"/>
+      <c r="P78" s="75"/>
+      <c r="Q78" s="75"/>
+      <c r="R78" s="75"/>
+      <c r="S78" s="75"/>
+      <c r="T78" s="75"/>
+      <c r="U78" s="75"/>
+      <c r="V78" s="75"/>
+      <c r="W78" s="75"/>
+      <c r="X78" s="75"/>
+      <c r="Y78" s="75"/>
+      <c r="Z78" s="75"/>
+      <c r="AA78" s="75"/>
+      <c r="AB78" s="75"/>
+      <c r="AC78" s="75"/>
+      <c r="AD78" s="75"/>
+      <c r="AE78" s="75"/>
+      <c r="AF78" s="75"/>
+      <c r="AG78" s="75"/>
     </row>
     <row r="79" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="72" t="s">
+      <c r="A79" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
-      <c r="N79" s="72"/>
-      <c r="O79" s="72"/>
-      <c r="P79" s="72"/>
-      <c r="Q79" s="72"/>
-      <c r="R79" s="72"/>
-      <c r="S79" s="72"/>
-      <c r="T79" s="72"/>
-      <c r="U79" s="72"/>
-      <c r="V79" s="72"/>
-      <c r="W79" s="72"/>
-      <c r="X79" s="72"/>
-      <c r="Y79" s="72"/>
-      <c r="Z79" s="72"/>
-      <c r="AA79" s="72"/>
-      <c r="AB79" s="72"/>
-      <c r="AC79" s="72"/>
-      <c r="AD79" s="72"/>
-      <c r="AE79" s="72"/>
-      <c r="AF79" s="72"/>
-      <c r="AG79" s="72"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="75"/>
+      <c r="T79" s="75"/>
+      <c r="U79" s="75"/>
+      <c r="V79" s="75"/>
+      <c r="W79" s="75"/>
+      <c r="X79" s="75"/>
+      <c r="Y79" s="75"/>
+      <c r="Z79" s="75"/>
+      <c r="AA79" s="75"/>
+      <c r="AB79" s="75"/>
+      <c r="AC79" s="75"/>
+      <c r="AD79" s="75"/>
+      <c r="AE79" s="75"/>
+      <c r="AF79" s="75"/>
+      <c r="AG79" s="75"/>
     </row>
     <row r="80" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="79"/>
-      <c r="K80" s="79"/>
-      <c r="L80" s="79"/>
-      <c r="M80" s="79"/>
-      <c r="N80" s="79"/>
-      <c r="O80" s="79"/>
-      <c r="P80" s="79"/>
-      <c r="Q80" s="79"/>
-      <c r="R80" s="79"/>
-      <c r="S80" s="79"/>
-      <c r="T80" s="79"/>
-      <c r="U80" s="79"/>
-      <c r="V80" s="79"/>
-      <c r="W80" s="79"/>
-      <c r="X80" s="79"/>
-      <c r="Y80" s="79"/>
-      <c r="Z80" s="79"/>
-      <c r="AA80" s="79"/>
-      <c r="AB80" s="79"/>
-      <c r="AC80" s="79"/>
-      <c r="AD80" s="79"/>
-      <c r="AE80" s="79"/>
-      <c r="AF80" s="79"/>
-      <c r="AG80" s="79"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="83"/>
+      <c r="L80" s="83"/>
+      <c r="M80" s="83"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="83"/>
+      <c r="Q80" s="83"/>
+      <c r="R80" s="83"/>
+      <c r="S80" s="83"/>
+      <c r="T80" s="83"/>
+      <c r="U80" s="83"/>
+      <c r="V80" s="83"/>
+      <c r="W80" s="83"/>
+      <c r="X80" s="83"/>
+      <c r="Y80" s="83"/>
+      <c r="Z80" s="83"/>
+      <c r="AA80" s="83"/>
+      <c r="AB80" s="83"/>
+      <c r="AC80" s="83"/>
+      <c r="AD80" s="83"/>
+      <c r="AE80" s="83"/>
+      <c r="AF80" s="83"/>
+      <c r="AG80" s="83"/>
     </row>
     <row r="81" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="80" t="s">
+      <c r="A81" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="80"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="80"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
-      <c r="K81" s="80"/>
-      <c r="L81" s="80"/>
-      <c r="M81" s="80"/>
-      <c r="N81" s="80"/>
-      <c r="O81" s="80"/>
-      <c r="P81" s="80"/>
-      <c r="Q81" s="80"/>
-      <c r="R81" s="80"/>
-      <c r="S81" s="80"/>
-      <c r="T81" s="80"/>
-      <c r="U81" s="80"/>
-      <c r="V81" s="80"/>
-      <c r="W81" s="80"/>
-      <c r="X81" s="80"/>
-      <c r="Y81" s="80"/>
-      <c r="Z81" s="80"/>
-      <c r="AA81" s="80"/>
-      <c r="AB81" s="80"/>
-      <c r="AC81" s="80"/>
-      <c r="AD81" s="80"/>
-      <c r="AE81" s="80"/>
-      <c r="AF81" s="80"/>
-      <c r="AG81" s="80"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="76"/>
+      <c r="M81" s="76"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="76"/>
+      <c r="P81" s="76"/>
+      <c r="Q81" s="76"/>
+      <c r="R81" s="76"/>
+      <c r="S81" s="76"/>
+      <c r="T81" s="76"/>
+      <c r="U81" s="76"/>
+      <c r="V81" s="76"/>
+      <c r="W81" s="76"/>
+      <c r="X81" s="76"/>
+      <c r="Y81" s="76"/>
+      <c r="Z81" s="76"/>
+      <c r="AA81" s="76"/>
+      <c r="AB81" s="76"/>
+      <c r="AC81" s="76"/>
+      <c r="AD81" s="76"/>
+      <c r="AE81" s="76"/>
+      <c r="AF81" s="76"/>
+      <c r="AG81" s="76"/>
     </row>
     <row r="82" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="72" t="s">
+      <c r="A82" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="72"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="72"/>
-      <c r="K82" s="72"/>
-      <c r="L82" s="72"/>
-      <c r="M82" s="72"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
-      <c r="V82" s="72"/>
-      <c r="W82" s="72"/>
-      <c r="X82" s="72"/>
-      <c r="Y82" s="72"/>
-      <c r="Z82" s="72"/>
-      <c r="AA82" s="72"/>
-      <c r="AB82" s="72"/>
-      <c r="AC82" s="72"/>
-      <c r="AD82" s="72"/>
-      <c r="AE82" s="72"/>
-      <c r="AF82" s="72"/>
-      <c r="AG82" s="72"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="75"/>
+      <c r="N82" s="75"/>
+      <c r="O82" s="75"/>
+      <c r="P82" s="75"/>
+      <c r="Q82" s="75"/>
+      <c r="R82" s="75"/>
+      <c r="S82" s="75"/>
+      <c r="T82" s="75"/>
+      <c r="U82" s="75"/>
+      <c r="V82" s="75"/>
+      <c r="W82" s="75"/>
+      <c r="X82" s="75"/>
+      <c r="Y82" s="75"/>
+      <c r="Z82" s="75"/>
+      <c r="AA82" s="75"/>
+      <c r="AB82" s="75"/>
+      <c r="AC82" s="75"/>
+      <c r="AD82" s="75"/>
+      <c r="AE82" s="75"/>
+      <c r="AF82" s="75"/>
+      <c r="AG82" s="75"/>
     </row>
     <row r="83" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72"/>
-      <c r="P83" s="72"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="72"/>
-      <c r="S83" s="72"/>
-      <c r="T83" s="72"/>
-      <c r="U83" s="72"/>
-      <c r="V83" s="72"/>
-      <c r="W83" s="72"/>
-      <c r="X83" s="72"/>
-      <c r="Y83" s="72"/>
-      <c r="Z83" s="72"/>
-      <c r="AA83" s="72"/>
-      <c r="AB83" s="72"/>
-      <c r="AC83" s="72"/>
-      <c r="AD83" s="72"/>
-      <c r="AE83" s="72"/>
-      <c r="AF83" s="72"/>
-      <c r="AG83" s="72"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75"/>
+      <c r="O83" s="75"/>
+      <c r="P83" s="75"/>
+      <c r="Q83" s="75"/>
+      <c r="R83" s="75"/>
+      <c r="S83" s="75"/>
+      <c r="T83" s="75"/>
+      <c r="U83" s="75"/>
+      <c r="V83" s="75"/>
+      <c r="W83" s="75"/>
+      <c r="X83" s="75"/>
+      <c r="Y83" s="75"/>
+      <c r="Z83" s="75"/>
+      <c r="AA83" s="75"/>
+      <c r="AB83" s="75"/>
+      <c r="AC83" s="75"/>
+      <c r="AD83" s="75"/>
+      <c r="AE83" s="75"/>
+      <c r="AF83" s="75"/>
+      <c r="AG83" s="75"/>
     </row>
     <row r="84" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="80" t="s">
+      <c r="A84" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="80"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="80"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80"/>
-      <c r="K84" s="80"/>
-      <c r="L84" s="80"/>
-      <c r="M84" s="80"/>
-      <c r="N84" s="80"/>
-      <c r="O84" s="80"/>
-      <c r="P84" s="80"/>
-      <c r="Q84" s="80"/>
-      <c r="R84" s="80"/>
-      <c r="S84" s="80"/>
-      <c r="T84" s="80"/>
-      <c r="U84" s="80"/>
-      <c r="V84" s="80"/>
-      <c r="W84" s="80"/>
-      <c r="X84" s="80"/>
-      <c r="Y84" s="80"/>
-      <c r="Z84" s="80"/>
-      <c r="AA84" s="80"/>
-      <c r="AB84" s="80"/>
-      <c r="AC84" s="80"/>
-      <c r="AD84" s="80"/>
-      <c r="AE84" s="80"/>
-      <c r="AF84" s="80"/>
-      <c r="AG84" s="80"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="76"/>
+      <c r="M84" s="76"/>
+      <c r="N84" s="76"/>
+      <c r="O84" s="76"/>
+      <c r="P84" s="76"/>
+      <c r="Q84" s="76"/>
+      <c r="R84" s="76"/>
+      <c r="S84" s="76"/>
+      <c r="T84" s="76"/>
+      <c r="U84" s="76"/>
+      <c r="V84" s="76"/>
+      <c r="W84" s="76"/>
+      <c r="X84" s="76"/>
+      <c r="Y84" s="76"/>
+      <c r="Z84" s="76"/>
+      <c r="AA84" s="76"/>
+      <c r="AB84" s="76"/>
+      <c r="AC84" s="76"/>
+      <c r="AD84" s="76"/>
+      <c r="AE84" s="76"/>
+      <c r="AF84" s="76"/>
+      <c r="AG84" s="76"/>
     </row>
     <row r="85" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="72"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
-      <c r="N85" s="72"/>
-      <c r="O85" s="72"/>
-      <c r="P85" s="72"/>
-      <c r="Q85" s="72"/>
-      <c r="R85" s="72"/>
-      <c r="S85" s="72"/>
-      <c r="T85" s="72"/>
-      <c r="U85" s="72"/>
-      <c r="V85" s="72"/>
-      <c r="W85" s="72"/>
-      <c r="X85" s="72"/>
-      <c r="Y85" s="72"/>
-      <c r="Z85" s="72"/>
-      <c r="AA85" s="72"/>
-      <c r="AB85" s="72"/>
-      <c r="AC85" s="72"/>
-      <c r="AD85" s="72"/>
-      <c r="AE85" s="72"/>
-      <c r="AF85" s="72"/>
-      <c r="AG85" s="72"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="75"/>
+      <c r="V85" s="75"/>
+      <c r="W85" s="75"/>
+      <c r="X85" s="75"/>
+      <c r="Y85" s="75"/>
+      <c r="Z85" s="75"/>
+      <c r="AA85" s="75"/>
+      <c r="AB85" s="75"/>
+      <c r="AC85" s="75"/>
+      <c r="AD85" s="75"/>
+      <c r="AE85" s="75"/>
+      <c r="AF85" s="75"/>
+      <c r="AG85" s="75"/>
     </row>
     <row r="86" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="72"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="72"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="72"/>
-      <c r="N86" s="72"/>
-      <c r="O86" s="72"/>
-      <c r="P86" s="72"/>
-      <c r="Q86" s="72"/>
-      <c r="R86" s="72"/>
-      <c r="S86" s="72"/>
-      <c r="T86" s="72"/>
-      <c r="U86" s="72"/>
-      <c r="V86" s="72"/>
-      <c r="W86" s="72"/>
-      <c r="X86" s="72"/>
-      <c r="Y86" s="72"/>
-      <c r="Z86" s="72"/>
-      <c r="AA86" s="72"/>
-      <c r="AB86" s="72"/>
-      <c r="AC86" s="72"/>
-      <c r="AD86" s="72"/>
-      <c r="AE86" s="72"/>
-      <c r="AF86" s="72"/>
-      <c r="AG86" s="72"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="75"/>
+      <c r="P86" s="75"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
+      <c r="W86" s="75"/>
+      <c r="X86" s="75"/>
+      <c r="Y86" s="75"/>
+      <c r="Z86" s="75"/>
+      <c r="AA86" s="75"/>
+      <c r="AB86" s="75"/>
+      <c r="AC86" s="75"/>
+      <c r="AD86" s="75"/>
+      <c r="AE86" s="75"/>
+      <c r="AF86" s="75"/>
+      <c r="AG86" s="75"/>
     </row>
     <row r="87" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="72"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
-      <c r="V87" s="72"/>
-      <c r="W87" s="72"/>
-      <c r="X87" s="72"/>
-      <c r="Y87" s="72"/>
-      <c r="Z87" s="72"/>
-      <c r="AA87" s="72"/>
-      <c r="AB87" s="72"/>
-      <c r="AC87" s="72"/>
-      <c r="AD87" s="72"/>
-      <c r="AE87" s="72"/>
-      <c r="AF87" s="72"/>
-      <c r="AG87" s="72"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="75"/>
+      <c r="O87" s="75"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
+      <c r="W87" s="75"/>
+      <c r="X87" s="75"/>
+      <c r="Y87" s="75"/>
+      <c r="Z87" s="75"/>
+      <c r="AA87" s="75"/>
+      <c r="AB87" s="75"/>
+      <c r="AC87" s="75"/>
+      <c r="AD87" s="75"/>
+      <c r="AE87" s="75"/>
+      <c r="AF87" s="75"/>
+      <c r="AG87" s="75"/>
     </row>
     <row r="88" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="79"/>
-      <c r="O88" s="79"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
-      <c r="W88" s="79"/>
-      <c r="X88" s="79"/>
-      <c r="Y88" s="79"/>
-      <c r="Z88" s="79"/>
-      <c r="AA88" s="79"/>
-      <c r="AB88" s="79"/>
-      <c r="AC88" s="79"/>
-      <c r="AD88" s="79"/>
-      <c r="AE88" s="79"/>
-      <c r="AF88" s="79"/>
-      <c r="AG88" s="79"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
+      <c r="K88" s="83"/>
+      <c r="L88" s="83"/>
+      <c r="M88" s="83"/>
+      <c r="N88" s="83"/>
+      <c r="O88" s="83"/>
+      <c r="P88" s="83"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
+      <c r="T88" s="83"/>
+      <c r="U88" s="83"/>
+      <c r="V88" s="83"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="83"/>
+      <c r="Y88" s="83"/>
+      <c r="Z88" s="83"/>
+      <c r="AA88" s="83"/>
+      <c r="AB88" s="83"/>
+      <c r="AC88" s="83"/>
+      <c r="AD88" s="83"/>
+      <c r="AE88" s="83"/>
+      <c r="AF88" s="83"/>
+      <c r="AG88" s="83"/>
     </row>
     <row r="89" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="72" t="s">
+      <c r="A89" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="72"/>
-      <c r="N89" s="72"/>
-      <c r="O89" s="72"/>
-      <c r="P89" s="72"/>
-      <c r="Q89" s="72"/>
-      <c r="R89" s="72"/>
-      <c r="S89" s="72"/>
-      <c r="T89" s="72"/>
-      <c r="U89" s="72"/>
-      <c r="V89" s="72"/>
-      <c r="W89" s="72"/>
-      <c r="X89" s="72"/>
-      <c r="Y89" s="72"/>
-      <c r="Z89" s="72"/>
-      <c r="AA89" s="72"/>
-      <c r="AB89" s="72"/>
-      <c r="AC89" s="72"/>
-      <c r="AD89" s="72"/>
-      <c r="AE89" s="72"/>
-      <c r="AF89" s="72"/>
-      <c r="AG89" s="72"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
+      <c r="O89" s="75"/>
+      <c r="P89" s="75"/>
+      <c r="Q89" s="75"/>
+      <c r="R89" s="75"/>
+      <c r="S89" s="75"/>
+      <c r="T89" s="75"/>
+      <c r="U89" s="75"/>
+      <c r="V89" s="75"/>
+      <c r="W89" s="75"/>
+      <c r="X89" s="75"/>
+      <c r="Y89" s="75"/>
+      <c r="Z89" s="75"/>
+      <c r="AA89" s="75"/>
+      <c r="AB89" s="75"/>
+      <c r="AC89" s="75"/>
+      <c r="AD89" s="75"/>
+      <c r="AE89" s="75"/>
+      <c r="AF89" s="75"/>
+      <c r="AG89" s="75"/>
     </row>
     <row r="90" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="72" t="s">
+      <c r="A90" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="72"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="72"/>
-      <c r="J90" s="72"/>
-      <c r="K90" s="72"/>
-      <c r="L90" s="72"/>
-      <c r="M90" s="72"/>
-      <c r="N90" s="72"/>
-      <c r="O90" s="72"/>
-      <c r="P90" s="72"/>
-      <c r="Q90" s="72"/>
-      <c r="R90" s="72"/>
-      <c r="S90" s="72"/>
-      <c r="T90" s="72"/>
-      <c r="U90" s="72"/>
-      <c r="V90" s="72"/>
-      <c r="W90" s="72"/>
-      <c r="X90" s="72"/>
-      <c r="Y90" s="72"/>
-      <c r="Z90" s="72"/>
-      <c r="AA90" s="72"/>
-      <c r="AB90" s="72"/>
-      <c r="AC90" s="72"/>
-      <c r="AD90" s="72"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
+      <c r="P90" s="75"/>
+      <c r="Q90" s="75"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="75"/>
+      <c r="T90" s="75"/>
+      <c r="U90" s="75"/>
+      <c r="V90" s="75"/>
+      <c r="W90" s="75"/>
+      <c r="X90" s="75"/>
+      <c r="Y90" s="75"/>
+      <c r="Z90" s="75"/>
+      <c r="AA90" s="75"/>
+      <c r="AB90" s="75"/>
+      <c r="AC90" s="75"/>
+      <c r="AD90" s="75"/>
       <c r="AE90" s="55"/>
       <c r="AF90" s="55"/>
       <c r="AG90" s="55"/>
     </row>
     <row r="91" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="79" t="s">
+      <c r="A91" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="79"/>
-      <c r="J91" s="79"/>
-      <c r="K91" s="79"/>
-      <c r="L91" s="79"/>
-      <c r="M91" s="79"/>
-      <c r="N91" s="79"/>
-      <c r="O91" s="79"/>
-      <c r="P91" s="79"/>
-      <c r="Q91" s="79"/>
-      <c r="R91" s="79"/>
-      <c r="S91" s="79"/>
-      <c r="T91" s="79"/>
-      <c r="U91" s="79"/>
-      <c r="V91" s="79"/>
-      <c r="W91" s="79"/>
-      <c r="X91" s="79"/>
-      <c r="Y91" s="79"/>
-      <c r="Z91" s="79"/>
-      <c r="AA91" s="79"/>
-      <c r="AB91" s="79"/>
-      <c r="AC91" s="79"/>
-      <c r="AD91" s="79"/>
-      <c r="AE91" s="79"/>
-      <c r="AF91" s="79"/>
-      <c r="AG91" s="79"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="83"/>
+      <c r="M91" s="83"/>
+      <c r="N91" s="83"/>
+      <c r="O91" s="83"/>
+      <c r="P91" s="83"/>
+      <c r="Q91" s="83"/>
+      <c r="R91" s="83"/>
+      <c r="S91" s="83"/>
+      <c r="T91" s="83"/>
+      <c r="U91" s="83"/>
+      <c r="V91" s="83"/>
+      <c r="W91" s="83"/>
+      <c r="X91" s="83"/>
+      <c r="Y91" s="83"/>
+      <c r="Z91" s="83"/>
+      <c r="AA91" s="83"/>
+      <c r="AB91" s="83"/>
+      <c r="AC91" s="83"/>
+      <c r="AD91" s="83"/>
+      <c r="AE91" s="83"/>
+      <c r="AF91" s="83"/>
+      <c r="AG91" s="83"/>
     </row>
     <row r="92" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="80" t="s">
+      <c r="A92" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="80"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
-      <c r="M92" s="80"/>
-      <c r="N92" s="80"/>
-      <c r="O92" s="80"/>
-      <c r="P92" s="80"/>
-      <c r="Q92" s="80"/>
-      <c r="R92" s="80"/>
-      <c r="S92" s="80"/>
-      <c r="T92" s="80"/>
-      <c r="U92" s="80"/>
-      <c r="V92" s="80"/>
-      <c r="W92" s="80"/>
-      <c r="X92" s="80"/>
-      <c r="Y92" s="80"/>
-      <c r="Z92" s="80"/>
-      <c r="AA92" s="80"/>
-      <c r="AB92" s="80"/>
-      <c r="AC92" s="80"/>
-      <c r="AD92" s="80"/>
-      <c r="AE92" s="80"/>
-      <c r="AF92" s="80"/>
-      <c r="AG92" s="80"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76"/>
+      <c r="K92" s="76"/>
+      <c r="L92" s="76"/>
+      <c r="M92" s="76"/>
+      <c r="N92" s="76"/>
+      <c r="O92" s="76"/>
+      <c r="P92" s="76"/>
+      <c r="Q92" s="76"/>
+      <c r="R92" s="76"/>
+      <c r="S92" s="76"/>
+      <c r="T92" s="76"/>
+      <c r="U92" s="76"/>
+      <c r="V92" s="76"/>
+      <c r="W92" s="76"/>
+      <c r="X92" s="76"/>
+      <c r="Y92" s="76"/>
+      <c r="Z92" s="76"/>
+      <c r="AA92" s="76"/>
+      <c r="AB92" s="76"/>
+      <c r="AC92" s="76"/>
+      <c r="AD92" s="76"/>
+      <c r="AE92" s="76"/>
+      <c r="AF92" s="76"/>
+      <c r="AG92" s="76"/>
     </row>
     <row r="93" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="72"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="72"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="72"/>
-      <c r="L93" s="72"/>
-      <c r="M93" s="72"/>
-      <c r="N93" s="72"/>
-      <c r="O93" s="72"/>
-      <c r="P93" s="72"/>
-      <c r="Q93" s="72"/>
-      <c r="R93" s="72"/>
-      <c r="S93" s="72"/>
-      <c r="T93" s="72"/>
-      <c r="U93" s="72"/>
-      <c r="V93" s="72"/>
-      <c r="W93" s="72"/>
-      <c r="X93" s="72"/>
-      <c r="Y93" s="72"/>
-      <c r="Z93" s="72"/>
-      <c r="AA93" s="72"/>
-      <c r="AB93" s="72"/>
-      <c r="AC93" s="72"/>
-      <c r="AD93" s="72"/>
-      <c r="AE93" s="72"/>
-      <c r="AF93" s="72"/>
-      <c r="AG93" s="72"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="75"/>
+      <c r="Q93" s="75"/>
+      <c r="R93" s="75"/>
+      <c r="S93" s="75"/>
+      <c r="T93" s="75"/>
+      <c r="U93" s="75"/>
+      <c r="V93" s="75"/>
+      <c r="W93" s="75"/>
+      <c r="X93" s="75"/>
+      <c r="Y93" s="75"/>
+      <c r="Z93" s="75"/>
+      <c r="AA93" s="75"/>
+      <c r="AB93" s="75"/>
+      <c r="AC93" s="75"/>
+      <c r="AD93" s="75"/>
+      <c r="AE93" s="75"/>
+      <c r="AF93" s="75"/>
+      <c r="AG93" s="75"/>
     </row>
     <row r="94" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="P94" s="82"/>
-      <c r="Q94" s="82"/>
-      <c r="R94" s="82"/>
-      <c r="S94" s="82"/>
-      <c r="T94" s="82"/>
-      <c r="U94" s="82"/>
-      <c r="V94" s="82"/>
-      <c r="W94" s="82"/>
-      <c r="X94" s="82"/>
-      <c r="Y94" s="82"/>
-      <c r="Z94" s="82"/>
-      <c r="AA94" s="82"/>
-      <c r="AB94" s="82"/>
-      <c r="AC94" s="82"/>
-      <c r="AD94" s="82"/>
-      <c r="AE94" s="82"/>
-      <c r="AF94" s="82"/>
-      <c r="AG94" s="82"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
+      <c r="K94" s="88"/>
+      <c r="L94" s="88"/>
+      <c r="M94" s="88"/>
+      <c r="N94" s="88"/>
+      <c r="O94" s="88"/>
+      <c r="P94" s="88"/>
+      <c r="Q94" s="88"/>
+      <c r="R94" s="88"/>
+      <c r="S94" s="88"/>
+      <c r="T94" s="88"/>
+      <c r="U94" s="88"/>
+      <c r="V94" s="88"/>
+      <c r="W94" s="88"/>
+      <c r="X94" s="88"/>
+      <c r="Y94" s="88"/>
+      <c r="Z94" s="88"/>
+      <c r="AA94" s="88"/>
+      <c r="AB94" s="88"/>
+      <c r="AC94" s="88"/>
+      <c r="AD94" s="88"/>
+      <c r="AE94" s="88"/>
+      <c r="AF94" s="88"/>
+      <c r="AG94" s="88"/>
     </row>
     <row r="95" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="72" t="s">
+      <c r="A95" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="72"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-      <c r="L95" s="72"/>
-      <c r="M95" s="72"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="72"/>
-      <c r="P95" s="72"/>
-      <c r="Q95" s="72"/>
-      <c r="R95" s="72"/>
-      <c r="S95" s="72"/>
-      <c r="T95" s="72"/>
-      <c r="U95" s="72"/>
-      <c r="V95" s="72"/>
-      <c r="W95" s="72"/>
-      <c r="X95" s="72"/>
-      <c r="Y95" s="72"/>
-      <c r="Z95" s="72"/>
-      <c r="AA95" s="72"/>
-      <c r="AB95" s="72"/>
-      <c r="AC95" s="72"/>
-      <c r="AD95" s="72"/>
-      <c r="AE95" s="72"/>
-      <c r="AF95" s="72"/>
-      <c r="AG95" s="72"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="75"/>
+      <c r="O95" s="75"/>
+      <c r="P95" s="75"/>
+      <c r="Q95" s="75"/>
+      <c r="R95" s="75"/>
+      <c r="S95" s="75"/>
+      <c r="T95" s="75"/>
+      <c r="U95" s="75"/>
+      <c r="V95" s="75"/>
+      <c r="W95" s="75"/>
+      <c r="X95" s="75"/>
+      <c r="Y95" s="75"/>
+      <c r="Z95" s="75"/>
+      <c r="AA95" s="75"/>
+      <c r="AB95" s="75"/>
+      <c r="AC95" s="75"/>
+      <c r="AD95" s="75"/>
+      <c r="AE95" s="75"/>
+      <c r="AF95" s="75"/>
+      <c r="AG95" s="75"/>
     </row>
     <row r="96" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="91" t="s">
+      <c r="A96" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
-      <c r="J96" s="91"/>
-      <c r="K96" s="91"/>
-      <c r="L96" s="91"/>
-      <c r="M96" s="91"/>
-      <c r="N96" s="91"/>
-      <c r="O96" s="91"/>
-      <c r="P96" s="91"/>
-      <c r="Q96" s="91"/>
-      <c r="R96" s="91"/>
-      <c r="S96" s="91"/>
-      <c r="T96" s="91"/>
-      <c r="U96" s="91"/>
-      <c r="V96" s="91"/>
-      <c r="W96" s="91"/>
-      <c r="X96" s="91"/>
-      <c r="Y96" s="91"/>
-      <c r="Z96" s="91"/>
-      <c r="AA96" s="91"/>
-      <c r="AB96" s="91"/>
-      <c r="AC96" s="91"/>
-      <c r="AD96" s="91"/>
-      <c r="AE96" s="91"/>
-      <c r="AF96" s="91"/>
-      <c r="AG96" s="91"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
+      <c r="H96" s="86"/>
+      <c r="I96" s="86"/>
+      <c r="J96" s="86"/>
+      <c r="K96" s="86"/>
+      <c r="L96" s="86"/>
+      <c r="M96" s="86"/>
+      <c r="N96" s="86"/>
+      <c r="O96" s="86"/>
+      <c r="P96" s="86"/>
+      <c r="Q96" s="86"/>
+      <c r="R96" s="86"/>
+      <c r="S96" s="86"/>
+      <c r="T96" s="86"/>
+      <c r="U96" s="86"/>
+      <c r="V96" s="86"/>
+      <c r="W96" s="86"/>
+      <c r="X96" s="86"/>
+      <c r="Y96" s="86"/>
+      <c r="Z96" s="86"/>
+      <c r="AA96" s="86"/>
+      <c r="AB96" s="86"/>
+      <c r="AC96" s="86"/>
+      <c r="AD96" s="86"/>
+      <c r="AE96" s="86"/>
+      <c r="AF96" s="86"/>
+      <c r="AG96" s="86"/>
     </row>
     <row r="97" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="79" t="s">
+      <c r="A97" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="79"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="79"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="79"/>
-      <c r="H97" s="79"/>
-      <c r="I97" s="79"/>
-      <c r="J97" s="79"/>
-      <c r="K97" s="79"/>
-      <c r="L97" s="79"/>
-      <c r="M97" s="79"/>
-      <c r="N97" s="79"/>
-      <c r="O97" s="79"/>
-      <c r="P97" s="79"/>
-      <c r="Q97" s="79"/>
-      <c r="R97" s="79"/>
-      <c r="S97" s="79"/>
-      <c r="T97" s="79"/>
-      <c r="U97" s="79"/>
-      <c r="V97" s="79"/>
-      <c r="W97" s="79"/>
-      <c r="X97" s="79"/>
-      <c r="Y97" s="79"/>
-      <c r="Z97" s="79"/>
-      <c r="AA97" s="79"/>
-      <c r="AB97" s="79"/>
-      <c r="AC97" s="79"/>
-      <c r="AD97" s="79"/>
-      <c r="AE97" s="79"/>
-      <c r="AF97" s="79"/>
-      <c r="AG97" s="79"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="83"/>
+      <c r="I97" s="83"/>
+      <c r="J97" s="83"/>
+      <c r="K97" s="83"/>
+      <c r="L97" s="83"/>
+      <c r="M97" s="83"/>
+      <c r="N97" s="83"/>
+      <c r="O97" s="83"/>
+      <c r="P97" s="83"/>
+      <c r="Q97" s="83"/>
+      <c r="R97" s="83"/>
+      <c r="S97" s="83"/>
+      <c r="T97" s="83"/>
+      <c r="U97" s="83"/>
+      <c r="V97" s="83"/>
+      <c r="W97" s="83"/>
+      <c r="X97" s="83"/>
+      <c r="Y97" s="83"/>
+      <c r="Z97" s="83"/>
+      <c r="AA97" s="83"/>
+      <c r="AB97" s="83"/>
+      <c r="AC97" s="83"/>
+      <c r="AD97" s="83"/>
+      <c r="AE97" s="83"/>
+      <c r="AF97" s="83"/>
+      <c r="AG97" s="83"/>
     </row>
     <row r="98" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80" t="s">
+      <c r="A98" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="80"/>
-      <c r="C98" s="80"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="80"/>
-      <c r="H98" s="80"/>
-      <c r="I98" s="80"/>
-      <c r="J98" s="80"/>
-      <c r="K98" s="80"/>
-      <c r="L98" s="80"/>
-      <c r="M98" s="80"/>
-      <c r="N98" s="80"/>
-      <c r="O98" s="80"/>
-      <c r="P98" s="80"/>
-      <c r="Q98" s="80"/>
-      <c r="R98" s="80"/>
-      <c r="S98" s="80"/>
-      <c r="T98" s="80"/>
-      <c r="U98" s="80"/>
-      <c r="V98" s="80"/>
-      <c r="W98" s="80"/>
-      <c r="X98" s="80"/>
-      <c r="Y98" s="80"/>
-      <c r="Z98" s="80"/>
-      <c r="AA98" s="80"/>
-      <c r="AB98" s="80"/>
-      <c r="AC98" s="80"/>
-      <c r="AD98" s="80"/>
-      <c r="AE98" s="80"/>
-      <c r="AF98" s="80"/>
-      <c r="AG98" s="80"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="76"/>
+      <c r="M98" s="76"/>
+      <c r="N98" s="76"/>
+      <c r="O98" s="76"/>
+      <c r="P98" s="76"/>
+      <c r="Q98" s="76"/>
+      <c r="R98" s="76"/>
+      <c r="S98" s="76"/>
+      <c r="T98" s="76"/>
+      <c r="U98" s="76"/>
+      <c r="V98" s="76"/>
+      <c r="W98" s="76"/>
+      <c r="X98" s="76"/>
+      <c r="Y98" s="76"/>
+      <c r="Z98" s="76"/>
+      <c r="AA98" s="76"/>
+      <c r="AB98" s="76"/>
+      <c r="AC98" s="76"/>
+      <c r="AD98" s="76"/>
+      <c r="AE98" s="76"/>
+      <c r="AF98" s="76"/>
+      <c r="AG98" s="76"/>
     </row>
     <row r="99" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="72" t="s">
+      <c r="A99" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="72"/>
-      <c r="O99" s="72"/>
-      <c r="P99" s="72"/>
-      <c r="Q99" s="72"/>
-      <c r="R99" s="72"/>
-      <c r="S99" s="72"/>
-      <c r="T99" s="72"/>
-      <c r="U99" s="72"/>
-      <c r="V99" s="72"/>
-      <c r="W99" s="72"/>
-      <c r="X99" s="72"/>
-      <c r="Y99" s="72"/>
-      <c r="Z99" s="72"/>
-      <c r="AA99" s="72"/>
-      <c r="AB99" s="72"/>
-      <c r="AC99" s="72"/>
-      <c r="AD99" s="72"/>
-      <c r="AE99" s="72"/>
-      <c r="AF99" s="72"/>
-      <c r="AG99" s="72"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="75"/>
+      <c r="O99" s="75"/>
+      <c r="P99" s="75"/>
+      <c r="Q99" s="75"/>
+      <c r="R99" s="75"/>
+      <c r="S99" s="75"/>
+      <c r="T99" s="75"/>
+      <c r="U99" s="75"/>
+      <c r="V99" s="75"/>
+      <c r="W99" s="75"/>
+      <c r="X99" s="75"/>
+      <c r="Y99" s="75"/>
+      <c r="Z99" s="75"/>
+      <c r="AA99" s="75"/>
+      <c r="AB99" s="75"/>
+      <c r="AC99" s="75"/>
+      <c r="AD99" s="75"/>
+      <c r="AE99" s="75"/>
+      <c r="AF99" s="75"/>
+      <c r="AG99" s="75"/>
     </row>
     <row r="100" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="72" t="s">
+      <c r="A100" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
-      <c r="O100" s="72"/>
-      <c r="P100" s="72"/>
-      <c r="Q100" s="72"/>
-      <c r="R100" s="72"/>
-      <c r="S100" s="72"/>
-      <c r="T100" s="72"/>
-      <c r="U100" s="72"/>
-      <c r="V100" s="72"/>
-      <c r="W100" s="72"/>
-      <c r="X100" s="72"/>
-      <c r="Y100" s="72"/>
-      <c r="Z100" s="72"/>
-      <c r="AA100" s="72"/>
-      <c r="AB100" s="72"/>
-      <c r="AC100" s="72"/>
-      <c r="AD100" s="72"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="75"/>
+      <c r="O100" s="75"/>
+      <c r="P100" s="75"/>
+      <c r="Q100" s="75"/>
+      <c r="R100" s="75"/>
+      <c r="S100" s="75"/>
+      <c r="T100" s="75"/>
+      <c r="U100" s="75"/>
+      <c r="V100" s="75"/>
+      <c r="W100" s="75"/>
+      <c r="X100" s="75"/>
+      <c r="Y100" s="75"/>
+      <c r="Z100" s="75"/>
+      <c r="AA100" s="75"/>
+      <c r="AB100" s="75"/>
+      <c r="AC100" s="75"/>
+      <c r="AD100" s="75"/>
       <c r="AF100" s="67"/>
       <c r="AG100" s="62"/>
     </row>
@@ -10226,6 +10228,73 @@
     <sortCondition descending="1" ref="AH32:AH37"/>
   </sortState>
   <mergeCells count="83">
+    <mergeCell ref="A83:AG83"/>
+    <mergeCell ref="A74:AG74"/>
+    <mergeCell ref="A100:AD100"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A38:AG38"/>
+    <mergeCell ref="A39:AG39"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A99:AG99"/>
+    <mergeCell ref="A76:AG76"/>
+    <mergeCell ref="A77:AG77"/>
+    <mergeCell ref="A78:AG78"/>
+    <mergeCell ref="A79:AG79"/>
+    <mergeCell ref="A80:AG80"/>
+    <mergeCell ref="A81:AG81"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="A82:AG82"/>
+    <mergeCell ref="A84:AG84"/>
+    <mergeCell ref="A94:AG94"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A67:AG67"/>
+    <mergeCell ref="A68:AG68"/>
+    <mergeCell ref="A69:AG69"/>
+    <mergeCell ref="A70:AG70"/>
+    <mergeCell ref="A43:AG43"/>
+    <mergeCell ref="A44:AG44"/>
+    <mergeCell ref="A45:AG45"/>
+    <mergeCell ref="A46:AG46"/>
+    <mergeCell ref="A61:AG61"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="A63:AG63"/>
+    <mergeCell ref="A98:AG98"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="A48:AG48"/>
+    <mergeCell ref="A49:AG49"/>
+    <mergeCell ref="A50:AG50"/>
+    <mergeCell ref="A51:AG51"/>
+    <mergeCell ref="A52:AG52"/>
+    <mergeCell ref="A53:AG53"/>
+    <mergeCell ref="A54:AG54"/>
+    <mergeCell ref="A55:AG55"/>
+    <mergeCell ref="A56:AG56"/>
+    <mergeCell ref="A57:AG57"/>
+    <mergeCell ref="A58:AG58"/>
+    <mergeCell ref="A59:AG59"/>
+    <mergeCell ref="A95:AG95"/>
+    <mergeCell ref="A96:AG96"/>
+    <mergeCell ref="A91:AG91"/>
+    <mergeCell ref="A85:AG85"/>
+    <mergeCell ref="A86:AG86"/>
+    <mergeCell ref="A87:AG87"/>
+    <mergeCell ref="A97:AG97"/>
+    <mergeCell ref="A93:AG93"/>
+    <mergeCell ref="A88:AG88"/>
+    <mergeCell ref="A92:AG92"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A90:AD90"/>
@@ -10242,73 +10311,6 @@
     <mergeCell ref="A89:AG89"/>
     <mergeCell ref="A40:AG40"/>
     <mergeCell ref="A41:AG41"/>
-    <mergeCell ref="A91:AG91"/>
-    <mergeCell ref="A85:AG85"/>
-    <mergeCell ref="A86:AG86"/>
-    <mergeCell ref="A87:AG87"/>
-    <mergeCell ref="A97:AG97"/>
-    <mergeCell ref="A93:AG93"/>
-    <mergeCell ref="A88:AG88"/>
-    <mergeCell ref="A92:AG92"/>
-    <mergeCell ref="A98:AG98"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="A48:AG48"/>
-    <mergeCell ref="A49:AG49"/>
-    <mergeCell ref="A50:AG50"/>
-    <mergeCell ref="A51:AG51"/>
-    <mergeCell ref="A52:AG52"/>
-    <mergeCell ref="A53:AG53"/>
-    <mergeCell ref="A54:AG54"/>
-    <mergeCell ref="A55:AG55"/>
-    <mergeCell ref="A56:AG56"/>
-    <mergeCell ref="A57:AG57"/>
-    <mergeCell ref="A58:AG58"/>
-    <mergeCell ref="A59:AG59"/>
-    <mergeCell ref="A95:AG95"/>
-    <mergeCell ref="A96:AG96"/>
-    <mergeCell ref="A67:AG67"/>
-    <mergeCell ref="A68:AG68"/>
-    <mergeCell ref="A69:AG69"/>
-    <mergeCell ref="A70:AG70"/>
-    <mergeCell ref="A43:AG43"/>
-    <mergeCell ref="A44:AG44"/>
-    <mergeCell ref="A45:AG45"/>
-    <mergeCell ref="A46:AG46"/>
-    <mergeCell ref="A61:AG61"/>
-    <mergeCell ref="A62:AG62"/>
-    <mergeCell ref="A63:AG63"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="A82:AG82"/>
-    <mergeCell ref="A84:AG84"/>
-    <mergeCell ref="A94:AG94"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="A83:AG83"/>
-    <mergeCell ref="A74:AG74"/>
-    <mergeCell ref="A100:AD100"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A38:AG38"/>
-    <mergeCell ref="A39:AG39"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A99:AG99"/>
-    <mergeCell ref="A76:AG76"/>
-    <mergeCell ref="A77:AG77"/>
-    <mergeCell ref="A78:AG78"/>
-    <mergeCell ref="A79:AG79"/>
-    <mergeCell ref="A80:AG80"/>
-    <mergeCell ref="A81:AG81"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -13206,7 +13208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E449E4-475F-4DD8-B8E0-0D43009C2B9E}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16089,4 +16093,3465 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044986C5-C900-4F9D-95D6-3810AD7A428F}">
+  <dimension ref="A1:AI20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>Cleaning!A1</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>TOTAL fatalities</v>
+      </c>
+      <c r="C1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Passenger car occupants</v>
+      </c>
+      <c r="D1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Truck occupants a, light</v>
+      </c>
+      <c r="E1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Pedestrians</v>
+      </c>
+      <c r="F1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Motorcyclists</v>
+      </c>
+      <c r="G1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Pedalcyclists</v>
+      </c>
+      <c r="H1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Highway, other incident b</v>
+      </c>
+      <c r="I1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Truck occupants a, large</v>
+      </c>
+      <c r="J1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Recreational boating c</v>
+      </c>
+      <c r="K1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Railroad, trespassers</v>
+      </c>
+      <c r="L1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>General aviation d</v>
+      </c>
+      <c r="M1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Highway-rail grade crossing</v>
+      </c>
+      <c r="N1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Transit, other incident</v>
+      </c>
+      <c r="O1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Rail, other incidents f</v>
+      </c>
+      <c r="P1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Bus occupants</v>
+      </c>
+      <c r="Q1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Water, freight j</v>
+      </c>
+      <c r="R1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Transit passenger/occupant</v>
+      </c>
+      <c r="S1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>On-demand air taxi g</v>
+      </c>
+      <c r="T1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Water, passenger e</v>
+      </c>
+      <c r="U1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Railroad, train accidents</v>
+      </c>
+      <c r="V1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Water, industrial/other h</v>
+      </c>
+      <c r="W1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Gas pipeline</v>
+      </c>
+      <c r="X1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Train, employee/worker</v>
+      </c>
+      <c r="Y1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Commuter carrier k</v>
+      </c>
+      <c r="Z1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Hazardous liquid pipeline</v>
+      </c>
+      <c r="AA1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>U.S. air carrier i</v>
+      </c>
+      <c r="AB1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Other counts, redundant with above</v>
+      </c>
+      <c r="AC1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Rail, freight</v>
+      </c>
+      <c r="AD1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Rail, passenger</v>
+      </c>
+      <c r="AE1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Transit, rail</v>
+      </c>
+      <c r="AF1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Railroad, killed at public crossing with motor vehicle</v>
+      </c>
+      <c r="AG1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Transit, non-rail</v>
+      </c>
+      <c r="AH1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Water, Vessel-related</v>
+      </c>
+      <c r="AI1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Water, Not related to vessel casualties</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <f ca="1">SUM(G2:AI2)</f>
+        <v>6274</v>
+      </c>
+      <c r="C2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20862</v>
+      </c>
+      <c r="D2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11265</v>
+      </c>
+      <c r="E2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4939</v>
+      </c>
+      <c r="F2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2483</v>
+      </c>
+      <c r="G2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>754</v>
+      </c>
+      <c r="H2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>596</v>
+      </c>
+      <c r="I2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>759</v>
+      </c>
+      <c r="J2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>734</v>
+      </c>
+      <c r="K2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>479</v>
+      </c>
+      <c r="L2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>621</v>
+      </c>
+      <c r="M2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>402</v>
+      </c>
+      <c r="N2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="P2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>59</v>
+      </c>
+      <c r="Q2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>38</v>
+      </c>
+      <c r="T2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="X2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AB2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>745</v>
+      </c>
+      <c r="AD2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>188</v>
+      </c>
+      <c r="AE2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>196</v>
+      </c>
+      <c r="AF2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>309</v>
+      </c>
+      <c r="AG2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>103</v>
+      </c>
+      <c r="AH2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>58</v>
+      </c>
+      <c r="AI2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <f ca="1">SUM(G3:AI3)</f>
+        <v>6240</v>
+      </c>
+      <c r="C3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20699</v>
+      </c>
+      <c r="D3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11526</v>
+      </c>
+      <c r="E3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4763</v>
+      </c>
+      <c r="F3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2897</v>
+      </c>
+      <c r="G3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>693</v>
+      </c>
+      <c r="H3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>591</v>
+      </c>
+      <c r="I3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>754</v>
+      </c>
+      <c r="J3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>701</v>
+      </c>
+      <c r="K3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>463</v>
+      </c>
+      <c r="L3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>596</v>
+      </c>
+      <c r="M3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>425</v>
+      </c>
+      <c r="N3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>71</v>
+      </c>
+      <c r="T3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="X3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>92</v>
+      </c>
+      <c r="AB3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>717</v>
+      </c>
+      <c r="AD3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>220</v>
+      </c>
+      <c r="AE3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>197</v>
+      </c>
+      <c r="AF3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>306</v>
+      </c>
+      <c r="AG3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>98</v>
+      </c>
+      <c r="AH3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>53</v>
+      </c>
+      <c r="AI3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <f ca="1">SUM(G4:AI4)</f>
+        <v>6580</v>
+      </c>
+      <c r="C4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20320</v>
+      </c>
+      <c r="D4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11723</v>
+      </c>
+      <c r="E4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4901</v>
+      </c>
+      <c r="F4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3197</v>
+      </c>
+      <c r="G4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>732</v>
+      </c>
+      <c r="H4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>581</v>
+      </c>
+      <c r="I4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>708</v>
+      </c>
+      <c r="J4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>681</v>
+      </c>
+      <c r="K4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>511</v>
+      </c>
+      <c r="L4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>562</v>
+      </c>
+      <c r="M4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>421</v>
+      </c>
+      <c r="N4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="P4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="Q4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="T4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13</v>
+      </c>
+      <c r="Z4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>531</v>
+      </c>
+      <c r="AB4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>729</v>
+      </c>
+      <c r="AD4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>242</v>
+      </c>
+      <c r="AE4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>167</v>
+      </c>
+      <c r="AF4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>315</v>
+      </c>
+      <c r="AG4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>100</v>
+      </c>
+      <c r="AH4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>53</v>
+      </c>
+      <c r="AI4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <f ca="1">SUM(G5:AI5)</f>
+        <v>6189</v>
+      </c>
+      <c r="C5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20569</v>
+      </c>
+      <c r="D5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12274</v>
+      </c>
+      <c r="E5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4851</v>
+      </c>
+      <c r="F5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3270</v>
+      </c>
+      <c r="G5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>665</v>
+      </c>
+      <c r="H5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>642</v>
+      </c>
+      <c r="I5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>689</v>
+      </c>
+      <c r="J5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>750</v>
+      </c>
+      <c r="K5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>540</v>
+      </c>
+      <c r="L5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>581</v>
+      </c>
+      <c r="M5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>357</v>
+      </c>
+      <c r="N5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>130</v>
+      </c>
+      <c r="O5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="P5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="Q5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="R5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="S5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>35</v>
+      </c>
+      <c r="T5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="U5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="V5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="W5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>725</v>
+      </c>
+      <c r="AD5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>226</v>
+      </c>
+      <c r="AE5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>89</v>
+      </c>
+      <c r="AF5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>271</v>
+      </c>
+      <c r="AG5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>93</v>
+      </c>
+      <c r="AH5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="AI5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <f ca="1">SUM(G6:AI6)</f>
+        <v>6183</v>
+      </c>
+      <c r="C6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19725</v>
+      </c>
+      <c r="D6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12546</v>
+      </c>
+      <c r="E6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4774</v>
+      </c>
+      <c r="F6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3714</v>
+      </c>
+      <c r="G6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>629</v>
+      </c>
+      <c r="H6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>729</v>
+      </c>
+      <c r="I6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>726</v>
+      </c>
+      <c r="J6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>703</v>
+      </c>
+      <c r="K6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>498</v>
+      </c>
+      <c r="L6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>633</v>
+      </c>
+      <c r="M6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>334</v>
+      </c>
+      <c r="N6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>143</v>
+      </c>
+      <c r="O6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="R6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>51</v>
+      </c>
+      <c r="S6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="T6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>52</v>
+      </c>
+      <c r="U6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="W6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="X6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="AB6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>683</v>
+      </c>
+      <c r="AD6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>182</v>
+      </c>
+      <c r="AE6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="AF6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>249</v>
+      </c>
+      <c r="AG6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>136</v>
+      </c>
+      <c r="AH6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="AI6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <f ca="1">SUM(G7:AI7)</f>
+        <v>6268</v>
+      </c>
+      <c r="C7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19192</v>
+      </c>
+      <c r="D7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12674</v>
+      </c>
+      <c r="E7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4675</v>
+      </c>
+      <c r="F7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4028</v>
+      </c>
+      <c r="G7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>727</v>
+      </c>
+      <c r="H7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>732</v>
+      </c>
+      <c r="I7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>766</v>
+      </c>
+      <c r="J7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>676</v>
+      </c>
+      <c r="K7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>472</v>
+      </c>
+      <c r="L7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>559</v>
+      </c>
+      <c r="M7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>371</v>
+      </c>
+      <c r="N7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>136</v>
+      </c>
+      <c r="O7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>35</v>
+      </c>
+      <c r="P7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="R7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="S7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="T7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>55</v>
+      </c>
+      <c r="U7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13</v>
+      </c>
+      <c r="V7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="W7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="X7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AB7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>690</v>
+      </c>
+      <c r="AD7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>201</v>
+      </c>
+      <c r="AE7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>82</v>
+      </c>
+      <c r="AF7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>256</v>
+      </c>
+      <c r="AG7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>95</v>
+      </c>
+      <c r="AH7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>65</v>
+      </c>
+      <c r="AI7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <f ca="1">SUM(G8:AI8)</f>
+        <v>6379</v>
+      </c>
+      <c r="C8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18512</v>
+      </c>
+      <c r="D8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13037</v>
+      </c>
+      <c r="E8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4892</v>
+      </c>
+      <c r="F8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4576</v>
+      </c>
+      <c r="G8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>786</v>
+      </c>
+      <c r="H8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>845</v>
+      </c>
+      <c r="I8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>804</v>
+      </c>
+      <c r="J8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>697</v>
+      </c>
+      <c r="K8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>458</v>
+      </c>
+      <c r="L8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>563</v>
+      </c>
+      <c r="M8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>359</v>
+      </c>
+      <c r="N8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>94</v>
+      </c>
+      <c r="O8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="P8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>58</v>
+      </c>
+      <c r="Q8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="R8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="S8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>52</v>
+      </c>
+      <c r="U8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="V8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="W8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="X8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="AB8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>682</v>
+      </c>
+      <c r="AD8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>202</v>
+      </c>
+      <c r="AE8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="AF8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>258</v>
+      </c>
+      <c r="AG8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>92</v>
+      </c>
+      <c r="AH8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="AI8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <f ca="1">SUM(G9:AI9)</f>
+        <v>6580</v>
+      </c>
+      <c r="C9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>17925</v>
+      </c>
+      <c r="D9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12761</v>
+      </c>
+      <c r="E9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4795</v>
+      </c>
+      <c r="F9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4837</v>
+      </c>
+      <c r="G9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>772</v>
+      </c>
+      <c r="H9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>786</v>
+      </c>
+      <c r="I9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>805</v>
+      </c>
+      <c r="J9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>710</v>
+      </c>
+      <c r="K9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>511</v>
+      </c>
+      <c r="L9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>706</v>
+      </c>
+      <c r="M9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>369</v>
+      </c>
+      <c r="N9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>133</v>
+      </c>
+      <c r="O9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>17</v>
+      </c>
+      <c r="P9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="Q9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="R9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>91</v>
+      </c>
+      <c r="U9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="W9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>21</v>
+      </c>
+      <c r="X9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>723</v>
+      </c>
+      <c r="AD9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>180</v>
+      </c>
+      <c r="AE9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="AF9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>267</v>
+      </c>
+      <c r="AG9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>121</v>
+      </c>
+      <c r="AH9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="AI9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <f ca="1">SUM(G10:AI10)</f>
+        <v>6112</v>
+      </c>
+      <c r="C10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>16614</v>
+      </c>
+      <c r="D10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12458</v>
+      </c>
+      <c r="E10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4699</v>
+      </c>
+      <c r="F10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5174</v>
+      </c>
+      <c r="G10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>701</v>
+      </c>
+      <c r="H10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>772</v>
+      </c>
+      <c r="I10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>805</v>
+      </c>
+      <c r="J10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>685</v>
+      </c>
+      <c r="K10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>470</v>
+      </c>
+      <c r="L10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>496</v>
+      </c>
+      <c r="M10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>339</v>
+      </c>
+      <c r="N10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>153</v>
+      </c>
+      <c r="O10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="P10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="R10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="S10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>43</v>
+      </c>
+      <c r="T10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>79</v>
+      </c>
+      <c r="U10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="W10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>635</v>
+      </c>
+      <c r="AD10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>216</v>
+      </c>
+      <c r="AE10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="AF10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>227</v>
+      </c>
+      <c r="AG10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>122</v>
+      </c>
+      <c r="AH10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="AI10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <f ca="1">SUM(G11:AI11)</f>
+        <v>5969</v>
+      </c>
+      <c r="C11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>14646</v>
+      </c>
+      <c r="D11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10816</v>
+      </c>
+      <c r="E11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4414</v>
+      </c>
+      <c r="F11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5312</v>
+      </c>
+      <c r="G11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>718</v>
+      </c>
+      <c r="H11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>768</v>
+      </c>
+      <c r="I11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>682</v>
+      </c>
+      <c r="J11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>709</v>
+      </c>
+      <c r="K11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>457</v>
+      </c>
+      <c r="L11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>496</v>
+      </c>
+      <c r="M11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>290</v>
+      </c>
+      <c r="N11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>158</v>
+      </c>
+      <c r="O11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>67</v>
+      </c>
+      <c r="Q11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="R11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>28</v>
+      </c>
+      <c r="S11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>69</v>
+      </c>
+      <c r="T11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>65</v>
+      </c>
+      <c r="U11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="V11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="W11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>575</v>
+      </c>
+      <c r="AD11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>229</v>
+      </c>
+      <c r="AE11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>104</v>
+      </c>
+      <c r="AF11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>199</v>
+      </c>
+      <c r="AG11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>88</v>
+      </c>
+      <c r="AH11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="AI11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <f ca="1">SUM(G12:AI12)</f>
+        <v>5407</v>
+      </c>
+      <c r="C12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13135</v>
+      </c>
+      <c r="D12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10312</v>
+      </c>
+      <c r="E12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4109</v>
+      </c>
+      <c r="F12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4469</v>
+      </c>
+      <c r="G12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>628</v>
+      </c>
+      <c r="H12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>705</v>
+      </c>
+      <c r="I12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>499</v>
+      </c>
+      <c r="J12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>736</v>
+      </c>
+      <c r="K12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>416</v>
+      </c>
+      <c r="L12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>479</v>
+      </c>
+      <c r="M12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>248</v>
+      </c>
+      <c r="N12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>178</v>
+      </c>
+      <c r="O12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="P12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="Q12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="S12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>17</v>
+      </c>
+      <c r="T12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>62</v>
+      </c>
+      <c r="U12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="W12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="Y12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>52</v>
+      </c>
+      <c r="AB12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>481</v>
+      </c>
+      <c r="AD12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>214</v>
+      </c>
+      <c r="AE12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>142</v>
+      </c>
+      <c r="AF12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>161</v>
+      </c>
+      <c r="AG12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>91</v>
+      </c>
+      <c r="AH12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="AI12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <f ca="1">SUM(G13:AI13)</f>
+        <v>5371</v>
+      </c>
+      <c r="C13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12491</v>
+      </c>
+      <c r="D13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9782</v>
+      </c>
+      <c r="E13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4302</v>
+      </c>
+      <c r="F13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4518</v>
+      </c>
+      <c r="G13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>623</v>
+      </c>
+      <c r="H13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>709</v>
+      </c>
+      <c r="I13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>530</v>
+      </c>
+      <c r="J13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>672</v>
+      </c>
+      <c r="K13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>441</v>
+      </c>
+      <c r="L13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>458</v>
+      </c>
+      <c r="M13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>261</v>
+      </c>
+      <c r="N13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>174</v>
+      </c>
+      <c r="O13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="R13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="S13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>87</v>
+      </c>
+      <c r="U13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="V13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="W13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>21</v>
+      </c>
+      <c r="X13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>520</v>
+      </c>
+      <c r="AD13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>215</v>
+      </c>
+      <c r="AE13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>122</v>
+      </c>
+      <c r="AF13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>136</v>
+      </c>
+      <c r="AG13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>100</v>
+      </c>
+      <c r="AH13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="AI13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <f ca="1">SUM(G14:AI14)</f>
+        <v>5514</v>
+      </c>
+      <c r="C14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12014</v>
+      </c>
+      <c r="D14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9302</v>
+      </c>
+      <c r="E14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4457</v>
+      </c>
+      <c r="F14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4630</v>
+      </c>
+      <c r="G14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>682</v>
+      </c>
+      <c r="H14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>699</v>
+      </c>
+      <c r="I14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>640</v>
+      </c>
+      <c r="J14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>758</v>
+      </c>
+      <c r="K14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>399</v>
+      </c>
+      <c r="L14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>458</v>
+      </c>
+      <c r="M14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>246</v>
+      </c>
+      <c r="N14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>181</v>
+      </c>
+      <c r="O14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="P14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>55</v>
+      </c>
+      <c r="Q14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="R14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="T14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>96</v>
+      </c>
+      <c r="U14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="W14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13</v>
+      </c>
+      <c r="X14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>492</v>
+      </c>
+      <c r="AD14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>189</v>
+      </c>
+      <c r="AE14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>130</v>
+      </c>
+      <c r="AF14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>138</v>
+      </c>
+      <c r="AG14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>96</v>
+      </c>
+      <c r="AH14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="AI14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <f ca="1">SUM(G15:AI15)</f>
+        <v>5514</v>
+      </c>
+      <c r="C15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12361</v>
+      </c>
+      <c r="D15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9418</v>
+      </c>
+      <c r="E15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4818</v>
+      </c>
+      <c r="F15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4986</v>
+      </c>
+      <c r="G15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>734</v>
+      </c>
+      <c r="H15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>729</v>
+      </c>
+      <c r="I15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>697</v>
+      </c>
+      <c r="J15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>651</v>
+      </c>
+      <c r="K15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>405</v>
+      </c>
+      <c r="L15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>438</v>
+      </c>
+      <c r="M15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>231</v>
+      </c>
+      <c r="N15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>193</v>
+      </c>
+      <c r="O15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>24</v>
+      </c>
+      <c r="P15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="Q15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>67</v>
+      </c>
+      <c r="S15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="T15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>84</v>
+      </c>
+      <c r="U15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="X15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>475</v>
+      </c>
+      <c r="AD15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>194</v>
+      </c>
+      <c r="AE15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="AF15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>115</v>
+      </c>
+      <c r="AH15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>25</v>
+      </c>
+      <c r="AI15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <f ca="1">SUM(G16:AI16)</f>
+        <v>5468</v>
+      </c>
+      <c r="C16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12037</v>
+      </c>
+      <c r="D16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9186</v>
+      </c>
+      <c r="E16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4779</v>
+      </c>
+      <c r="F16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4692</v>
+      </c>
+      <c r="G16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>749</v>
+      </c>
+      <c r="H16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>701</v>
+      </c>
+      <c r="I16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>695</v>
+      </c>
+      <c r="J16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>560</v>
+      </c>
+      <c r="K16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>427</v>
+      </c>
+      <c r="L16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>390</v>
+      </c>
+      <c r="M16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>232</v>
+      </c>
+      <c r="N16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>206</v>
+      </c>
+      <c r="O16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="P16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>54</v>
+      </c>
+      <c r="Q16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="R16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>56</v>
+      </c>
+      <c r="S16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>25</v>
+      </c>
+      <c r="T16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="U16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="V16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="W16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="X16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="Y16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="AB16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>505</v>
+      </c>
+      <c r="AD16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>197</v>
+      </c>
+      <c r="AE16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>149</v>
+      </c>
+      <c r="AF16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>141</v>
+      </c>
+      <c r="AG16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>124</v>
+      </c>
+      <c r="AH16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <f ca="1">SUM(G17:AI17)</f>
+        <v>5545</v>
+      </c>
+      <c r="C17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11947</v>
+      </c>
+      <c r="D17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9103</v>
+      </c>
+      <c r="E17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4910</v>
+      </c>
+      <c r="F17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4594</v>
+      </c>
+      <c r="G17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>729</v>
+      </c>
+      <c r="H17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>761</v>
+      </c>
+      <c r="I17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>656</v>
+      </c>
+      <c r="J17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>610</v>
+      </c>
+      <c r="K17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>470</v>
+      </c>
+      <c r="L17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>423</v>
+      </c>
+      <c r="M17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>262</v>
+      </c>
+      <c r="N17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>174</v>
+      </c>
+      <c r="O17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="P17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="Q17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="R17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>14</v>
+      </c>
+      <c r="U17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="W17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="X17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>551</v>
+      </c>
+      <c r="AD17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>220</v>
+      </c>
+      <c r="AE17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>135</v>
+      </c>
+      <c r="AF17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>144</v>
+      </c>
+      <c r="AG17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>101</v>
+      </c>
+      <c r="AH17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <f ca="1">SUM(G18:AI18)</f>
+        <v>5645</v>
+      </c>
+      <c r="C18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12763</v>
+      </c>
+      <c r="D18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9878</v>
+      </c>
+      <c r="E18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5494</v>
+      </c>
+      <c r="F18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5029</v>
+      </c>
+      <c r="G18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>829</v>
+      </c>
+      <c r="H18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>777</v>
+      </c>
+      <c r="I18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>665</v>
+      </c>
+      <c r="J18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>626</v>
+      </c>
+      <c r="K18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="L18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>378</v>
+      </c>
+      <c r="M18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>237</v>
+      </c>
+      <c r="N18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>221</v>
+      </c>
+      <c r="O18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>51</v>
+      </c>
+      <c r="P18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="Q18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>41</v>
+      </c>
+      <c r="R18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="S18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="T18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>500</v>
+      </c>
+      <c r="AD18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>249</v>
+      </c>
+      <c r="AE18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="AF18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>128</v>
+      </c>
+      <c r="AG18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>104</v>
+      </c>
+      <c r="AH18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="AI18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <f ca="1">SUM(G19:AI19)</f>
+        <v>5878</v>
+      </c>
+      <c r="C19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13508</v>
+      </c>
+      <c r="D19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10369</v>
+      </c>
+      <c r="E19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6080</v>
+      </c>
+      <c r="F19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5337</v>
+      </c>
+      <c r="G19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>852</v>
+      </c>
+      <c r="H19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>871</v>
+      </c>
+      <c r="I19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>725</v>
+      </c>
+      <c r="J19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>701</v>
+      </c>
+      <c r="K19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>467</v>
+      </c>
+      <c r="L19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>386</v>
+      </c>
+      <c r="M19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>255</v>
+      </c>
+      <c r="N19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>200</v>
+      </c>
+      <c r="O19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="P19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="Q19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="S19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="T19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="V19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13</v>
+      </c>
+      <c r="X19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Y19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Z19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>507</v>
+      </c>
+      <c r="AD19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>253</v>
+      </c>
+      <c r="AE19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>149</v>
+      </c>
+      <c r="AF19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>130</v>
+      </c>
+      <c r="AG19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>108</v>
+      </c>
+      <c r="AH19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="AI19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <f ca="1">SUM(G20:AI20)</f>
+        <v>5823</v>
+      </c>
+      <c r="C20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13363</v>
+      </c>
+      <c r="D20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10188</v>
+      </c>
+      <c r="E20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5977</v>
+      </c>
+      <c r="F20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5172</v>
+      </c>
+      <c r="G20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>783</v>
+      </c>
+      <c r="H20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>765</v>
+      </c>
+      <c r="I20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>841</v>
+      </c>
+      <c r="J20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>658</v>
+      </c>
+      <c r="K20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>513</v>
+      </c>
+      <c r="L20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>330</v>
+      </c>
+      <c r="M20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>271</v>
+      </c>
+      <c r="N20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>190</v>
+      </c>
+      <c r="O20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="P20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="Q20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="R20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="S20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="T20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>28</v>
+      </c>
+      <c r="W20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="X20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>520</v>
+      </c>
+      <c r="AD20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>304</v>
+      </c>
+      <c r="AE20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>143</v>
+      </c>
+      <c r="AF20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>140</v>
+      </c>
+      <c r="AG20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>98</v>
+      </c>
+      <c r="AH20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>23</v>
+      </c>
+      <c r="AI20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9B4E0C-285B-4126-BF9C-FE4DFDC277F9}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>Cleaning!A1</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>TOTAL fatalities</v>
+      </c>
+      <c r="C1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Passenger car occupants</v>
+      </c>
+      <c r="D1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Truck occupants a, light</v>
+      </c>
+      <c r="E1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Pedestrians</v>
+      </c>
+      <c r="F1" t="str">
+        <f ca="1">OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)</f>
+        <v>Motorcyclists</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <f ca="1">SUM(C2:F2)</f>
+        <v>39549</v>
+      </c>
+      <c r="C2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20862</v>
+      </c>
+      <c r="D2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11265</v>
+      </c>
+      <c r="E2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4939</v>
+      </c>
+      <c r="F2">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B20" ca="1" si="0">SUM(C3:F3)</f>
+        <v>39885</v>
+      </c>
+      <c r="C3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20699</v>
+      </c>
+      <c r="D3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11526</v>
+      </c>
+      <c r="E3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4763</v>
+      </c>
+      <c r="F3">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>40141</v>
+      </c>
+      <c r="C4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20320</v>
+      </c>
+      <c r="D4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11723</v>
+      </c>
+      <c r="E4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4901</v>
+      </c>
+      <c r="F4">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>40964</v>
+      </c>
+      <c r="C5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>20569</v>
+      </c>
+      <c r="D5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12274</v>
+      </c>
+      <c r="E5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4851</v>
+      </c>
+      <c r="F5">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>40759</v>
+      </c>
+      <c r="C6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19725</v>
+      </c>
+      <c r="D6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12546</v>
+      </c>
+      <c r="E6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4774</v>
+      </c>
+      <c r="F6">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>40569</v>
+      </c>
+      <c r="C7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>19192</v>
+      </c>
+      <c r="D7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12674</v>
+      </c>
+      <c r="E7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4675</v>
+      </c>
+      <c r="F7">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>41017</v>
+      </c>
+      <c r="C8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>18512</v>
+      </c>
+      <c r="D8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13037</v>
+      </c>
+      <c r="E8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4892</v>
+      </c>
+      <c r="F8">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>40318</v>
+      </c>
+      <c r="C9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>17925</v>
+      </c>
+      <c r="D9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12761</v>
+      </c>
+      <c r="E9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4795</v>
+      </c>
+      <c r="F9">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>38945</v>
+      </c>
+      <c r="C10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>16614</v>
+      </c>
+      <c r="D10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12458</v>
+      </c>
+      <c r="E10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4699</v>
+      </c>
+      <c r="F10">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>35188</v>
+      </c>
+      <c r="C11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>14646</v>
+      </c>
+      <c r="D11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10816</v>
+      </c>
+      <c r="E11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4414</v>
+      </c>
+      <c r="F11">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>32025</v>
+      </c>
+      <c r="C12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13135</v>
+      </c>
+      <c r="D12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10312</v>
+      </c>
+      <c r="E12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4109</v>
+      </c>
+      <c r="F12">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>31093</v>
+      </c>
+      <c r="C13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12491</v>
+      </c>
+      <c r="D13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9782</v>
+      </c>
+      <c r="E13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4302</v>
+      </c>
+      <c r="F13">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>30403</v>
+      </c>
+      <c r="C14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12014</v>
+      </c>
+      <c r="D14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9302</v>
+      </c>
+      <c r="E14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4457</v>
+      </c>
+      <c r="F14">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>31583</v>
+      </c>
+      <c r="C15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12361</v>
+      </c>
+      <c r="D15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9418</v>
+      </c>
+      <c r="E15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4818</v>
+      </c>
+      <c r="F15">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>30694</v>
+      </c>
+      <c r="C16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12037</v>
+      </c>
+      <c r="D16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9186</v>
+      </c>
+      <c r="E16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4779</v>
+      </c>
+      <c r="F16">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>30554</v>
+      </c>
+      <c r="C17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>11947</v>
+      </c>
+      <c r="D17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9103</v>
+      </c>
+      <c r="E17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4910</v>
+      </c>
+      <c r="F17">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>33164</v>
+      </c>
+      <c r="C18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>12763</v>
+      </c>
+      <c r="D18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>9878</v>
+      </c>
+      <c r="E18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5494</v>
+      </c>
+      <c r="F18">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>35294</v>
+      </c>
+      <c r="C19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13508</v>
+      </c>
+      <c r="D19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10369</v>
+      </c>
+      <c r="E19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>6080</v>
+      </c>
+      <c r="F19">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>34700</v>
+      </c>
+      <c r="C20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>13363</v>
+      </c>
+      <c r="D20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>10188</v>
+      </c>
+      <c r="E20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5977</v>
+      </c>
+      <c r="F20">
+        <f ca="1">IFERROR(_xlfn.NUMBERVALUE(OFFSET(Cleaning!$A$1,COLUMN()-1, ROW()-1)),0)</f>
+        <v>5172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>